--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04A4284-AD97-4CF7-92E6-2CC607E623F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DC072B-AD33-4827-80D5-F25E780ABBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="189">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -734,6 +734,10 @@
     <t>CCP_voltage_drain_V</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>ピトー管</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -1087,8 +1091,8 @@
   </sheetPr>
   <dimension ref="A1:AD873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L100" sqref="L100"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5461,7 +5465,7 @@
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="8"/>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0AA46C-A49B-4855-8076-484BAA570BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A675962-41F0-4A3D-A471-724EA6B39A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="255" windowWidth="21600" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project-e" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="208">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -760,6 +760,66 @@
     <t>CCP_voltage_main_V</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>加速度(acX[m/s^2],acY[m/s^2], acZ[m/s^2])</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>線形加速度ベクトル(acX[m/s^2],acY[m/s^2], acZ[m/s^2])</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_A_accel_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_B_accel_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_B_accel_G_cancel_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_A_gyro_rads</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_B_gyro_rads</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_A_mag_uT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_B_mag_uT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_A_euler_rad</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_B_euler_rad</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_C_accel_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_C_gyro_rads</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_C_mag_uT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_C_euler_rad</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -1113,8 +1173,8 @@
   </sheetPr>
   <dimension ref="A1:AD873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1124,7 +1184,7 @@
     <col min="3" max="3" width="12.5703125" style="10"/>
     <col min="4" max="4" width="11" style="10" customWidth="1"/>
     <col min="5" max="5" width="30.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="10" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="12.5703125" style="10"/>
@@ -6776,7 +6836,7 @@
         <v>fp16</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>101</v>
@@ -6872,7 +6932,7 @@
         <v>fp16</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>104</v>
@@ -6968,7 +7028,7 @@
         <v>fp16</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>106</v>
@@ -7064,7 +7124,7 @@
         <v>fp16</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="F126" s="9" t="s">
         <v>108</v>
@@ -7506,10 +7566,10 @@
         <v>fp16</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="G136" s="9" t="s">
         <v>102</v>
@@ -7558,8 +7618,12 @@
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
+      <c r="E137" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="G137" s="9"/>
       <c r="H137" s="8"/>
       <c r="I137" s="9"/>
@@ -7602,7 +7666,7 @@
         <v>fp16</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="F138" s="9" t="s">
         <v>104</v>
@@ -7698,7 +7762,7 @@
         <v>fp16</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="F140" s="9" t="s">
         <v>106</v>
@@ -7794,7 +7858,7 @@
         <v>fp16</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="F142" s="9" t="s">
         <v>108</v>
@@ -8236,7 +8300,7 @@
         <v>fp16</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="F152" s="9" t="s">
         <v>101</v>
@@ -8332,7 +8396,7 @@
         <v>fp16</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="F154" s="9" t="s">
         <v>104</v>
@@ -8422,7 +8486,7 @@
         <v>fp16</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="F156" s="9" t="s">
         <v>106</v>
@@ -8512,7 +8576,7 @@
         <v>fp16</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="F158" s="9" t="s">
         <v>108</v>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4959A7E6-CC3D-4079-B36C-BC58BDC3064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FADDA27-9E02-4F49-955E-B137F3247361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="217">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -828,6 +828,34 @@
     <t>FastLogger</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>CCP_D_control</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_D_state</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_E_control</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(CHECK,DRAIN)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_E_state</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(STANDBY,)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Valve</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -1181,8 +1209,8 @@
   </sheetPr>
   <dimension ref="A1:AD873"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2862,11 +2890,19 @@
         <f t="shared" si="2"/>
         <v>文字列</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="9"/>
+      <c r="H35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -2905,11 +2941,19 @@
         <f t="shared" si="2"/>
         <v>文字列</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="9"/>
+      <c r="H36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -2948,10 +2992,19 @@
         <f t="shared" si="2"/>
         <v>文字列</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="E37" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="9"/>
+      <c r="H37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -2990,10 +3043,19 @@
         <f t="shared" si="2"/>
         <v>文字列</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="E38" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="9"/>
+      <c r="H38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B80605-FAF4-4FE4-96B0-ECF750519B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856B4F68-C6CB-4106-AA62-CE379538E83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3832" yWindow="3832" windowWidth="21601" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project-e" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="258">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -901,6 +901,149 @@
     <t>Communication内部</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>CCP_lift_off_judge</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_open_judge</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_opener_state</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_opener_source</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>downlink</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>開放判定</t>
+    <rPh sb="0" eb="2">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>離床判定</t>
+    <rPh sb="0" eb="2">
+      <t>リショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>センサー源</t>
+    <rPh sb="4" eb="5">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>yoyaku(0)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>減速機構状態報告(BMESEN,BMELGO,MPUSEN,MPULOG )</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(CHECK,READY,FLIGHT,OPENED)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CHECK</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>,READY,</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FLIGHT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>,OPENED</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>離床版tネイ</t>
+    <rPh sb="0" eb="2">
+      <t>リショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>BME</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MPU</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SEN</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>LOG</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>kiatu</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>kasoku</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>yoyaku(1)</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>表示はリトルエンディアン</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -1007,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1034,6 +1177,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1254,8 +1398,8 @@
   </sheetPr>
   <dimension ref="A1:AE873"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1970,10 +2114,10 @@
         <v>文字列</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8">
@@ -2026,7 +2170,7 @@
         <v>文字列</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>35</v>
@@ -2138,10 +2282,10 @@
         <v>文字列</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="8" t="s">
@@ -2196,7 +2340,7 @@
         <v>文字列</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>43</v>
@@ -2579,15 +2723,33 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M27" s="9">
+        <v>7</v>
+      </c>
+      <c r="N27" s="9">
+        <v>6</v>
+      </c>
+      <c r="O27" s="9">
+        <v>5</v>
+      </c>
+      <c r="P27" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>3</v>
+      </c>
+      <c r="R27" s="9">
+        <v>2</v>
+      </c>
+      <c r="S27" s="9">
+        <v>1</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
@@ -2623,15 +2785,33 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>236</v>
+      </c>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
@@ -2675,15 +2855,33 @@
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
@@ -2783,8 +2981,6 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
@@ -2836,11 +3032,14 @@
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="M32" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
+      <c r="Q32" s="9" t="s">
+        <v>249</v>
+      </c>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -2888,15 +3087,24 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="U33" s="9">
+        <v>0</v>
+      </c>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -2942,15 +3150,30 @@
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="U34" s="9">
+        <v>1</v>
+      </c>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
@@ -2994,13 +3217,21 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
+      <c r="M35" s="9">
+        <v>1</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>254</v>
+      </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -3048,10 +3279,15 @@
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
+      <c r="M36" s="9">
+        <v>1</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
@@ -3100,7 +3336,9 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="M37" s="9" t="s">
+        <v>244</v>
+      </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
@@ -3154,9 +3392,15 @@
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="M38" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0</v>
+      </c>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
@@ -3206,9 +3450,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
+      <c r="M39" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="O39" s="9">
+        <v>0</v>
+      </c>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
@@ -3260,9 +3510,15 @@
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
+      <c r="M40" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="O40" s="9">
+        <v>1</v>
+      </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
@@ -3408,8 +3664,12 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
+      <c r="M43" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="N43" s="9">
+        <v>1</v>
+      </c>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
@@ -3452,13 +3712,21 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="M44" s="16">
+        <v>10110</v>
+      </c>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
+      <c r="P44" s="9">
+        <v>1</v>
+      </c>
       <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
+      <c r="R44" s="9">
+        <v>1</v>
+      </c>
+      <c r="S44" s="9">
+        <v>1</v>
+      </c>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
@@ -3716,7 +3984,9 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
+      <c r="M49" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BFF51E-79C5-42B4-BFAF-14FC10C83F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E119F18-FF9F-4323-AF9D-9437F47E8DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="360" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project-e" sheetId="3" r:id="rId1"/>
@@ -1431,8 +1431,8 @@
   </sheetPr>
   <dimension ref="A1:AE873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView tabSelected="1" topLeftCell="L14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E119F18-FF9F-4323-AF9D-9437F47E8DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DF409E-C4CE-4C6E-8DB4-B459C58148D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="360" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project-e" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="259">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -1078,6 +1078,10 @@
     <t>CLOSE</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>zaa</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -1432,7 +1436,7 @@
   <dimension ref="A1:AE873"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2773,7 +2777,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>233</v>
@@ -3155,8 +3159,8 @@
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="10">
-        <v>3</v>
+      <c r="L33" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="M33" s="10" t="s">
         <v>237</v>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMasu\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C710AA5-472C-4E6F-AA75-A72849173971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DA7F9C-906B-4BC0-AF1A-08D193957C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="266">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -1084,6 +1084,39 @@
     <t>(ACTIVE,SLEEP)</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>ピトー管気圧</t>
+    <rPh sb="4" eb="6">
+      <t>キアツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ピトー管温度</t>
+    <rPh sb="4" eb="6">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_A_pitot_temperature_deg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_A_pitot_static_pressure_Pa</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ピトー管高度(bmp)</t>
+    <rPh sb="4" eb="6">
+      <t>コウド</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_A_pito_pressure_altitude_m</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -1437,8 +1470,8 @@
   </sheetPr>
   <dimension ref="A1:AE873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6029,7 +6062,7 @@
         <v>11000101001</v>
       </c>
       <c r="C93" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2HEX(A93)</f>
         <v>629</v>
       </c>
       <c r="D93" s="9" t="str">
@@ -6088,9 +6121,11 @@
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E94" s="9"/>
+      <c r="E94" s="9" t="s">
+        <v>263</v>
+      </c>
       <c r="F94" s="9" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="8"/>
@@ -6134,9 +6169,11 @@
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E95" s="9"/>
+      <c r="E95" s="9" t="s">
+        <v>262</v>
+      </c>
       <c r="F95" s="9" t="s">
-        <v>92</v>
+        <v>261</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="8"/>
@@ -6750,9 +6787,11 @@
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E108" s="9"/>
+      <c r="E108" s="12" t="s">
+        <v>265</v>
+      </c>
       <c r="F108" s="9" t="s">
-        <v>92</v>
+        <v>264</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="8"/>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMasu\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DA7F9C-906B-4BC0-AF1A-08D193957C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594AF477-5E72-45E2-BA55-17EB23B55B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="265">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -1107,14 +1107,10 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ピトー管高度(bmp)</t>
-    <rPh sb="4" eb="6">
-      <t>コウド</t>
+    <t>ピトー管</t>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>CCP_A_pito_pressure_altitude_m</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1471,7 +1467,7 @@
   <dimension ref="A1:AE873"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6787,9 +6783,7 @@
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E108" s="12" t="s">
-        <v>265</v>
-      </c>
+      <c r="E108" s="12"/>
       <c r="F108" s="9" t="s">
         <v>264</v>
       </c>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9DF10E-9723-4583-8480-5C77993DEE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742EA14F-11C0-441E-8EFE-49E4E9CA2341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="297">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -713,10 +713,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>PowerLED</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>CCP_voltage_valve_V</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -807,14 +803,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>BNO</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>FastLogger</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>CCP_D_control</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -836,10 +824,6 @@
   </si>
   <si>
     <t>(STANDBY,)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Valve</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1134,6 +1118,136 @@
   </si>
   <si>
     <t>CCP_C_humidity_percent</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FastLoggerCanvas</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_C_accel_G_cancel_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_D_accel_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_D_accel_G_cancel_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_D_gyro_rads</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_D_mag_uT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_D_euler_rad</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FastLogger</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_E_flash_control</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_E_flash_state</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_D_pressure_altitude_m</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_D_pressure_hPa</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_D_temperature_C</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_D_humidity_percent</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_E_pressure_altitude_m</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_E_pressure_hPa</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_E_temperature_C</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_E_humidity_percent</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FastLoggerProe</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>sense</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Nose</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_E_accel_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_E_accel_G_cancel_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_E_gyro_rads</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_E_mag_uT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_E_euler_rad</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>bno055</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>高速ロガー部</t>
+    <rPh sb="0" eb="2">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FastLoggerCanvas</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MPU</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Opener</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1487,10 +1601,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE889"/>
+  <dimension ref="A1:AE955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="B146" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1644,7 +1758,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>147</v>
@@ -1667,15 +1781,15 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <f t="shared" ref="B5:B183" si="0">DEC2BIN(A5/512)*1000000000+DEC2BIN(MOD(A5,512))</f>
+        <f t="shared" ref="B5:B217" si="0">DEC2BIN(A5/512)*1000000000+DEC2BIN(MOD(A5,512))</f>
         <v>0</v>
       </c>
       <c r="C5" s="8" t="str">
-        <f t="shared" ref="C5:C183" si="1">DEC2HEX(A5)</f>
+        <f t="shared" ref="C5:C217" si="1">DEC2HEX(A5)</f>
         <v>0</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f t="shared" ref="D5:D183" si="2">IF(A5=0,"-", IF(A5&lt;1024,"文字列",IF(A5&lt;1280,"uint32_t",IF(A5&lt;1536,"uint16_t",IF(A5&lt;1792,"float","fp16")))))</f>
+        <f t="shared" ref="D5:D217" si="2">IF(A5=0,"-", IF(A5&lt;1024,"文字列",IF(A5&lt;1280,"uint32_t",IF(A5&lt;1536,"uint16_t",IF(A5&lt;1792,"float","fp16")))))</f>
         <v>-</v>
       </c>
       <c r="E5" s="9"/>
@@ -1749,7 +1863,9 @@
       <c r="T6" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="U6" s="9"/>
+      <c r="U6" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="V6" s="9"/>
       <c r="W6" s="9" t="s">
         <v>164</v>
@@ -1793,13 +1909,13 @@
         <v>10</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>154</v>
@@ -1811,12 +1927,14 @@
         <v>157</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="U7" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="V7" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
@@ -1867,29 +1985,32 @@
       </c>
       <c r="P8" s="9">
         <f>SUMIF($I:$I,P7,$H:$H)</f>
-        <v>490</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="9">
         <f>SUMIF($I:$I,Q7,$H:$H)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R8" s="9">
         <f>SUMIF($I:$I,R7,$H:$H)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S8" s="9">
         <f>SUMIF($I:$I,S7,$H:$H)</f>
-        <v>240</v>
+        <v>470</v>
       </c>
       <c r="T8" s="9">
         <f>SUMIF($I:$I,T7,$H:$H)</f>
         <v>130</v>
       </c>
       <c r="U8" s="9">
-        <f>SUM(M8:R8)</f>
-        <v>950</v>
-      </c>
-      <c r="V8" s="9"/>
+        <f>SUMIF($I:$I,U7,$H:$H)</f>
+        <v>410</v>
+      </c>
+      <c r="V8" s="9">
+        <f>SUM(M8:U8)</f>
+        <v>1600</v>
+      </c>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
@@ -2102,7 +2223,7 @@
         <v>26</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9">
@@ -2157,7 +2278,7 @@
         <v>26</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9" t="s">
@@ -2205,10 +2326,10 @@
         <v>文字列</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8">
@@ -2261,7 +2382,7 @@
         <v>文字列</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>35</v>
@@ -2327,7 +2448,7 @@
         <v>26</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -2373,10 +2494,10 @@
         <v>文字列</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="8" t="s">
@@ -2386,7 +2507,7 @@
         <v>15</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9">
@@ -2431,7 +2552,7 @@
         <v>文字列</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>43</v>
@@ -2834,16 +2955,16 @@
         <v>1</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q27" s="10">
         <v>0</v>
@@ -2852,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
@@ -2904,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="S28" s="10">
         <v>0</v>
@@ -2913,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
@@ -2953,7 +3074,7 @@
         <v>26</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2970,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="S29" s="10">
         <v>0</v>
@@ -2979,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
@@ -3022,7 +3143,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K30" s="9"/>
       <c r="M30" s="10">
@@ -3038,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="S30" s="10">
         <v>1</v>
@@ -3047,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
@@ -3087,7 +3208,7 @@
         <v>26</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -3104,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="S31" s="10">
         <v>1</v>
@@ -3113,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
@@ -3153,23 +3274,23 @@
         <v>26</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K32" s="9"/>
       <c r="M32" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
@@ -3202,40 +3323,40 @@
         <v>159</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="M33" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q33" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="N33" s="10" t="s">
+      <c r="R33" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="O33" s="10" t="s">
+      <c r="S33" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="P33" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q33" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="S33" s="10" t="s">
-        <v>240</v>
-      </c>
       <c r="T33" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
@@ -3268,7 +3389,7 @@
         <v>160</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="8" t="s">
@@ -3278,17 +3399,17 @@
         <v>157</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K34" s="9"/>
       <c r="M34" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="U34" s="10">
         <v>1</v>
@@ -3321,7 +3442,7 @@
         <v>文字列</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>45</v>
@@ -3331,18 +3452,18 @@
         <v>26</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="M35" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="U35" s="10">
         <v>0</v>
@@ -3375,7 +3496,7 @@
         <v>文字列</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>47</v>
@@ -3385,10 +3506,10 @@
         <v>26</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K36" s="9"/>
       <c r="V36" s="9"/>
@@ -3419,17 +3540,17 @@
         <v>文字列</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -3461,20 +3582,20 @@
         <v>文字列</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K38" s="9"/>
       <c r="V38" s="9"/>
@@ -3505,17 +3626,17 @@
         <v>文字列</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3547,20 +3668,20 @@
         <v>文字列</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K40" s="9"/>
       <c r="V40" s="9"/>
@@ -3763,7 +3884,7 @@
         <v>26</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3809,10 +3930,10 @@
         <v>26</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -3863,7 +3984,7 @@
         <v>26</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -3915,10 +4036,10 @@
         <v>26</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -3967,7 +4088,7 @@
         <v>26</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -4021,7 +4142,7 @@
         <v>157</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -4069,7 +4190,7 @@
         <v>26</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -4118,10 +4239,10 @@
         <v>26</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -4148,22 +4269,30 @@
         <v>48</v>
       </c>
       <c r="B53" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B53:B54" si="3">DEC2BIN(A53/512)*1000000000+DEC2BIN(MOD(A53,512))</f>
         <v>110000</v>
       </c>
       <c r="C53" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C53:C54" si="4">DEC2HEX(A53)</f>
         <v>30</v>
       </c>
       <c r="D53" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D53:D54" si="5">IF(A53=0,"-", IF(A53&lt;1024,"文字列",IF(A53&lt;1280,"uint32_t",IF(A53&lt;1536,"uint16_t",IF(A53&lt;1792,"float","fp16")))))</f>
         <v>文字列</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="G53" s="9"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
+      <c r="H53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -4188,26 +4317,36 @@
     </row>
     <row r="54" spans="1:31" ht="12">
       <c r="A54" s="8">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B54" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>110001</v>
       </c>
       <c r="C54" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>31</v>
       </c>
       <c r="D54" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
+        <f t="shared" si="5"/>
+        <v>文字列</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="H54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -4232,19 +4371,19 @@
     </row>
     <row r="55" spans="1:31" ht="12">
       <c r="A55" s="8">
-        <v>1024</v>
+        <v>50</v>
       </c>
       <c r="B55" s="8">
         <f t="shared" si="0"/>
-        <v>10000000000</v>
+        <v>110010</v>
       </c>
       <c r="C55" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>32</v>
       </c>
       <c r="D55" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>uint32_t</v>
+        <v>文字列</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -4318,33 +4457,25 @@
     </row>
     <row r="57" spans="1:31" ht="12">
       <c r="A57" s="8">
-        <v>1040</v>
+        <v>1024</v>
       </c>
       <c r="B57" s="8">
         <f t="shared" si="0"/>
-        <v>10000010000</v>
+        <v>10000000000</v>
       </c>
       <c r="C57" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D57" s="9" t="str">
         <f t="shared" si="2"/>
         <v>uint32_t</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -4370,33 +4501,25 @@
     </row>
     <row r="58" spans="1:31" ht="12">
       <c r="A58" s="8">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="B58" s="8">
         <f t="shared" si="0"/>
-        <v>10000010001</v>
+        <v>0</v>
       </c>
       <c r="C58" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="D58" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>uint32_t</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>68</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -4421,26 +4544,34 @@
       <c r="AE58" s="9"/>
     </row>
     <row r="59" spans="1:31" ht="12">
-      <c r="A59" s="9">
-        <v>0</v>
+      <c r="A59" s="8">
+        <v>1040</v>
       </c>
       <c r="B59" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10000010000</v>
       </c>
       <c r="C59" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="D59" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
+        <v>uint32_t</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="G59" s="9"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
+      <c r="H59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -4466,32 +4597,32 @@
     </row>
     <row r="60" spans="1:31" ht="12">
       <c r="A60" s="8">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="B60" s="8">
         <f t="shared" si="0"/>
-        <v>10000100000</v>
+        <v>10000010001</v>
       </c>
       <c r="C60" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D60" s="9" t="str">
         <f t="shared" si="2"/>
         <v>uint32_t</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G60" s="9"/>
-      <c r="H60" s="8">
-        <v>20</v>
+      <c r="H60" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -4518,33 +4649,25 @@
     </row>
     <row r="61" spans="1:31" ht="12">
       <c r="A61" s="9">
-        <v>1057</v>
+        <v>0</v>
       </c>
       <c r="B61" s="8">
         <f t="shared" si="0"/>
-        <v>10000100001</v>
+        <v>0</v>
       </c>
       <c r="C61" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="D61" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>uint32_t</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>72</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="8">
-        <v>20</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
@@ -4570,32 +4693,32 @@
     </row>
     <row r="62" spans="1:31" ht="12">
       <c r="A62" s="8">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B62" s="8">
         <f t="shared" si="0"/>
-        <v>10000100010</v>
+        <v>10000100000</v>
       </c>
       <c r="C62" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D62" s="9" t="str">
         <f t="shared" si="2"/>
         <v>uint32_t</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="8">
         <v>20</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>13</v>
+        <v>284</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -4622,32 +4745,32 @@
     </row>
     <row r="63" spans="1:31" ht="12">
       <c r="A63" s="9">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B63" s="8">
         <f t="shared" si="0"/>
-        <v>10000100011</v>
+        <v>10000100001</v>
       </c>
       <c r="C63" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D63" s="9" t="str">
         <f t="shared" si="2"/>
         <v>uint32_t</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="8">
         <v>20</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>13</v>
+        <v>284</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -4674,32 +4797,32 @@
     </row>
     <row r="64" spans="1:31" ht="12">
       <c r="A64" s="8">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B64" s="8">
-        <f t="shared" ref="B64:B71" si="3">DEC2BIN(A64/512)*1000000000+DEC2BIN(MOD(A64,512))</f>
-        <v>10000100100</v>
+        <f t="shared" si="0"/>
+        <v>10000100010</v>
       </c>
       <c r="C64" s="8" t="str">
-        <f t="shared" ref="C64:C71" si="4">DEC2HEX(A64)</f>
-        <v>424</v>
+        <f t="shared" si="1"/>
+        <v>422</v>
       </c>
       <c r="D64" s="9" t="str">
-        <f t="shared" ref="D64:D71" si="5">IF(A64=0,"-", IF(A64&lt;1024,"文字列",IF(A64&lt;1280,"uint32_t",IF(A64&lt;1536,"uint16_t",IF(A64&lt;1792,"float","fp16")))))</f>
+        <f t="shared" si="2"/>
         <v>uint32_t</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -4726,32 +4849,32 @@
     </row>
     <row r="65" spans="1:31" ht="12">
       <c r="A65" s="9">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B65" s="8">
-        <f t="shared" si="3"/>
-        <v>10000100101</v>
+        <f t="shared" si="0"/>
+        <v>10000100011</v>
       </c>
       <c r="C65" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>425</v>
+        <f t="shared" si="1"/>
+        <v>423</v>
       </c>
       <c r="D65" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>uint32_t</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -4778,25 +4901,25 @@
     </row>
     <row r="66" spans="1:31" ht="12">
       <c r="A66" s="8">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B66" s="8">
-        <f t="shared" si="3"/>
-        <v>10000100110</v>
+        <f t="shared" ref="B66:B73" si="6">DEC2BIN(A66/512)*1000000000+DEC2BIN(MOD(A66,512))</f>
+        <v>10000100100</v>
       </c>
       <c r="C66" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>426</v>
+        <f t="shared" ref="C66:C73" si="7">DEC2HEX(A66)</f>
+        <v>424</v>
       </c>
       <c r="D66" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D66:D73" si="8">IF(A66=0,"-", IF(A66&lt;1024,"文字列",IF(A66&lt;1280,"uint32_t",IF(A66&lt;1536,"uint16_t",IF(A66&lt;1792,"float","fp16")))))</f>
         <v>uint32_t</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="8">
@@ -4809,7 +4932,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
@@ -4832,25 +4955,25 @@
     </row>
     <row r="67" spans="1:31" ht="12">
       <c r="A67" s="9">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B67" s="8">
-        <f t="shared" si="3"/>
-        <v>10000100111</v>
+        <f t="shared" si="6"/>
+        <v>10000100101</v>
       </c>
       <c r="C67" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>427</v>
+        <f t="shared" si="7"/>
+        <v>425</v>
       </c>
       <c r="D67" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>uint32_t</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="8">
@@ -4884,32 +5007,32 @@
     </row>
     <row r="68" spans="1:31" ht="12">
       <c r="A68" s="8">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B68" s="8">
-        <f t="shared" si="3"/>
-        <v>10000101000</v>
+        <f t="shared" si="6"/>
+        <v>10000100110</v>
       </c>
       <c r="C68" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>428</v>
+        <f t="shared" si="7"/>
+        <v>426</v>
       </c>
       <c r="D68" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>uint32_t</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="8">
         <v>10</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -4936,32 +5059,32 @@
     </row>
     <row r="69" spans="1:31" ht="12">
       <c r="A69" s="9">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B69" s="8">
-        <f t="shared" si="3"/>
-        <v>10000101001</v>
+        <f t="shared" si="6"/>
+        <v>10000100111</v>
       </c>
       <c r="C69" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>429</v>
+        <f t="shared" si="7"/>
+        <v>427</v>
       </c>
       <c r="D69" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>uint32_t</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="8">
         <v>10</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -4988,25 +5111,25 @@
     </row>
     <row r="70" spans="1:31" ht="12">
       <c r="A70" s="8">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B70" s="8">
-        <f t="shared" si="3"/>
-        <v>10000101010</v>
+        <f t="shared" si="6"/>
+        <v>10000101000</v>
       </c>
       <c r="C70" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>42A</v>
+        <f t="shared" si="7"/>
+        <v>428</v>
       </c>
       <c r="D70" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>uint32_t</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="8">
@@ -5040,33 +5163,34 @@
     </row>
     <row r="71" spans="1:31" ht="12">
       <c r="A71" s="9">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B71" s="8">
-        <f t="shared" si="3"/>
-        <v>10000101011</v>
+        <f t="shared" si="6"/>
+        <v>10000101001</v>
       </c>
       <c r="C71" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>42B</v>
+        <f t="shared" si="7"/>
+        <v>429</v>
       </c>
       <c r="D71" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>uint32_t</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="8">
         <v>10</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="I71" s="9" t="s">
         <v>157</v>
       </c>
+      <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
@@ -5090,26 +5214,34 @@
       <c r="AE71" s="9"/>
     </row>
     <row r="72" spans="1:31" ht="12">
-      <c r="A72" s="9">
-        <v>0</v>
+      <c r="A72" s="8">
+        <v>1066</v>
       </c>
       <c r="B72" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>10000101010</v>
       </c>
       <c r="C72" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>42A</v>
       </c>
       <c r="D72" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
+        <f t="shared" si="8"/>
+        <v>uint32_t</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>171</v>
+      </c>
       <c r="G72" s="9"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="9"/>
+      <c r="H72" s="8">
+        <v>10</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
@@ -5134,27 +5266,34 @@
       <c r="AE72" s="9"/>
     </row>
     <row r="73" spans="1:31" ht="12">
-      <c r="A73" s="8">
-        <v>1279</v>
+      <c r="A73" s="9">
+        <v>1067</v>
       </c>
       <c r="B73" s="8">
-        <f t="shared" si="0"/>
-        <v>10011111111</v>
+        <f t="shared" si="6"/>
+        <v>10000101011</v>
       </c>
       <c r="C73" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>4FF</v>
+        <f t="shared" si="7"/>
+        <v>42B</v>
       </c>
       <c r="D73" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>uint32_t</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
+      <c r="E73" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>172</v>
+      </c>
       <c r="G73" s="9"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
+      <c r="H73" s="8">
+        <v>10</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5178,20 +5317,20 @@
       <c r="AE73" s="9"/>
     </row>
     <row r="74" spans="1:31" ht="12">
-      <c r="A74" s="8">
-        <v>1280</v>
+      <c r="A74" s="9">
+        <v>0</v>
       </c>
       <c r="B74" s="8">
         <f t="shared" si="0"/>
-        <v>10100000000</v>
+        <v>0</v>
       </c>
       <c r="C74" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D74" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>uint16_t</v>
+        <v>-</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -5223,19 +5362,19 @@
     </row>
     <row r="75" spans="1:31" ht="12">
       <c r="A75" s="8">
-        <v>0</v>
+        <v>1279</v>
       </c>
       <c r="B75" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10011111111</v>
       </c>
       <c r="C75" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4FF</v>
       </c>
       <c r="D75" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>uint32_t</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -5267,15 +5406,15 @@
     </row>
     <row r="76" spans="1:31" ht="12">
       <c r="A76" s="8">
-        <v>1535</v>
+        <v>1280</v>
       </c>
       <c r="B76" s="8">
         <f t="shared" si="0"/>
-        <v>10111111111</v>
+        <v>10100000000</v>
       </c>
       <c r="C76" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>5FF</v>
+        <v>500</v>
       </c>
       <c r="D76" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5311,19 +5450,19 @@
     </row>
     <row r="77" spans="1:31" ht="12">
       <c r="A77" s="8">
-        <v>1536</v>
+        <v>0</v>
       </c>
       <c r="B77" s="8">
         <f t="shared" si="0"/>
-        <v>11000000000</v>
+        <v>0</v>
       </c>
       <c r="C77" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D77" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>float</v>
+        <v>-</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -5355,20 +5494,26 @@
     </row>
     <row r="78" spans="1:31" ht="12">
       <c r="A78" s="8">
-        <v>0</v>
+        <v>1535</v>
       </c>
       <c r="B78" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10111111111</v>
       </c>
       <c r="C78" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5FF</v>
       </c>
       <c r="D78" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
+        <v>uint16_t</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
@@ -5393,32 +5538,26 @@
     </row>
     <row r="79" spans="1:31" ht="12">
       <c r="A79" s="8">
-        <v>1552</v>
+        <v>1536</v>
       </c>
       <c r="B79" s="8">
         <f t="shared" si="0"/>
-        <v>11000010000</v>
+        <v>11000000000</v>
       </c>
       <c r="C79" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="D79" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E79" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I79" s="10" t="s">
-        <v>217</v>
-      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
@@ -5443,34 +5582,19 @@
     </row>
     <row r="80" spans="1:31" ht="12">
       <c r="A80" s="8">
-        <v>1553</v>
+        <v>0</v>
       </c>
       <c r="B80" s="8">
         <f t="shared" si="0"/>
-        <v>11000010001</v>
+        <v>0</v>
       </c>
       <c r="C80" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="D80" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>float</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I80" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>214</v>
+        <v>-</v>
       </c>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
@@ -5496,22 +5620,32 @@
     </row>
     <row r="81" spans="1:31" ht="12">
       <c r="A81" s="8">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B81" s="8">
         <f t="shared" si="0"/>
-        <v>11000010010</v>
+        <v>11000010000</v>
       </c>
       <c r="C81" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D81" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
+      <c r="E81" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
@@ -5536,22 +5670,35 @@
     </row>
     <row r="82" spans="1:31" ht="12">
       <c r="A82" s="8">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B82" s="8">
         <f t="shared" si="0"/>
-        <v>11000010011</v>
+        <v>11000010001</v>
       </c>
       <c r="C82" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D82" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
+      <c r="E82" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
@@ -5576,26 +5723,22 @@
     </row>
     <row r="83" spans="1:31" ht="12">
       <c r="A83" s="8">
-        <v>0</v>
+        <v>1554</v>
       </c>
       <c r="B83" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11000010010</v>
       </c>
       <c r="C83" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="D83" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>float</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
@@ -5620,36 +5763,22 @@
     </row>
     <row r="84" spans="1:31" ht="12">
       <c r="A84" s="8">
-        <v>1568</v>
+        <v>1555</v>
       </c>
       <c r="B84" s="8">
         <f t="shared" si="0"/>
-        <v>11000100000</v>
+        <v>11000010011</v>
       </c>
       <c r="C84" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D84" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E84" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H84" s="8">
-        <v>10</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
@@ -5674,35 +5803,25 @@
     </row>
     <row r="85" spans="1:31" ht="12">
       <c r="A85" s="8">
-        <v>1569</v>
+        <v>0</v>
       </c>
       <c r="B85" s="8">
         <f t="shared" si="0"/>
-        <v>11000100001</v>
+        <v>0</v>
       </c>
       <c r="C85" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>621</v>
+        <v>0</v>
       </c>
       <c r="D85" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>float</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H85" s="8">
-        <v>10</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -5728,25 +5847,25 @@
     </row>
     <row r="86" spans="1:31" ht="12">
       <c r="A86" s="8">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B86" s="8">
         <f t="shared" si="0"/>
-        <v>11000100010</v>
+        <v>11000100000</v>
       </c>
       <c r="C86" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D86" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>181</v>
@@ -5782,29 +5901,35 @@
     </row>
     <row r="87" spans="1:31" ht="12">
       <c r="A87" s="8">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B87" s="8">
         <f t="shared" si="0"/>
-        <v>11000100011</v>
+        <v>11000100001</v>
       </c>
       <c r="C87" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D87" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E87" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="9"/>
+      <c r="E87" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H87" s="8">
+        <v>10</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
@@ -5830,32 +5955,34 @@
     </row>
     <row r="88" spans="1:31" ht="12">
       <c r="A88" s="8">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B88" s="8">
         <f t="shared" si="0"/>
-        <v>11000100100</v>
+        <v>11000100010</v>
       </c>
       <c r="C88" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D88" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E88" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="G88" s="9"/>
+      <c r="E88" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="H88" s="8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>265</v>
+        <v>10</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9" t="s">
@@ -5884,23 +6011,25 @@
     </row>
     <row r="89" spans="1:31" ht="12">
       <c r="A89" s="8">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B89" s="8">
         <f t="shared" si="0"/>
-        <v>11000100101</v>
+        <v>11000100011</v>
       </c>
       <c r="C89" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D89" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E89" s="9"/>
+      <c r="E89" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="F89" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="8"/>
@@ -5932,27 +6061,33 @@
     </row>
     <row r="90" spans="1:31" ht="12">
       <c r="A90" s="8">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B90" s="8">
         <f t="shared" si="0"/>
-        <v>11000100110</v>
+        <v>11000100100</v>
       </c>
       <c r="C90" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D90" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E90" s="9"/>
+      <c r="E90" s="9" t="s">
+        <v>259</v>
+      </c>
       <c r="F90" s="9" t="s">
-        <v>91</v>
+        <v>260</v>
       </c>
       <c r="G90" s="9"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="9"/>
+      <c r="H90" s="8">
+        <v>100</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="J90" s="9"/>
       <c r="K90" s="9" t="s">
         <v>148</v>
@@ -5980,15 +6115,15 @@
     </row>
     <row r="91" spans="1:31" ht="12">
       <c r="A91" s="8">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B91" s="8">
         <f t="shared" si="0"/>
-        <v>11000100111</v>
+        <v>11000100101</v>
       </c>
       <c r="C91" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D91" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6028,33 +6163,27 @@
     </row>
     <row r="92" spans="1:31" ht="12">
       <c r="A92" s="8">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B92" s="8">
         <f t="shared" si="0"/>
-        <v>11000101000</v>
+        <v>11000100110</v>
       </c>
       <c r="C92" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D92" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E92" s="9" t="s">
-        <v>184</v>
-      </c>
+      <c r="E92" s="9"/>
       <c r="F92" s="9" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="G92" s="9"/>
-      <c r="H92" s="8">
-        <v>100</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>157</v>
-      </c>
+      <c r="H92" s="8"/>
+      <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
@@ -6080,33 +6209,27 @@
     </row>
     <row r="93" spans="1:31" ht="12">
       <c r="A93" s="8">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B93" s="8">
         <f t="shared" si="0"/>
-        <v>11000101001</v>
+        <v>11000100111</v>
       </c>
       <c r="C93" s="8" t="str">
-        <f>DEC2HEX(A93)</f>
-        <v>629</v>
+        <f t="shared" si="1"/>
+        <v>627</v>
       </c>
       <c r="D93" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E93" s="9" t="s">
-        <v>186</v>
-      </c>
+      <c r="E93" s="9"/>
       <c r="F93" s="9" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="G93" s="9"/>
-      <c r="H93" s="8">
-        <v>100</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>157</v>
-      </c>
+      <c r="H93" s="8"/>
+      <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
@@ -6132,29 +6255,33 @@
     </row>
     <row r="94" spans="1:31" ht="12">
       <c r="A94" s="8">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B94" s="8">
         <f t="shared" si="0"/>
-        <v>11000101010</v>
+        <v>11000101000</v>
       </c>
       <c r="C94" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>62A</v>
+        <v>628</v>
       </c>
       <c r="D94" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="G94" s="9"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="9"/>
+      <c r="H94" s="8">
+        <v>100</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
@@ -6180,29 +6307,33 @@
     </row>
     <row r="95" spans="1:31" ht="12">
       <c r="A95" s="8">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B95" s="8">
         <f t="shared" si="0"/>
-        <v>11000101011</v>
+        <v>11000101001</v>
       </c>
       <c r="C95" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>62B</v>
+        <f>DEC2HEX(A95)</f>
+        <v>629</v>
       </c>
       <c r="D95" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="G95" s="9"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="9"/>
+      <c r="H95" s="8">
+        <v>100</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
@@ -6228,34 +6359,30 @@
     </row>
     <row r="96" spans="1:31" ht="12">
       <c r="A96" s="8">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B96" s="8">
         <f t="shared" si="0"/>
-        <v>11000101100</v>
+        <v>11000101010</v>
       </c>
       <c r="C96" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>62C</v>
+        <v>62A</v>
       </c>
       <c r="D96" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="G96" s="9"/>
-      <c r="H96" s="8">
-        <v>1</v>
-      </c>
-      <c r="I96" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="J96" s="12"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
@@ -6280,23 +6407,25 @@
     </row>
     <row r="97" spans="1:31" ht="12">
       <c r="A97" s="8">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B97" s="8">
         <f t="shared" si="0"/>
-        <v>11000101101</v>
+        <v>11000101011</v>
       </c>
       <c r="C97" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>62D</v>
+        <v>62B</v>
       </c>
       <c r="D97" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E97" s="9"/>
+      <c r="E97" s="9" t="s">
+        <v>255</v>
+      </c>
       <c r="F97" s="9" t="s">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="8"/>
@@ -6326,28 +6455,34 @@
     </row>
     <row r="98" spans="1:31" ht="12">
       <c r="A98" s="8">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B98" s="8">
         <f t="shared" si="0"/>
-        <v>11000101110</v>
+        <v>11000101100</v>
       </c>
       <c r="C98" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>62E</v>
+        <v>62C</v>
       </c>
       <c r="D98" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E98" s="9"/>
+      <c r="E98" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="F98" s="9" t="s">
         <v>94</v>
       </c>
       <c r="G98" s="9"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
+      <c r="H98" s="8">
+        <v>10</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J98" s="12"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -6372,15 +6507,15 @@
     </row>
     <row r="99" spans="1:31" ht="12">
       <c r="A99" s="8">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B99" s="8">
         <f t="shared" si="0"/>
-        <v>11000101111</v>
+        <v>11000101101</v>
       </c>
       <c r="C99" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>62F</v>
+        <v>62D</v>
       </c>
       <c r="D99" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6418,33 +6553,27 @@
     </row>
     <row r="100" spans="1:31" ht="12">
       <c r="A100" s="8">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B100" s="8">
         <f t="shared" si="0"/>
-        <v>11000110000</v>
+        <v>11000101110</v>
       </c>
       <c r="C100" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>630</v>
+        <v>62E</v>
       </c>
       <c r="D100" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E100" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>84</v>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="G100" s="9"/>
-      <c r="H100" s="8">
-        <v>10</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H100" s="8"/>
+      <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
@@ -6470,25 +6599,23 @@
     </row>
     <row r="101" spans="1:31" ht="12">
       <c r="A101" s="8">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B101" s="8">
         <f t="shared" si="0"/>
-        <v>11000110001</v>
+        <v>11000101111</v>
       </c>
       <c r="C101" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>631</v>
+        <v>62F</v>
       </c>
       <c r="D101" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E101" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>86</v>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="8"/>
@@ -6518,29 +6645,33 @@
     </row>
     <row r="102" spans="1:31" ht="12">
       <c r="A102" s="8">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B102" s="8">
         <f t="shared" si="0"/>
-        <v>11000110010</v>
+        <v>11000110000</v>
       </c>
       <c r="C102" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D102" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G102" s="9"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="9"/>
+      <c r="H102" s="8">
+        <v>10</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -6566,25 +6697,25 @@
     </row>
     <row r="103" spans="1:31" ht="12">
       <c r="A103" s="8">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B103" s="8">
         <f t="shared" si="0"/>
-        <v>11000110011</v>
+        <v>11000110001</v>
       </c>
       <c r="C103" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D103" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>90</v>
+      <c r="E103" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="8"/>
@@ -6614,23 +6745,25 @@
     </row>
     <row r="104" spans="1:31" ht="12">
       <c r="A104" s="8">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B104" s="8">
         <f t="shared" si="0"/>
-        <v>11000110100</v>
+        <v>11000110010</v>
       </c>
       <c r="C104" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D104" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9" t="s">
-        <v>91</v>
+      <c r="E104" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="8"/>
@@ -6660,23 +6793,25 @@
     </row>
     <row r="105" spans="1:31" ht="12">
       <c r="A105" s="8">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B105" s="8">
         <f t="shared" si="0"/>
-        <v>11000110101</v>
+        <v>11000110011</v>
       </c>
       <c r="C105" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D105" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E105" s="9"/>
+      <c r="E105" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="F105" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="8"/>
@@ -6706,15 +6841,15 @@
     </row>
     <row r="106" spans="1:31" ht="12">
       <c r="A106" s="8">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B106" s="8">
         <f t="shared" si="0"/>
-        <v>11000110110</v>
+        <v>11000110100</v>
       </c>
       <c r="C106" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D106" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6752,15 +6887,15 @@
     </row>
     <row r="107" spans="1:31" ht="12">
       <c r="A107" s="8">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B107" s="8">
         <f t="shared" si="0"/>
-        <v>11000110111</v>
+        <v>11000110101</v>
       </c>
       <c r="C107" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D107" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6798,23 +6933,23 @@
     </row>
     <row r="108" spans="1:31" ht="12">
       <c r="A108" s="8">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B108" s="8">
         <f t="shared" si="0"/>
-        <v>11000111000</v>
+        <v>11000110110</v>
       </c>
       <c r="C108" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D108" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E108" s="12"/>
+      <c r="E108" s="9"/>
       <c r="F108" s="9" t="s">
-        <v>261</v>
+        <v>91</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="8"/>
@@ -6844,15 +6979,15 @@
     </row>
     <row r="109" spans="1:31" ht="12">
       <c r="A109" s="8">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B109" s="8">
         <f t="shared" si="0"/>
-        <v>11000111001</v>
+        <v>11000110111</v>
       </c>
       <c r="C109" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D109" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6860,7 +6995,7 @@
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="8"/>
@@ -6890,23 +7025,23 @@
     </row>
     <row r="110" spans="1:31" ht="12">
       <c r="A110" s="8">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B110" s="8">
         <f t="shared" si="0"/>
-        <v>11000111010</v>
+        <v>11000111000</v>
       </c>
       <c r="C110" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>63A</v>
+        <v>638</v>
       </c>
       <c r="D110" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E110" s="9"/>
+      <c r="E110" s="12"/>
       <c r="F110" s="9" t="s">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="8"/>
@@ -6936,15 +7071,15 @@
     </row>
     <row r="111" spans="1:31" ht="12">
       <c r="A111" s="8">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B111" s="8">
         <f t="shared" si="0"/>
-        <v>11000111011</v>
+        <v>11000111001</v>
       </c>
       <c r="C111" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>63B</v>
+        <v>639</v>
       </c>
       <c r="D111" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6982,25 +7117,23 @@
     </row>
     <row r="112" spans="1:31" ht="12">
       <c r="A112" s="8">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B112" s="8">
         <f t="shared" si="0"/>
-        <v>11000111100</v>
+        <v>11000111010</v>
       </c>
       <c r="C112" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>63C</v>
+        <v>63A</v>
       </c>
       <c r="D112" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E112" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="E112" s="9"/>
       <c r="F112" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="8"/>
@@ -7030,15 +7163,15 @@
     </row>
     <row r="113" spans="1:31" ht="12">
       <c r="A113" s="8">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B113" s="8">
         <f t="shared" si="0"/>
-        <v>11000111101</v>
+        <v>11000111011</v>
       </c>
       <c r="C113" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>63D</v>
+        <v>63B</v>
       </c>
       <c r="D113" s="9" t="str">
         <f t="shared" si="2"/>
@@ -7046,7 +7179,7 @@
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="8"/>
@@ -7076,27 +7209,33 @@
     </row>
     <row r="114" spans="1:31" ht="12">
       <c r="A114" s="8">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B114" s="8">
-        <f t="shared" ref="B114" si="6">DEC2BIN(A114/512)*1000000000+DEC2BIN(MOD(A114,512))</f>
-        <v>11000111110</v>
+        <f t="shared" si="0"/>
+        <v>11000111100</v>
       </c>
       <c r="C114" s="8" t="str">
-        <f t="shared" ref="C114" si="7">DEC2HEX(A114)</f>
-        <v>63E</v>
+        <f t="shared" si="1"/>
+        <v>63C</v>
       </c>
       <c r="D114" s="9" t="str">
-        <f t="shared" ref="D114" si="8">IF(A114=0,"-", IF(A114&lt;1024,"文字列",IF(A114&lt;1280,"uint32_t",IF(A114&lt;1536,"uint16_t",IF(A114&lt;1792,"float","fp16")))))</f>
+        <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E114" s="9"/>
+      <c r="E114" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="F114" s="9" t="s">
         <v>94</v>
       </c>
       <c r="G114" s="9"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="9"/>
+      <c r="H114" s="8">
+        <v>10</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>296</v>
+      </c>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -7122,23 +7261,21 @@
     </row>
     <row r="115" spans="1:31" ht="12">
       <c r="A115" s="8">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B115" s="8">
         <f t="shared" si="0"/>
-        <v>11000111111</v>
+        <v>11000111101</v>
       </c>
       <c r="C115" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>63F</v>
+        <v>63D</v>
       </c>
       <c r="D115" s="9" t="str">
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E115" s="9" t="s">
-        <v>183</v>
-      </c>
+      <c r="E115" s="9"/>
       <c r="F115" s="9" t="s">
         <v>94</v>
       </c>
@@ -7170,35 +7307,27 @@
     </row>
     <row r="116" spans="1:31" ht="12">
       <c r="A116" s="8">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B116" s="8">
-        <f t="shared" si="0"/>
-        <v>11001000000</v>
+        <f t="shared" ref="B116" si="9">DEC2BIN(A116/512)*1000000000+DEC2BIN(MOD(A116,512))</f>
+        <v>11000111110</v>
       </c>
       <c r="C116" s="8" t="str">
-        <f t="shared" ref="C116:C124" si="9">DEC2HEX(A116)</f>
-        <v>640</v>
+        <f t="shared" ref="C116" si="10">DEC2HEX(A116)</f>
+        <v>63E</v>
       </c>
       <c r="D116" s="9" t="str">
-        <f t="shared" ref="D116:D131" si="10">IF(A116=0,"-", IF(A116&lt;1024,"文字列",IF(A116&lt;1280,"uint32_t",IF(A116&lt;1536,"uint16_t",IF(A116&lt;1792,"float","fp16")))))</f>
+        <f t="shared" ref="D116" si="11">IF(A116=0,"-", IF(A116&lt;1024,"文字列",IF(A116&lt;1280,"uint32_t",IF(A116&lt;1536,"uint16_t",IF(A116&lt;1792,"float","fp16")))))</f>
         <v>float</v>
       </c>
-      <c r="E116" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H116" s="8">
-        <v>10</v>
-      </c>
-      <c r="I116" s="9" t="s">
-        <v>265</v>
-      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G116" s="9"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
@@ -7224,35 +7353,29 @@
     </row>
     <row r="117" spans="1:31" ht="12">
       <c r="A117" s="8">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B117" s="8">
         <f t="shared" si="0"/>
-        <v>11001000001</v>
+        <v>11000111111</v>
       </c>
       <c r="C117" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>641</v>
+        <f t="shared" si="1"/>
+        <v>63F</v>
       </c>
       <c r="D117" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E117" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H117" s="8">
-        <v>10</v>
-      </c>
-      <c r="I117" s="9" t="s">
-        <v>265</v>
-      </c>
+      <c r="E117" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G117" s="9"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
@@ -7278,25 +7401,25 @@
     </row>
     <row r="118" spans="1:31" ht="12">
       <c r="A118" s="8">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B118" s="8">
         <f t="shared" si="0"/>
-        <v>11001000010</v>
+        <v>11001000000</v>
       </c>
       <c r="C118" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>642</v>
+        <f t="shared" ref="C118:C126" si="12">DEC2HEX(A118)</f>
+        <v>640</v>
       </c>
       <c r="D118" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D118:D133" si="13">IF(A118=0,"-", IF(A118&lt;1024,"文字列",IF(A118&lt;1280,"uint32_t",IF(A118&lt;1536,"uint16_t",IF(A118&lt;1792,"float","fp16")))))</f>
         <v>float</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G118" s="9" t="s">
         <v>181</v>
@@ -7305,7 +7428,7 @@
         <v>10</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -7332,29 +7455,35 @@
     </row>
     <row r="119" spans="1:31" ht="12">
       <c r="A119" s="8">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B119" s="8">
         <f t="shared" si="0"/>
-        <v>11001000011</v>
+        <v>11001000001</v>
       </c>
       <c r="C119" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>643</v>
+        <f t="shared" si="12"/>
+        <v>641</v>
       </c>
       <c r="D119" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
-      <c r="E119" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G119" s="9"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="9"/>
+      <c r="E119" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H119" s="8">
+        <v>10</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
@@ -7380,26 +7509,35 @@
     </row>
     <row r="120" spans="1:31" ht="12">
       <c r="A120" s="8">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B120" s="8">
         <f t="shared" si="0"/>
-        <v>11001000100</v>
+        <v>11001000010</v>
       </c>
       <c r="C120" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>644</v>
+        <f t="shared" si="12"/>
+        <v>642</v>
       </c>
       <c r="D120" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9" t="s">
+      <c r="E120" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="G120" s="9"/>
-      <c r="H120" s="8"/>
+      <c r="F120" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H120" s="8">
+        <v>10</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
         <v>148</v>
@@ -7427,23 +7565,25 @@
     </row>
     <row r="121" spans="1:31" ht="12">
       <c r="A121" s="8">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B121" s="8">
         <f t="shared" si="0"/>
-        <v>11001000101</v>
+        <v>11001000011</v>
       </c>
       <c r="C121" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>645</v>
+        <f t="shared" si="12"/>
+        <v>643</v>
       </c>
       <c r="D121" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
-      <c r="E121" s="9"/>
+      <c r="E121" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="F121" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="8"/>
@@ -7475,27 +7615,26 @@
     </row>
     <row r="122" spans="1:31" ht="12">
       <c r="A122" s="8">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B122" s="8">
         <f t="shared" si="0"/>
-        <v>11001000110</v>
+        <v>11001000100</v>
       </c>
       <c r="C122" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>646</v>
+        <f t="shared" si="12"/>
+        <v>644</v>
       </c>
       <c r="D122" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9" t="s">
-        <v>91</v>
+        <v>260</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="8"/>
-      <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9" t="s">
         <v>148</v>
@@ -7523,18 +7662,18 @@
     </row>
     <row r="123" spans="1:31" ht="12">
       <c r="A123" s="8">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B123" s="8">
         <f t="shared" si="0"/>
-        <v>11001000111</v>
+        <v>11001000101</v>
       </c>
       <c r="C123" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>647</v>
+        <f t="shared" si="12"/>
+        <v>645</v>
       </c>
       <c r="D123" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
       <c r="E123" s="9"/>
@@ -7571,23 +7710,23 @@
     </row>
     <row r="124" spans="1:31" ht="12">
       <c r="A124" s="8">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B124" s="8">
         <f t="shared" si="0"/>
-        <v>11001001000</v>
+        <v>11001000110</v>
       </c>
       <c r="C124" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>648</v>
+        <f t="shared" si="12"/>
+        <v>646</v>
       </c>
       <c r="D124" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="8"/>
@@ -7617,23 +7756,23 @@
     </row>
     <row r="125" spans="1:31" ht="12">
       <c r="A125" s="8">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B125" s="8">
         <f t="shared" si="0"/>
-        <v>11001001001</v>
+        <v>11001000111</v>
       </c>
       <c r="C125" s="8" t="str">
-        <f>DEC2HEX(A125)</f>
-        <v>649</v>
+        <f t="shared" si="12"/>
+        <v>647</v>
       </c>
       <c r="D125" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="8"/>
@@ -7663,23 +7802,23 @@
     </row>
     <row r="126" spans="1:31" ht="12">
       <c r="A126" s="8">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B126" s="8">
         <f t="shared" si="0"/>
-        <v>11001001010</v>
+        <v>11001001000</v>
       </c>
       <c r="C126" s="8" t="str">
-        <f t="shared" ref="C126:C131" si="11">DEC2HEX(A126)</f>
-        <v>64A</v>
+        <f t="shared" si="12"/>
+        <v>648</v>
       </c>
       <c r="D126" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="8"/>
@@ -7709,23 +7848,23 @@
     </row>
     <row r="127" spans="1:31" ht="12">
       <c r="A127" s="8">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B127" s="8">
         <f t="shared" si="0"/>
-        <v>11001001011</v>
+        <v>11001001001</v>
       </c>
       <c r="C127" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>64B</v>
+        <f>DEC2HEX(A127)</f>
+        <v>649</v>
       </c>
       <c r="D127" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="8"/>
@@ -7755,28 +7894,28 @@
     </row>
     <row r="128" spans="1:31" ht="12">
       <c r="A128" s="8">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B128" s="8">
         <f t="shared" si="0"/>
-        <v>11001001100</v>
+        <v>11001001010</v>
       </c>
       <c r="C128" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>64C</v>
+        <f t="shared" ref="C128:C142" si="14">DEC2HEX(A128)</f>
+        <v>64A</v>
       </c>
       <c r="D128" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9" t="s">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="8"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
@@ -7801,23 +7940,23 @@
     </row>
     <row r="129" spans="1:31" ht="12">
       <c r="A129" s="8">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B129" s="8">
         <f t="shared" si="0"/>
-        <v>11001001101</v>
+        <v>11001001011</v>
       </c>
       <c r="C129" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>64D</v>
+        <f t="shared" si="14"/>
+        <v>64B</v>
       </c>
       <c r="D129" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9" t="s">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="8"/>
@@ -7847,18 +7986,18 @@
     </row>
     <row r="130" spans="1:31" ht="12">
       <c r="A130" s="8">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B130" s="8">
         <f t="shared" si="0"/>
-        <v>11001001110</v>
+        <v>11001001100</v>
       </c>
       <c r="C130" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>64E</v>
+        <f t="shared" si="14"/>
+        <v>64C</v>
       </c>
       <c r="D130" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
       <c r="E130" s="9"/>
@@ -7867,8 +8006,8 @@
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="8"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
@@ -7893,18 +8032,18 @@
     </row>
     <row r="131" spans="1:31" ht="12">
       <c r="A131" s="8">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B131" s="8">
         <f t="shared" si="0"/>
-        <v>11001001111</v>
+        <v>11001001101</v>
       </c>
       <c r="C131" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>64F</v>
+        <f t="shared" si="14"/>
+        <v>64D</v>
       </c>
       <c r="D131" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
       <c r="E131" s="9"/>
@@ -7939,22 +8078,24 @@
     </row>
     <row r="132" spans="1:31" ht="12">
       <c r="A132" s="8">
-        <v>0</v>
+        <v>1614</v>
       </c>
       <c r="B132" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11001001110</v>
       </c>
       <c r="C132" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>64E</v>
       </c>
       <c r="D132" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <f t="shared" si="13"/>
+        <v>float</v>
       </c>
       <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
+      <c r="F132" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G132" s="9"/>
       <c r="H132" s="8"/>
       <c r="I132" s="9"/>
@@ -7983,22 +8124,24 @@
     </row>
     <row r="133" spans="1:31" ht="12">
       <c r="A133" s="8">
-        <v>1791</v>
+        <v>1615</v>
       </c>
       <c r="B133" s="8">
         <f t="shared" si="0"/>
-        <v>11011111111</v>
+        <v>11001001111</v>
       </c>
       <c r="C133" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>6FF</v>
+        <f t="shared" si="14"/>
+        <v>64F</v>
       </c>
       <c r="D133" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>float</v>
       </c>
       <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
+      <c r="F133" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G133" s="9"/>
       <c r="H133" s="8"/>
       <c r="I133" s="9"/>
@@ -8027,25 +8170,35 @@
     </row>
     <row r="134" spans="1:31" ht="12">
       <c r="A134" s="8">
-        <v>1792</v>
+        <v>1616</v>
       </c>
       <c r="B134" s="8">
-        <f t="shared" si="0"/>
-        <v>11100000000</v>
+        <f t="shared" ref="B134:B149" si="15">DEC2BIN(A134/512)*1000000000+DEC2BIN(MOD(A134,512))</f>
+        <v>11001010000</v>
       </c>
       <c r="C134" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>700</v>
+        <f t="shared" si="14"/>
+        <v>650</v>
       </c>
       <c r="D134" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="9"/>
+        <f t="shared" ref="D134:D149" si="16">IF(A134=0,"-", IF(A134&lt;1024,"文字列",IF(A134&lt;1280,"uint32_t",IF(A134&lt;1536,"uint16_t",IF(A134&lt;1792,"float","fp16")))))</f>
+        <v>float</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H134" s="8">
+        <v>10</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
@@ -8071,25 +8224,35 @@
     </row>
     <row r="135" spans="1:31" ht="12">
       <c r="A135" s="8">
-        <v>0</v>
+        <v>1617</v>
       </c>
       <c r="B135" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>11001010001</v>
       </c>
       <c r="C135" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>651</v>
       </c>
       <c r="D135" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="9"/>
+        <f t="shared" si="16"/>
+        <v>float</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H135" s="8">
+        <v>10</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
@@ -8115,37 +8278,39 @@
     </row>
     <row r="136" spans="1:31" ht="12">
       <c r="A136" s="8">
-        <v>1824</v>
+        <v>1618</v>
       </c>
       <c r="B136" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100000</v>
+        <f t="shared" si="15"/>
+        <v>11001010010</v>
       </c>
       <c r="C136" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>720</v>
+        <f t="shared" si="14"/>
+        <v>652</v>
       </c>
       <c r="D136" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>101</v>
+        <f t="shared" si="16"/>
+        <v>float</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="H136" s="8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
+      <c r="K136" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L136" s="9"/>
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
@@ -8169,27 +8334,33 @@
     </row>
     <row r="137" spans="1:31" ht="12">
       <c r="A137" s="8">
-        <v>1825</v>
+        <v>1619</v>
       </c>
       <c r="B137" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100001</v>
+        <f t="shared" si="15"/>
+        <v>11001010011</v>
       </c>
       <c r="C137" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>721</v>
+        <f t="shared" si="14"/>
+        <v>653</v>
       </c>
       <c r="D137" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
+        <f t="shared" si="16"/>
+        <v>float</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="G137" s="9"/>
       <c r="H137" s="8"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
-      <c r="K137" s="9"/>
+      <c r="K137" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L137" s="9"/>
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
@@ -8213,37 +8384,30 @@
     </row>
     <row r="138" spans="1:31" ht="12">
       <c r="A138" s="8">
-        <v>1826</v>
+        <v>1620</v>
       </c>
       <c r="B138" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100010</v>
+        <f t="shared" si="15"/>
+        <v>11001010100</v>
       </c>
       <c r="C138" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>722</v>
+        <f t="shared" si="14"/>
+        <v>654</v>
       </c>
       <c r="D138" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>194</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v>float</v>
+      </c>
+      <c r="E138" s="9"/>
       <c r="F138" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H138" s="8">
-        <v>100</v>
-      </c>
-      <c r="I138" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="G138" s="9"/>
+      <c r="H138" s="8"/>
       <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
+      <c r="K138" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L138" s="9"/>
       <c r="M138" s="9"/>
       <c r="N138" s="9"/>
@@ -8267,27 +8431,31 @@
     </row>
     <row r="139" spans="1:31" ht="12">
       <c r="A139" s="8">
-        <v>1827</v>
+        <v>1621</v>
       </c>
       <c r="B139" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100011</v>
+        <f t="shared" si="15"/>
+        <v>11001010101</v>
       </c>
       <c r="C139" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>723</v>
+        <f t="shared" si="14"/>
+        <v>655</v>
       </c>
       <c r="D139" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="16"/>
+        <v>float</v>
       </c>
       <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
+      <c r="F139" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="G139" s="9"/>
       <c r="H139" s="8"/>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
-      <c r="K139" s="9"/>
+      <c r="K139" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L139" s="9"/>
       <c r="M139" s="9"/>
       <c r="N139" s="9"/>
@@ -8311,35 +8479,27 @@
     </row>
     <row r="140" spans="1:31" ht="12">
       <c r="A140" s="8">
-        <v>1828</v>
+        <v>1622</v>
       </c>
       <c r="B140" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100100</v>
+        <f t="shared" si="15"/>
+        <v>11001010110</v>
       </c>
       <c r="C140" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>724</v>
+        <f t="shared" si="14"/>
+        <v>656</v>
       </c>
       <c r="D140" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>196</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v>float</v>
+      </c>
+      <c r="E140" s="9"/>
       <c r="F140" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H140" s="8">
-        <v>100</v>
-      </c>
-      <c r="I140" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G140" s="9"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
@@ -8365,22 +8525,24 @@
     </row>
     <row r="141" spans="1:31" ht="12">
       <c r="A141" s="8">
-        <v>1829</v>
+        <v>1623</v>
       </c>
       <c r="B141" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100101</v>
+        <f t="shared" si="15"/>
+        <v>11001010111</v>
       </c>
       <c r="C141" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>725</v>
+        <f t="shared" si="14"/>
+        <v>657</v>
       </c>
       <c r="D141" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="16"/>
+        <v>float</v>
       </c>
       <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
+      <c r="F141" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="G141" s="9"/>
       <c r="H141" s="8"/>
       <c r="I141" s="9"/>
@@ -8409,35 +8571,27 @@
     </row>
     <row r="142" spans="1:31" ht="12">
       <c r="A142" s="8">
-        <v>1830</v>
+        <v>1624</v>
       </c>
       <c r="B142" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100110</v>
+        <f t="shared" si="15"/>
+        <v>11001011000</v>
       </c>
       <c r="C142" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>726</v>
+        <f t="shared" si="14"/>
+        <v>658</v>
       </c>
       <c r="D142" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>198</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v>float</v>
+      </c>
+      <c r="E142" s="9"/>
       <c r="F142" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H142" s="8">
-        <v>100</v>
-      </c>
-      <c r="I142" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G142" s="9"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
@@ -8463,22 +8617,24 @@
     </row>
     <row r="143" spans="1:31" ht="12">
       <c r="A143" s="8">
-        <v>1831</v>
+        <v>1625</v>
       </c>
       <c r="B143" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100111</v>
+        <f t="shared" si="15"/>
+        <v>11001011001</v>
       </c>
       <c r="C143" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>727</v>
+        <f>DEC2HEX(A143)</f>
+        <v>659</v>
       </c>
       <c r="D143" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="16"/>
+        <v>float</v>
       </c>
       <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
+      <c r="F143" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="G143" s="9"/>
       <c r="H143" s="8"/>
       <c r="I143" s="9"/>
@@ -8507,23 +8663,23 @@
     </row>
     <row r="144" spans="1:31" ht="12">
       <c r="A144" s="8">
-        <v>1832</v>
+        <v>1626</v>
       </c>
       <c r="B144" s="8">
-        <f t="shared" si="0"/>
-        <v>11100101000</v>
+        <f t="shared" si="15"/>
+        <v>11001011010</v>
       </c>
       <c r="C144" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>728</v>
+        <f t="shared" ref="C144:C158" si="17">DEC2HEX(A144)</f>
+        <v>65A</v>
       </c>
       <c r="D144" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="16"/>
+        <v>float</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9" t="s">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="G144" s="9"/>
       <c r="H144" s="8"/>
@@ -8553,22 +8709,24 @@
     </row>
     <row r="145" spans="1:31" ht="12">
       <c r="A145" s="8">
-        <v>1833</v>
+        <v>1627</v>
       </c>
       <c r="B145" s="8">
-        <f t="shared" si="0"/>
-        <v>11100101001</v>
+        <f t="shared" si="15"/>
+        <v>11001011011</v>
       </c>
       <c r="C145" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>729</v>
+        <f t="shared" si="17"/>
+        <v>65B</v>
       </c>
       <c r="D145" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="16"/>
+        <v>float</v>
       </c>
       <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
+      <c r="F145" s="9" t="s">
+        <v>254</v>
+      </c>
       <c r="G145" s="9"/>
       <c r="H145" s="8"/>
       <c r="I145" s="9"/>
@@ -8597,26 +8755,28 @@
     </row>
     <row r="146" spans="1:31" ht="12">
       <c r="A146" s="8">
-        <v>1834</v>
+        <v>1628</v>
       </c>
       <c r="B146" s="8">
-        <f t="shared" si="0"/>
-        <v>11100101010</v>
+        <f t="shared" si="15"/>
+        <v>11001011100</v>
       </c>
       <c r="C146" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>72A</v>
+        <f t="shared" si="17"/>
+        <v>65C</v>
       </c>
       <c r="D146" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="16"/>
+        <v>float</v>
       </c>
       <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
+      <c r="F146" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G146" s="9"/>
       <c r="H146" s="8"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
       <c r="M146" s="9"/>
@@ -8641,22 +8801,24 @@
     </row>
     <row r="147" spans="1:31" ht="12">
       <c r="A147" s="8">
-        <v>1835</v>
+        <v>1629</v>
       </c>
       <c r="B147" s="8">
-        <f t="shared" si="0"/>
-        <v>11100101011</v>
+        <f t="shared" si="15"/>
+        <v>11001011101</v>
       </c>
       <c r="C147" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>72B</v>
+        <f t="shared" si="17"/>
+        <v>65D</v>
       </c>
       <c r="D147" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="16"/>
+        <v>float</v>
       </c>
       <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
+      <c r="F147" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G147" s="9"/>
       <c r="H147" s="8"/>
       <c r="I147" s="9"/>
@@ -8685,22 +8847,24 @@
     </row>
     <row r="148" spans="1:31" ht="12">
       <c r="A148" s="8">
-        <v>1836</v>
+        <v>1630</v>
       </c>
       <c r="B148" s="8">
-        <f t="shared" si="0"/>
-        <v>11100101100</v>
+        <f t="shared" si="15"/>
+        <v>11001011110</v>
       </c>
       <c r="C148" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>72C</v>
+        <f t="shared" si="17"/>
+        <v>65E</v>
       </c>
       <c r="D148" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="16"/>
+        <v>float</v>
       </c>
       <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
+      <c r="F148" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G148" s="9"/>
       <c r="H148" s="8"/>
       <c r="I148" s="9"/>
@@ -8729,22 +8893,24 @@
     </row>
     <row r="149" spans="1:31" ht="12">
       <c r="A149" s="8">
-        <v>1837</v>
+        <v>1631</v>
       </c>
       <c r="B149" s="8">
-        <f t="shared" si="0"/>
-        <v>11100101101</v>
+        <f t="shared" si="15"/>
+        <v>11001011111</v>
       </c>
       <c r="C149" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>72D</v>
+        <f t="shared" si="17"/>
+        <v>65F</v>
       </c>
       <c r="D149" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="16"/>
+        <v>float</v>
       </c>
       <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
+      <c r="F149" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G149" s="9"/>
       <c r="H149" s="8"/>
       <c r="I149" s="9"/>
@@ -8773,25 +8939,35 @@
     </row>
     <row r="150" spans="1:31" ht="12">
       <c r="A150" s="8">
-        <v>1838</v>
+        <v>1632</v>
       </c>
       <c r="B150" s="8">
-        <f t="shared" si="0"/>
-        <v>11100101110</v>
+        <f t="shared" ref="B150:B165" si="18">DEC2BIN(A150/512)*1000000000+DEC2BIN(MOD(A150,512))</f>
+        <v>11001100000</v>
       </c>
       <c r="C150" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>72E</v>
+        <f t="shared" si="17"/>
+        <v>660</v>
       </c>
       <c r="D150" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="9"/>
+        <f t="shared" ref="D150:D165" si="19">IF(A150=0,"-", IF(A150&lt;1024,"文字列",IF(A150&lt;1280,"uint32_t",IF(A150&lt;1536,"uint16_t",IF(A150&lt;1792,"float","fp16")))))</f>
+        <v>float</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H150" s="8">
+        <v>10</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c r="L150" s="9"/>
@@ -8817,25 +8993,35 @@
     </row>
     <row r="151" spans="1:31" ht="12">
       <c r="A151" s="8">
-        <v>1839</v>
+        <v>1633</v>
       </c>
       <c r="B151" s="8">
-        <f t="shared" si="0"/>
-        <v>11100101111</v>
+        <f t="shared" si="18"/>
+        <v>11001100001</v>
       </c>
       <c r="C151" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>72F</v>
+        <f t="shared" si="17"/>
+        <v>661</v>
       </c>
       <c r="D151" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="9"/>
+        <f t="shared" si="19"/>
+        <v>float</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H151" s="8">
+        <v>10</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
@@ -8861,37 +9047,39 @@
     </row>
     <row r="152" spans="1:31" ht="12">
       <c r="A152" s="8">
-        <v>1840</v>
+        <v>1634</v>
       </c>
       <c r="B152" s="8">
-        <f t="shared" si="0"/>
-        <v>11100110000</v>
+        <f t="shared" si="18"/>
+        <v>11001100010</v>
       </c>
       <c r="C152" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>730</v>
+        <f t="shared" si="17"/>
+        <v>662</v>
       </c>
       <c r="D152" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>189</v>
+        <f t="shared" si="19"/>
+        <v>float</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="H152" s="8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>13</v>
+        <v>284</v>
       </c>
       <c r="J152" s="9"/>
-      <c r="K152" s="9"/>
+      <c r="K152" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
       <c r="N152" s="9"/>
@@ -8915,35 +9103,33 @@
     </row>
     <row r="153" spans="1:31" ht="12">
       <c r="A153" s="8">
-        <v>1841</v>
+        <v>1635</v>
       </c>
       <c r="B153" s="8">
-        <f t="shared" si="0"/>
-        <v>11100110001</v>
+        <f t="shared" si="18"/>
+        <v>11001100011</v>
       </c>
       <c r="C153" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>731</v>
+        <f t="shared" si="17"/>
+        <v>663</v>
       </c>
       <c r="D153" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="19"/>
+        <v>float</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="H153" s="8">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G153" s="9"/>
+      <c r="H153" s="8"/>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
-      <c r="K153" s="9"/>
+      <c r="K153" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L153" s="9"/>
       <c r="M153" s="9"/>
       <c r="N153" s="9"/>
@@ -8967,37 +9153,30 @@
     </row>
     <row r="154" spans="1:31" ht="12">
       <c r="A154" s="8">
-        <v>1842</v>
+        <v>1636</v>
       </c>
       <c r="B154" s="8">
-        <f t="shared" si="0"/>
-        <v>11100110010</v>
+        <f t="shared" si="18"/>
+        <v>11001100100</v>
       </c>
       <c r="C154" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>732</v>
+        <f t="shared" si="17"/>
+        <v>664</v>
       </c>
       <c r="D154" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>195</v>
-      </c>
+        <f t="shared" si="19"/>
+        <v>float</v>
+      </c>
+      <c r="E154" s="9"/>
       <c r="F154" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G154" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="H154" s="8">
-        <v>100</v>
-      </c>
-      <c r="I154" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="G154" s="9"/>
+      <c r="H154" s="8"/>
       <c r="J154" s="9"/>
-      <c r="K154" s="9"/>
+      <c r="K154" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
       <c r="N154" s="9"/>
@@ -9021,27 +9200,31 @@
     </row>
     <row r="155" spans="1:31" ht="12">
       <c r="A155" s="8">
-        <v>1843</v>
+        <v>1637</v>
       </c>
       <c r="B155" s="8">
-        <f t="shared" si="0"/>
-        <v>11100110011</v>
+        <f t="shared" si="18"/>
+        <v>11001100101</v>
       </c>
       <c r="C155" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>733</v>
+        <f t="shared" si="17"/>
+        <v>665</v>
       </c>
       <c r="D155" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="19"/>
+        <v>float</v>
       </c>
       <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
+      <c r="F155" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="G155" s="9"/>
       <c r="H155" s="8"/>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
-      <c r="K155" s="9"/>
+      <c r="K155" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L155" s="9"/>
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
@@ -9065,35 +9248,27 @@
     </row>
     <row r="156" spans="1:31" ht="12">
       <c r="A156" s="8">
-        <v>1844</v>
+        <v>1638</v>
       </c>
       <c r="B156" s="8">
-        <f t="shared" si="0"/>
-        <v>11100110100</v>
+        <f t="shared" si="18"/>
+        <v>11001100110</v>
       </c>
       <c r="C156" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>734</v>
+        <f t="shared" si="17"/>
+        <v>666</v>
       </c>
       <c r="D156" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>197</v>
-      </c>
+        <f t="shared" si="19"/>
+        <v>float</v>
+      </c>
+      <c r="E156" s="9"/>
       <c r="F156" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G156" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="H156" s="8">
-        <v>100</v>
-      </c>
-      <c r="I156" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G156" s="9"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="9"/>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
@@ -9119,22 +9294,24 @@
     </row>
     <row r="157" spans="1:31" ht="12">
       <c r="A157" s="8">
-        <v>1845</v>
+        <v>1639</v>
       </c>
       <c r="B157" s="8">
-        <f t="shared" si="0"/>
-        <v>11100110101</v>
+        <f t="shared" si="18"/>
+        <v>11001100111</v>
       </c>
       <c r="C157" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>735</v>
+        <f t="shared" si="17"/>
+        <v>667</v>
       </c>
       <c r="D157" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="19"/>
+        <v>float</v>
       </c>
       <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
+      <c r="F157" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="G157" s="9"/>
       <c r="H157" s="8"/>
       <c r="I157" s="9"/>
@@ -9163,35 +9340,27 @@
     </row>
     <row r="158" spans="1:31" ht="12">
       <c r="A158" s="8">
-        <v>1846</v>
+        <v>1640</v>
       </c>
       <c r="B158" s="8">
-        <f t="shared" si="0"/>
-        <v>11100110110</v>
+        <f t="shared" si="18"/>
+        <v>11001101000</v>
       </c>
       <c r="C158" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>736</v>
+        <f t="shared" si="17"/>
+        <v>668</v>
       </c>
       <c r="D158" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>199</v>
-      </c>
+        <f t="shared" si="19"/>
+        <v>float</v>
+      </c>
+      <c r="E158" s="9"/>
       <c r="F158" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G158" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="H158" s="8">
-        <v>100</v>
-      </c>
-      <c r="I158" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G158" s="9"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="9"/>
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -9217,22 +9386,24 @@
     </row>
     <row r="159" spans="1:31" ht="12">
       <c r="A159" s="8">
-        <v>1847</v>
+        <v>1641</v>
       </c>
       <c r="B159" s="8">
-        <f t="shared" si="0"/>
-        <v>11100110111</v>
+        <f t="shared" si="18"/>
+        <v>11001101001</v>
       </c>
       <c r="C159" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>737</v>
+        <f>DEC2HEX(A159)</f>
+        <v>669</v>
       </c>
       <c r="D159" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="19"/>
+        <v>float</v>
       </c>
       <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
+      <c r="F159" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="G159" s="9"/>
       <c r="H159" s="8"/>
       <c r="I159" s="9"/>
@@ -9261,23 +9432,23 @@
     </row>
     <row r="160" spans="1:31" ht="12">
       <c r="A160" s="8">
-        <v>1848</v>
+        <v>1642</v>
       </c>
       <c r="B160" s="8">
-        <f t="shared" si="0"/>
-        <v>11100111000</v>
+        <f t="shared" si="18"/>
+        <v>11001101010</v>
       </c>
       <c r="C160" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>738</v>
+        <f t="shared" ref="C160:C165" si="20">DEC2HEX(A160)</f>
+        <v>66A</v>
       </c>
       <c r="D160" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="19"/>
+        <v>float</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="9" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="G160" s="9"/>
       <c r="H160" s="8"/>
@@ -9307,22 +9478,24 @@
     </row>
     <row r="161" spans="1:31" ht="12">
       <c r="A161" s="8">
-        <v>1849</v>
+        <v>1643</v>
       </c>
       <c r="B161" s="8">
-        <f t="shared" si="0"/>
-        <v>11100111001</v>
+        <f t="shared" si="18"/>
+        <v>11001101011</v>
       </c>
       <c r="C161" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>739</v>
+        <f t="shared" si="20"/>
+        <v>66B</v>
       </c>
       <c r="D161" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="19"/>
+        <v>float</v>
       </c>
       <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
+      <c r="F161" s="9" t="s">
+        <v>254</v>
+      </c>
       <c r="G161" s="9"/>
       <c r="H161" s="8"/>
       <c r="I161" s="9"/>
@@ -9351,26 +9524,28 @@
     </row>
     <row r="162" spans="1:31" ht="12">
       <c r="A162" s="8">
-        <v>1850</v>
+        <v>1644</v>
       </c>
       <c r="B162" s="8">
-        <f t="shared" si="0"/>
-        <v>11100111010</v>
+        <f t="shared" si="18"/>
+        <v>11001101100</v>
       </c>
       <c r="C162" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>73A</v>
+        <f t="shared" si="20"/>
+        <v>66C</v>
       </c>
       <c r="D162" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="19"/>
+        <v>float</v>
       </c>
       <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
+      <c r="F162" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G162" s="9"/>
       <c r="H162" s="8"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
@@ -9395,22 +9570,24 @@
     </row>
     <row r="163" spans="1:31" ht="12">
       <c r="A163" s="8">
-        <v>1851</v>
+        <v>1645</v>
       </c>
       <c r="B163" s="8">
-        <f t="shared" si="0"/>
-        <v>11100111011</v>
+        <f t="shared" si="18"/>
+        <v>11001101101</v>
       </c>
       <c r="C163" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>73B</v>
+        <f t="shared" si="20"/>
+        <v>66D</v>
       </c>
       <c r="D163" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="19"/>
+        <v>float</v>
       </c>
       <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
+      <c r="F163" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G163" s="9"/>
       <c r="H163" s="8"/>
       <c r="I163" s="9"/>
@@ -9439,22 +9616,24 @@
     </row>
     <row r="164" spans="1:31" ht="12">
       <c r="A164" s="8">
-        <v>1852</v>
+        <v>1646</v>
       </c>
       <c r="B164" s="8">
-        <f t="shared" si="0"/>
-        <v>11100111100</v>
+        <f t="shared" si="18"/>
+        <v>11001101110</v>
       </c>
       <c r="C164" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>73C</v>
+        <f t="shared" si="20"/>
+        <v>66E</v>
       </c>
       <c r="D164" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="19"/>
+        <v>float</v>
       </c>
       <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
+      <c r="F164" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G164" s="9"/>
       <c r="H164" s="8"/>
       <c r="I164" s="9"/>
@@ -9483,22 +9662,24 @@
     </row>
     <row r="165" spans="1:31" ht="12">
       <c r="A165" s="8">
-        <v>1853</v>
+        <v>1647</v>
       </c>
       <c r="B165" s="8">
-        <f t="shared" si="0"/>
-        <v>11100111101</v>
+        <f t="shared" si="18"/>
+        <v>11001101111</v>
       </c>
       <c r="C165" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>73D</v>
+        <f t="shared" si="20"/>
+        <v>66F</v>
       </c>
       <c r="D165" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="19"/>
+        <v>float</v>
       </c>
       <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
+      <c r="F165" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G165" s="9"/>
       <c r="H165" s="8"/>
       <c r="I165" s="9"/>
@@ -9527,19 +9708,19 @@
     </row>
     <row r="166" spans="1:31" ht="12">
       <c r="A166" s="8">
-        <v>1854</v>
+        <v>0</v>
       </c>
       <c r="B166" s="8">
         <f t="shared" si="0"/>
-        <v>11100111110</v>
+        <v>0</v>
       </c>
       <c r="C166" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>73E</v>
+        <v>0</v>
       </c>
       <c r="D166" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>fp16</v>
+        <v>-</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
@@ -9571,19 +9752,19 @@
     </row>
     <row r="167" spans="1:31" ht="12">
       <c r="A167" s="8">
-        <v>1855</v>
+        <v>1791</v>
       </c>
       <c r="B167" s="8">
         <f t="shared" si="0"/>
-        <v>11100111111</v>
+        <v>11011111111</v>
       </c>
       <c r="C167" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>73F</v>
+        <v>6FF</v>
       </c>
       <c r="D167" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>fp16</v>
+        <v>float</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
@@ -9615,35 +9796,25 @@
     </row>
     <row r="168" spans="1:31" ht="12">
       <c r="A168" s="8">
-        <v>1856</v>
+        <v>1792</v>
       </c>
       <c r="B168" s="8">
         <f t="shared" si="0"/>
-        <v>11101000000</v>
+        <v>11100000000</v>
       </c>
       <c r="C168" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="D168" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
-      <c r="E168" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="F168" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G168" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H168" s="8">
-        <v>0</v>
-      </c>
-      <c r="I168" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="9"/>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
@@ -9669,19 +9840,19 @@
     </row>
     <row r="169" spans="1:31" ht="12">
       <c r="A169" s="8">
-        <v>1857</v>
+        <v>0</v>
       </c>
       <c r="B169" s="8">
         <f t="shared" si="0"/>
-        <v>11101000001</v>
+        <v>0</v>
       </c>
       <c r="C169" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>741</v>
+        <v>0</v>
       </c>
       <c r="D169" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>fp16</v>
+        <v>-</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
@@ -9713,29 +9884,35 @@
     </row>
     <row r="170" spans="1:31" ht="12">
       <c r="A170" s="8">
-        <v>1858</v>
+        <v>1824</v>
       </c>
       <c r="B170" s="8">
         <f t="shared" si="0"/>
-        <v>11101000010</v>
+        <v>11100100000</v>
       </c>
       <c r="C170" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="D170" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G170" s="9"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H170" s="8">
+        <v>100</v>
+      </c>
+      <c r="I170" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="9"/>
@@ -9761,15 +9938,15 @@
     </row>
     <row r="171" spans="1:31" ht="12">
       <c r="A171" s="8">
-        <v>1859</v>
+        <v>1825</v>
       </c>
       <c r="B171" s="8">
         <f t="shared" si="0"/>
-        <v>11101000011</v>
+        <v>11100100001</v>
       </c>
       <c r="C171" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="D171" s="9" t="str">
         <f t="shared" si="2"/>
@@ -9805,29 +9982,33 @@
     </row>
     <row r="172" spans="1:31" ht="12">
       <c r="A172" s="8">
-        <v>1860</v>
+        <v>1826</v>
       </c>
       <c r="B172" s="8">
         <f t="shared" si="0"/>
-        <v>11101000100</v>
+        <v>11100100010</v>
       </c>
       <c r="C172" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="D172" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G172" s="9"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="9"/>
+      <c r="H172" s="8">
+        <v>100</v>
+      </c>
+      <c r="I172" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
       <c r="L172" s="9"/>
@@ -9853,15 +10034,15 @@
     </row>
     <row r="173" spans="1:31" ht="12">
       <c r="A173" s="8">
-        <v>1861</v>
+        <v>1827</v>
       </c>
       <c r="B173" s="8">
         <f t="shared" si="0"/>
-        <v>11101000101</v>
+        <v>11100100011</v>
       </c>
       <c r="C173" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="D173" s="9" t="str">
         <f t="shared" si="2"/>
@@ -9897,29 +10078,33 @@
     </row>
     <row r="174" spans="1:31" ht="12">
       <c r="A174" s="8">
-        <v>1862</v>
+        <v>1828</v>
       </c>
       <c r="B174" s="8">
         <f t="shared" si="0"/>
-        <v>11101000110</v>
+        <v>11100100100</v>
       </c>
       <c r="C174" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="D174" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G174" s="9"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="9"/>
+      <c r="H174" s="8">
+        <v>100</v>
+      </c>
+      <c r="I174" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
@@ -9945,15 +10130,15 @@
     </row>
     <row r="175" spans="1:31" ht="12">
       <c r="A175" s="8">
-        <v>1863</v>
+        <v>1829</v>
       </c>
       <c r="B175" s="8">
         <f t="shared" si="0"/>
-        <v>11101000111</v>
+        <v>11100100101</v>
       </c>
       <c r="C175" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="D175" s="9" t="str">
         <f t="shared" si="2"/>
@@ -9989,25 +10174,33 @@
     </row>
     <row r="176" spans="1:31" ht="12">
       <c r="A176" s="8">
-        <v>1864</v>
+        <v>1830</v>
       </c>
       <c r="B176" s="8">
         <f t="shared" si="0"/>
-        <v>11101001000</v>
+        <v>11100100110</v>
       </c>
       <c r="C176" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="D176" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
+      <c r="E176" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G176" s="9"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="9"/>
+      <c r="H176" s="8">
+        <v>100</v>
+      </c>
+      <c r="I176" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
@@ -10033,15 +10226,15 @@
     </row>
     <row r="177" spans="1:31" ht="12">
       <c r="A177" s="8">
-        <v>1865</v>
+        <v>1831</v>
       </c>
       <c r="B177" s="8">
         <f t="shared" si="0"/>
-        <v>11101001001</v>
+        <v>11100100111</v>
       </c>
       <c r="C177" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="D177" s="9" t="str">
         <f t="shared" si="2"/>
@@ -10077,22 +10270,24 @@
     </row>
     <row r="178" spans="1:31" ht="12">
       <c r="A178" s="8">
-        <v>1866</v>
+        <v>1832</v>
       </c>
       <c r="B178" s="8">
         <f t="shared" si="0"/>
-        <v>11101001010</v>
+        <v>11100101000</v>
       </c>
       <c r="C178" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>74A</v>
+        <v>728</v>
       </c>
       <c r="D178" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E178" s="9"/>
-      <c r="F178" s="9"/>
+      <c r="F178" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="G178" s="9"/>
       <c r="H178" s="8"/>
       <c r="I178" s="9"/>
@@ -10121,15 +10316,15 @@
     </row>
     <row r="179" spans="1:31" ht="12">
       <c r="A179" s="8">
-        <v>1867</v>
+        <v>1833</v>
       </c>
       <c r="B179" s="8">
         <f t="shared" si="0"/>
-        <v>11101001011</v>
+        <v>11100101001</v>
       </c>
       <c r="C179" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>74B</v>
+        <v>729</v>
       </c>
       <c r="D179" s="9" t="str">
         <f t="shared" si="2"/>
@@ -10165,15 +10360,15 @@
     </row>
     <row r="180" spans="1:31" ht="12">
       <c r="A180" s="8">
-        <v>1868</v>
+        <v>1834</v>
       </c>
       <c r="B180" s="8">
         <f t="shared" si="0"/>
-        <v>11101001100</v>
+        <v>11100101010</v>
       </c>
       <c r="C180" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>74C</v>
+        <v>72A</v>
       </c>
       <c r="D180" s="9" t="str">
         <f t="shared" si="2"/>
@@ -10209,15 +10404,15 @@
     </row>
     <row r="181" spans="1:31" ht="12">
       <c r="A181" s="8">
-        <v>1869</v>
+        <v>1835</v>
       </c>
       <c r="B181" s="8">
         <f t="shared" si="0"/>
-        <v>11101001101</v>
+        <v>11100101011</v>
       </c>
       <c r="C181" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>74D</v>
+        <v>72B</v>
       </c>
       <c r="D181" s="9" t="str">
         <f t="shared" si="2"/>
@@ -10253,15 +10448,15 @@
     </row>
     <row r="182" spans="1:31" ht="12">
       <c r="A182" s="8">
-        <v>1870</v>
+        <v>1836</v>
       </c>
       <c r="B182" s="8">
         <f t="shared" si="0"/>
-        <v>11101001110</v>
+        <v>11100101100</v>
       </c>
       <c r="C182" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>74E</v>
+        <v>72C</v>
       </c>
       <c r="D182" s="9" t="str">
         <f t="shared" si="2"/>
@@ -10297,15 +10492,15 @@
     </row>
     <row r="183" spans="1:31" ht="12">
       <c r="A183" s="8">
-        <v>1871</v>
+        <v>1837</v>
       </c>
       <c r="B183" s="8">
         <f t="shared" si="0"/>
-        <v>11101001111</v>
+        <v>11100101101</v>
       </c>
       <c r="C183" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>74F</v>
+        <v>72D</v>
       </c>
       <c r="D183" s="9" t="str">
         <f t="shared" si="2"/>
@@ -10340,10 +10535,21 @@
       <c r="AE183" s="9"/>
     </row>
     <row r="184" spans="1:31" ht="12">
-      <c r="A184" s="9"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
+      <c r="A184" s="8">
+        <v>1838</v>
+      </c>
+      <c r="B184" s="8">
+        <f t="shared" si="0"/>
+        <v>11100101110</v>
+      </c>
+      <c r="C184" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>72E</v>
+      </c>
+      <c r="D184" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
@@ -10373,10 +10579,21 @@
       <c r="AE184" s="9"/>
     </row>
     <row r="185" spans="1:31" ht="12">
-      <c r="A185" s="9"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
+      <c r="A185" s="8">
+        <v>1839</v>
+      </c>
+      <c r="B185" s="8">
+        <f t="shared" si="0"/>
+        <v>11100101111</v>
+      </c>
+      <c r="C185" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>72F</v>
+      </c>
+      <c r="D185" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
@@ -10406,15 +10623,36 @@
       <c r="AE185" s="9"/>
     </row>
     <row r="186" spans="1:31" ht="12">
-      <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="9"/>
-      <c r="F186" s="9"/>
-      <c r="G186" s="9"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="9"/>
+      <c r="A186" s="8">
+        <v>1840</v>
+      </c>
+      <c r="B186" s="8">
+        <f t="shared" si="0"/>
+        <v>11100110000</v>
+      </c>
+      <c r="C186" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>730</v>
+      </c>
+      <c r="D186" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="H186" s="8">
+        <v>100</v>
+      </c>
+      <c r="I186" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
@@ -10439,12 +10677,27 @@
       <c r="AE186" s="9"/>
     </row>
     <row r="187" spans="1:31" ht="12">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
-      <c r="F187" s="9"/>
+      <c r="A187" s="8">
+        <v>1841</v>
+      </c>
+      <c r="B187" s="8">
+        <f t="shared" si="0"/>
+        <v>11100110001</v>
+      </c>
+      <c r="C187" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>731</v>
+      </c>
+      <c r="D187" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="G187" s="9"/>
       <c r="H187" s="8"/>
       <c r="I187" s="9"/>
@@ -10473,22 +10726,33 @@
     </row>
     <row r="188" spans="1:31" ht="12">
       <c r="A188" s="8">
-        <v>2047</v>
+        <v>1842</v>
       </c>
       <c r="B188" s="8">
-        <f>DEC2BIN(A188/512)*1000000000+DEC2BIN(MOD(A188,512))</f>
-        <v>11111111111</v>
+        <f t="shared" si="0"/>
+        <v>11100110010</v>
       </c>
       <c r="C188" s="8" t="str">
-        <f>DEC2HEX(A188)</f>
-        <v>7FF</v>
-      </c>
-      <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
-      <c r="F188" s="9"/>
+        <f t="shared" si="1"/>
+        <v>732</v>
+      </c>
+      <c r="D188" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="G188" s="9"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="9"/>
+      <c r="H188" s="8">
+        <v>0</v>
+      </c>
+      <c r="I188" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
       <c r="L188" s="9"/>
@@ -10513,10 +10777,21 @@
       <c r="AE188" s="9"/>
     </row>
     <row r="189" spans="1:31" ht="12">
-      <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
+      <c r="A189" s="8">
+        <v>1843</v>
+      </c>
+      <c r="B189" s="8">
+        <f t="shared" si="0"/>
+        <v>11100110011</v>
+      </c>
+      <c r="C189" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>733</v>
+      </c>
+      <c r="D189" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
       <c r="G189" s="9"/>
@@ -10546,15 +10821,34 @@
       <c r="AE189" s="9"/>
     </row>
     <row r="190" spans="1:31" ht="12">
-      <c r="A190" s="9"/>
-      <c r="B190" s="9"/>
-      <c r="C190" s="9"/>
-      <c r="D190" s="9"/>
-      <c r="E190" s="9"/>
-      <c r="F190" s="9"/>
+      <c r="A190" s="8">
+        <v>1844</v>
+      </c>
+      <c r="B190" s="8">
+        <f t="shared" si="0"/>
+        <v>11100110100</v>
+      </c>
+      <c r="C190" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>734</v>
+      </c>
+      <c r="D190" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="G190" s="9"/>
-      <c r="H190" s="8"/>
-      <c r="I190" s="9"/>
+      <c r="H190" s="8">
+        <v>0</v>
+      </c>
+      <c r="I190" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
       <c r="L190" s="9"/>
@@ -10579,10 +10873,21 @@
       <c r="AE190" s="9"/>
     </row>
     <row r="191" spans="1:31" ht="12">
-      <c r="A191" s="9"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
+      <c r="A191" s="8">
+        <v>1845</v>
+      </c>
+      <c r="B191" s="8">
+        <f t="shared" si="0"/>
+        <v>11100110101</v>
+      </c>
+      <c r="C191" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>735</v>
+      </c>
+      <c r="D191" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
@@ -10612,15 +10917,34 @@
       <c r="AE191" s="9"/>
     </row>
     <row r="192" spans="1:31" ht="12">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
-      <c r="F192" s="9"/>
+      <c r="A192" s="8">
+        <v>1846</v>
+      </c>
+      <c r="B192" s="8">
+        <f t="shared" si="0"/>
+        <v>11100110110</v>
+      </c>
+      <c r="C192" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>736</v>
+      </c>
+      <c r="D192" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G192" s="9"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="9"/>
+      <c r="H192" s="8">
+        <v>0</v>
+      </c>
+      <c r="I192" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
@@ -10645,10 +10969,21 @@
       <c r="AE192" s="9"/>
     </row>
     <row r="193" spans="1:31" ht="12">
-      <c r="A193" s="9"/>
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="9"/>
+      <c r="A193" s="8">
+        <v>1847</v>
+      </c>
+      <c r="B193" s="8">
+        <f t="shared" si="0"/>
+        <v>11100110111</v>
+      </c>
+      <c r="C193" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>737</v>
+      </c>
+      <c r="D193" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
@@ -10678,12 +11013,25 @@
       <c r="AE193" s="9"/>
     </row>
     <row r="194" spans="1:31" ht="12">
-      <c r="A194" s="9"/>
-      <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
-      <c r="D194" s="9"/>
+      <c r="A194" s="8">
+        <v>1848</v>
+      </c>
+      <c r="B194" s="8">
+        <f t="shared" si="0"/>
+        <v>11100111000</v>
+      </c>
+      <c r="C194" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>738</v>
+      </c>
+      <c r="D194" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E194" s="9"/>
-      <c r="F194" s="9"/>
+      <c r="F194" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="G194" s="9"/>
       <c r="H194" s="8"/>
       <c r="I194" s="9"/>
@@ -10711,10 +11059,21 @@
       <c r="AE194" s="9"/>
     </row>
     <row r="195" spans="1:31" ht="12">
-      <c r="A195" s="9"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
+      <c r="A195" s="8">
+        <v>1849</v>
+      </c>
+      <c r="B195" s="8">
+        <f t="shared" si="0"/>
+        <v>11100111001</v>
+      </c>
+      <c r="C195" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>739</v>
+      </c>
+      <c r="D195" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
@@ -10744,10 +11103,21 @@
       <c r="AE195" s="9"/>
     </row>
     <row r="196" spans="1:31" ht="12">
-      <c r="A196" s="9"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
+      <c r="A196" s="8">
+        <v>1850</v>
+      </c>
+      <c r="B196" s="8">
+        <f t="shared" si="0"/>
+        <v>11100111010</v>
+      </c>
+      <c r="C196" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>73A</v>
+      </c>
+      <c r="D196" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
@@ -10777,10 +11147,21 @@
       <c r="AE196" s="9"/>
     </row>
     <row r="197" spans="1:31" ht="12">
-      <c r="A197" s="9"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
+      <c r="A197" s="8">
+        <v>1851</v>
+      </c>
+      <c r="B197" s="8">
+        <f t="shared" si="0"/>
+        <v>11100111011</v>
+      </c>
+      <c r="C197" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>73B</v>
+      </c>
+      <c r="D197" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
@@ -10810,10 +11191,21 @@
       <c r="AE197" s="9"/>
     </row>
     <row r="198" spans="1:31" ht="12">
-      <c r="A198" s="9"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
+      <c r="A198" s="8">
+        <v>1852</v>
+      </c>
+      <c r="B198" s="8">
+        <f t="shared" si="0"/>
+        <v>11100111100</v>
+      </c>
+      <c r="C198" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>73C</v>
+      </c>
+      <c r="D198" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
@@ -10843,10 +11235,21 @@
       <c r="AE198" s="9"/>
     </row>
     <row r="199" spans="1:31" ht="12">
-      <c r="A199" s="9"/>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
+      <c r="A199" s="8">
+        <v>1853</v>
+      </c>
+      <c r="B199" s="8">
+        <f t="shared" si="0"/>
+        <v>11100111101</v>
+      </c>
+      <c r="C199" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>73D</v>
+      </c>
+      <c r="D199" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
@@ -10876,10 +11279,21 @@
       <c r="AE199" s="9"/>
     </row>
     <row r="200" spans="1:31" ht="12">
-      <c r="A200" s="9"/>
-      <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
+      <c r="A200" s="8">
+        <v>1854</v>
+      </c>
+      <c r="B200" s="8">
+        <f t="shared" si="0"/>
+        <v>11100111110</v>
+      </c>
+      <c r="C200" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>73E</v>
+      </c>
+      <c r="D200" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
@@ -10909,10 +11323,21 @@
       <c r="AE200" s="9"/>
     </row>
     <row r="201" spans="1:31" ht="12">
-      <c r="A201" s="9"/>
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
+      <c r="A201" s="8">
+        <v>1855</v>
+      </c>
+      <c r="B201" s="8">
+        <f t="shared" si="0"/>
+        <v>11100111111</v>
+      </c>
+      <c r="C201" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>73F</v>
+      </c>
+      <c r="D201" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
@@ -10942,15 +11367,36 @@
       <c r="AE201" s="9"/>
     </row>
     <row r="202" spans="1:31" ht="12">
-      <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
-      <c r="C202" s="9"/>
-      <c r="D202" s="9"/>
-      <c r="E202" s="9"/>
-      <c r="F202" s="9"/>
-      <c r="G202" s="9"/>
-      <c r="H202" s="8"/>
-      <c r="I202" s="9"/>
+      <c r="A202" s="8">
+        <v>1856</v>
+      </c>
+      <c r="B202" s="8">
+        <f t="shared" si="0"/>
+        <v>11101000000</v>
+      </c>
+      <c r="C202" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>740</v>
+      </c>
+      <c r="D202" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G202" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H202" s="8">
+        <v>0</v>
+      </c>
+      <c r="I202" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
       <c r="L202" s="9"/>
@@ -10975,12 +11421,27 @@
       <c r="AE202" s="9"/>
     </row>
     <row r="203" spans="1:31" ht="12">
-      <c r="A203" s="9"/>
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
-      <c r="D203" s="9"/>
-      <c r="E203" s="9"/>
-      <c r="F203" s="9"/>
+      <c r="A203" s="8">
+        <v>1857</v>
+      </c>
+      <c r="B203" s="8">
+        <f t="shared" si="0"/>
+        <v>11101000001</v>
+      </c>
+      <c r="C203" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>741</v>
+      </c>
+      <c r="D203" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="G203" s="9"/>
       <c r="H203" s="8"/>
       <c r="I203" s="9"/>
@@ -11008,12 +11469,27 @@
       <c r="AE203" s="9"/>
     </row>
     <row r="204" spans="1:31" ht="12">
-      <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9"/>
-      <c r="E204" s="9"/>
-      <c r="F204" s="9"/>
+      <c r="A204" s="8">
+        <v>1858</v>
+      </c>
+      <c r="B204" s="8">
+        <f t="shared" si="0"/>
+        <v>11101000010</v>
+      </c>
+      <c r="C204" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>742</v>
+      </c>
+      <c r="D204" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="G204" s="9"/>
       <c r="H204" s="8"/>
       <c r="I204" s="9"/>
@@ -11041,10 +11517,21 @@
       <c r="AE204" s="9"/>
     </row>
     <row r="205" spans="1:31" ht="12">
-      <c r="A205" s="9"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
+      <c r="A205" s="8">
+        <v>1859</v>
+      </c>
+      <c r="B205" s="8">
+        <f t="shared" si="0"/>
+        <v>11101000011</v>
+      </c>
+      <c r="C205" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>743</v>
+      </c>
+      <c r="D205" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
@@ -11074,12 +11561,27 @@
       <c r="AE205" s="9"/>
     </row>
     <row r="206" spans="1:31" ht="12">
-      <c r="A206" s="9"/>
-      <c r="B206" s="9"/>
-      <c r="C206" s="9"/>
-      <c r="D206" s="9"/>
-      <c r="E206" s="9"/>
-      <c r="F206" s="9"/>
+      <c r="A206" s="8">
+        <v>1860</v>
+      </c>
+      <c r="B206" s="8">
+        <f t="shared" si="0"/>
+        <v>11101000100</v>
+      </c>
+      <c r="C206" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>744</v>
+      </c>
+      <c r="D206" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
+      <c r="E206" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F206" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="G206" s="9"/>
       <c r="H206" s="8"/>
       <c r="I206" s="9"/>
@@ -11107,10 +11609,21 @@
       <c r="AE206" s="9"/>
     </row>
     <row r="207" spans="1:31" ht="12">
-      <c r="A207" s="9"/>
-      <c r="B207" s="9"/>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
+      <c r="A207" s="8">
+        <v>1861</v>
+      </c>
+      <c r="B207" s="8">
+        <f t="shared" si="0"/>
+        <v>11101000101</v>
+      </c>
+      <c r="C207" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>745</v>
+      </c>
+      <c r="D207" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
@@ -11140,12 +11653,27 @@
       <c r="AE207" s="9"/>
     </row>
     <row r="208" spans="1:31" ht="12">
-      <c r="A208" s="9"/>
-      <c r="B208" s="9"/>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
-      <c r="F208" s="9"/>
+      <c r="A208" s="8">
+        <v>1862</v>
+      </c>
+      <c r="B208" s="8">
+        <f t="shared" si="0"/>
+        <v>11101000110</v>
+      </c>
+      <c r="C208" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>746</v>
+      </c>
+      <c r="D208" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
+      <c r="E208" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F208" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G208" s="9"/>
       <c r="H208" s="8"/>
       <c r="I208" s="9"/>
@@ -11173,10 +11701,21 @@
       <c r="AE208" s="9"/>
     </row>
     <row r="209" spans="1:31" ht="12">
-      <c r="A209" s="9"/>
-      <c r="B209" s="9"/>
-      <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
+      <c r="A209" s="8">
+        <v>1863</v>
+      </c>
+      <c r="B209" s="8">
+        <f t="shared" si="0"/>
+        <v>11101000111</v>
+      </c>
+      <c r="C209" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>747</v>
+      </c>
+      <c r="D209" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
       <c r="G209" s="9"/>
@@ -11206,10 +11745,21 @@
       <c r="AE209" s="9"/>
     </row>
     <row r="210" spans="1:31" ht="12">
-      <c r="A210" s="9"/>
-      <c r="B210" s="9"/>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
+      <c r="A210" s="8">
+        <v>1864</v>
+      </c>
+      <c r="B210" s="8">
+        <f t="shared" si="0"/>
+        <v>11101001000</v>
+      </c>
+      <c r="C210" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>748</v>
+      </c>
+      <c r="D210" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
       <c r="G210" s="9"/>
@@ -11239,10 +11789,21 @@
       <c r="AE210" s="9"/>
     </row>
     <row r="211" spans="1:31" ht="12">
-      <c r="A211" s="9"/>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
-      <c r="D211" s="9"/>
+      <c r="A211" s="8">
+        <v>1865</v>
+      </c>
+      <c r="B211" s="8">
+        <f t="shared" si="0"/>
+        <v>11101001001</v>
+      </c>
+      <c r="C211" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>749</v>
+      </c>
+      <c r="D211" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
       <c r="G211" s="9"/>
@@ -11272,10 +11833,21 @@
       <c r="AE211" s="9"/>
     </row>
     <row r="212" spans="1:31" ht="12">
-      <c r="A212" s="9"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
+      <c r="A212" s="8">
+        <v>1866</v>
+      </c>
+      <c r="B212" s="8">
+        <f t="shared" si="0"/>
+        <v>11101001010</v>
+      </c>
+      <c r="C212" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>74A</v>
+      </c>
+      <c r="D212" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
@@ -11305,10 +11877,21 @@
       <c r="AE212" s="9"/>
     </row>
     <row r="213" spans="1:31" ht="12">
-      <c r="A213" s="9"/>
-      <c r="B213" s="9"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
+      <c r="A213" s="8">
+        <v>1867</v>
+      </c>
+      <c r="B213" s="8">
+        <f t="shared" si="0"/>
+        <v>11101001011</v>
+      </c>
+      <c r="C213" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>74B</v>
+      </c>
+      <c r="D213" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
       <c r="G213" s="9"/>
@@ -11338,10 +11921,21 @@
       <c r="AE213" s="9"/>
     </row>
     <row r="214" spans="1:31" ht="12">
-      <c r="A214" s="9"/>
-      <c r="B214" s="9"/>
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
+      <c r="A214" s="8">
+        <v>1868</v>
+      </c>
+      <c r="B214" s="8">
+        <f t="shared" si="0"/>
+        <v>11101001100</v>
+      </c>
+      <c r="C214" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>74C</v>
+      </c>
+      <c r="D214" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
       <c r="G214" s="9"/>
@@ -11371,10 +11965,21 @@
       <c r="AE214" s="9"/>
     </row>
     <row r="215" spans="1:31" ht="12">
-      <c r="A215" s="9"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
+      <c r="A215" s="8">
+        <v>1869</v>
+      </c>
+      <c r="B215" s="8">
+        <f t="shared" si="0"/>
+        <v>11101001101</v>
+      </c>
+      <c r="C215" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>74D</v>
+      </c>
+      <c r="D215" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
       <c r="G215" s="9"/>
@@ -11404,10 +12009,21 @@
       <c r="AE215" s="9"/>
     </row>
     <row r="216" spans="1:31" ht="12">
-      <c r="A216" s="9"/>
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
+      <c r="A216" s="8">
+        <v>1870</v>
+      </c>
+      <c r="B216" s="8">
+        <f t="shared" si="0"/>
+        <v>11101001110</v>
+      </c>
+      <c r="C216" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>74E</v>
+      </c>
+      <c r="D216" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="9"/>
@@ -11437,10 +12053,21 @@
       <c r="AE216" s="9"/>
     </row>
     <row r="217" spans="1:31" ht="12">
-      <c r="A217" s="9"/>
-      <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
+      <c r="A217" s="8">
+        <v>1871</v>
+      </c>
+      <c r="B217" s="8">
+        <f t="shared" si="0"/>
+        <v>11101001111</v>
+      </c>
+      <c r="C217" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>74F</v>
+      </c>
+      <c r="D217" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>fp16</v>
+      </c>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
       <c r="G217" s="9"/>
@@ -11470,15 +12097,36 @@
       <c r="AE217" s="9"/>
     </row>
     <row r="218" spans="1:31" ht="12">
-      <c r="A218" s="9"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="9"/>
-      <c r="D218" s="9"/>
-      <c r="E218" s="9"/>
-      <c r="F218" s="9"/>
-      <c r="G218" s="9"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="9"/>
+      <c r="A218" s="8">
+        <v>1872</v>
+      </c>
+      <c r="B218" s="8">
+        <f t="shared" ref="B218:B233" si="21">DEC2BIN(A218/512)*1000000000+DEC2BIN(MOD(A218,512))</f>
+        <v>11101010000</v>
+      </c>
+      <c r="C218" s="8" t="str">
+        <f t="shared" ref="C218:C233" si="22">DEC2HEX(A218)</f>
+        <v>750</v>
+      </c>
+      <c r="D218" s="9" t="str">
+        <f t="shared" ref="D218:D233" si="23">IF(A218=0,"-", IF(A218&lt;1024,"文字列",IF(A218&lt;1280,"uint32_t",IF(A218&lt;1536,"uint16_t",IF(A218&lt;1792,"float","fp16")))))</f>
+        <v>fp16</v>
+      </c>
+      <c r="E218" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G218" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H218" s="8">
+        <v>100</v>
+      </c>
+      <c r="I218" s="9" t="s">
+        <v>286</v>
+      </c>
       <c r="J218" s="9"/>
       <c r="K218" s="9"/>
       <c r="L218" s="9"/>
@@ -11503,12 +12151,27 @@
       <c r="AE218" s="9"/>
     </row>
     <row r="219" spans="1:31" ht="12">
-      <c r="A219" s="9"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
-      <c r="D219" s="9"/>
-      <c r="E219" s="9"/>
-      <c r="F219" s="9"/>
+      <c r="A219" s="8">
+        <v>1873</v>
+      </c>
+      <c r="B219" s="8">
+        <f t="shared" si="21"/>
+        <v>11101010001</v>
+      </c>
+      <c r="C219" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>751</v>
+      </c>
+      <c r="D219" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="G219" s="9"/>
       <c r="H219" s="8"/>
       <c r="I219" s="9"/>
@@ -11536,12 +12199,27 @@
       <c r="AE219" s="9"/>
     </row>
     <row r="220" spans="1:31" ht="12">
-      <c r="A220" s="9"/>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
-      <c r="F220" s="9"/>
+      <c r="A220" s="8">
+        <v>1874</v>
+      </c>
+      <c r="B220" s="8">
+        <f t="shared" si="21"/>
+        <v>11101010010</v>
+      </c>
+      <c r="C220" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>752</v>
+      </c>
+      <c r="D220" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="G220" s="9"/>
       <c r="H220" s="8"/>
       <c r="I220" s="9"/>
@@ -11569,10 +12247,21 @@
       <c r="AE220" s="9"/>
     </row>
     <row r="221" spans="1:31" ht="12">
-      <c r="A221" s="9"/>
-      <c r="B221" s="9"/>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
+      <c r="A221" s="8">
+        <v>1875</v>
+      </c>
+      <c r="B221" s="8">
+        <f t="shared" si="21"/>
+        <v>11101010011</v>
+      </c>
+      <c r="C221" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>753</v>
+      </c>
+      <c r="D221" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
       <c r="G221" s="9"/>
@@ -11602,12 +12291,27 @@
       <c r="AE221" s="9"/>
     </row>
     <row r="222" spans="1:31" ht="12">
-      <c r="A222" s="9"/>
-      <c r="B222" s="9"/>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
-      <c r="F222" s="9"/>
+      <c r="A222" s="8">
+        <v>1876</v>
+      </c>
+      <c r="B222" s="8">
+        <f t="shared" si="21"/>
+        <v>11101010100</v>
+      </c>
+      <c r="C222" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>754</v>
+      </c>
+      <c r="D222" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
+      <c r="E222" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F222" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="G222" s="9"/>
       <c r="H222" s="8"/>
       <c r="I222" s="9"/>
@@ -11635,10 +12339,21 @@
       <c r="AE222" s="9"/>
     </row>
     <row r="223" spans="1:31" ht="12">
-      <c r="A223" s="9"/>
-      <c r="B223" s="9"/>
-      <c r="C223" s="9"/>
-      <c r="D223" s="9"/>
+      <c r="A223" s="8">
+        <v>1877</v>
+      </c>
+      <c r="B223" s="8">
+        <f t="shared" si="21"/>
+        <v>11101010101</v>
+      </c>
+      <c r="C223" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>755</v>
+      </c>
+      <c r="D223" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
       <c r="G223" s="9"/>
@@ -11668,15 +12383,34 @@
       <c r="AE223" s="9"/>
     </row>
     <row r="224" spans="1:31" ht="12">
-      <c r="A224" s="9"/>
-      <c r="B224" s="9"/>
-      <c r="C224" s="9"/>
-      <c r="D224" s="9"/>
-      <c r="E224" s="9"/>
-      <c r="F224" s="9"/>
+      <c r="A224" s="8">
+        <v>1878</v>
+      </c>
+      <c r="B224" s="8">
+        <f t="shared" si="21"/>
+        <v>11101010110</v>
+      </c>
+      <c r="C224" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>756</v>
+      </c>
+      <c r="D224" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
+      <c r="E224" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F224" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G224" s="9"/>
-      <c r="H224" s="8"/>
-      <c r="I224" s="9"/>
+      <c r="H224" s="8">
+        <v>100</v>
+      </c>
+      <c r="I224" s="9" t="s">
+        <v>286</v>
+      </c>
       <c r="J224" s="9"/>
       <c r="K224" s="9"/>
       <c r="L224" s="9"/>
@@ -11701,10 +12435,21 @@
       <c r="AE224" s="9"/>
     </row>
     <row r="225" spans="1:31" ht="12">
-      <c r="A225" s="9"/>
-      <c r="B225" s="9"/>
-      <c r="C225" s="9"/>
-      <c r="D225" s="9"/>
+      <c r="A225" s="8">
+        <v>1879</v>
+      </c>
+      <c r="B225" s="8">
+        <f t="shared" si="21"/>
+        <v>11101010111</v>
+      </c>
+      <c r="C225" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>757</v>
+      </c>
+      <c r="D225" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
       <c r="G225" s="9"/>
@@ -11734,10 +12479,21 @@
       <c r="AE225" s="9"/>
     </row>
     <row r="226" spans="1:31" ht="12">
-      <c r="A226" s="9"/>
-      <c r="B226" s="9"/>
-      <c r="C226" s="9"/>
-      <c r="D226" s="9"/>
+      <c r="A226" s="8">
+        <v>1880</v>
+      </c>
+      <c r="B226" s="8">
+        <f t="shared" si="21"/>
+        <v>11101011000</v>
+      </c>
+      <c r="C226" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>758</v>
+      </c>
+      <c r="D226" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
@@ -11767,10 +12523,21 @@
       <c r="AE226" s="9"/>
     </row>
     <row r="227" spans="1:31" ht="12">
-      <c r="A227" s="9"/>
-      <c r="B227" s="9"/>
-      <c r="C227" s="9"/>
-      <c r="D227" s="9"/>
+      <c r="A227" s="8">
+        <v>1881</v>
+      </c>
+      <c r="B227" s="8">
+        <f t="shared" si="21"/>
+        <v>11101011001</v>
+      </c>
+      <c r="C227" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>759</v>
+      </c>
+      <c r="D227" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
       <c r="G227" s="9"/>
@@ -11800,10 +12567,21 @@
       <c r="AE227" s="9"/>
     </row>
     <row r="228" spans="1:31" ht="12">
-      <c r="A228" s="9"/>
-      <c r="B228" s="9"/>
-      <c r="C228" s="9"/>
-      <c r="D228" s="9"/>
+      <c r="A228" s="8">
+        <v>1882</v>
+      </c>
+      <c r="B228" s="8">
+        <f t="shared" si="21"/>
+        <v>11101011010</v>
+      </c>
+      <c r="C228" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>75A</v>
+      </c>
+      <c r="D228" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
@@ -11833,10 +12611,21 @@
       <c r="AE228" s="9"/>
     </row>
     <row r="229" spans="1:31" ht="12">
-      <c r="A229" s="9"/>
-      <c r="B229" s="9"/>
-      <c r="C229" s="9"/>
-      <c r="D229" s="9"/>
+      <c r="A229" s="8">
+        <v>1883</v>
+      </c>
+      <c r="B229" s="8">
+        <f t="shared" si="21"/>
+        <v>11101011011</v>
+      </c>
+      <c r="C229" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>75B</v>
+      </c>
+      <c r="D229" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
       <c r="G229" s="9"/>
@@ -11866,10 +12655,21 @@
       <c r="AE229" s="9"/>
     </row>
     <row r="230" spans="1:31" ht="12">
-      <c r="A230" s="9"/>
-      <c r="B230" s="9"/>
-      <c r="C230" s="9"/>
-      <c r="D230" s="9"/>
+      <c r="A230" s="8">
+        <v>1884</v>
+      </c>
+      <c r="B230" s="8">
+        <f t="shared" si="21"/>
+        <v>11101011100</v>
+      </c>
+      <c r="C230" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>75C</v>
+      </c>
+      <c r="D230" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
@@ -11899,10 +12699,21 @@
       <c r="AE230" s="9"/>
     </row>
     <row r="231" spans="1:31" ht="12">
-      <c r="A231" s="9"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
+      <c r="A231" s="8">
+        <v>1885</v>
+      </c>
+      <c r="B231" s="8">
+        <f t="shared" si="21"/>
+        <v>11101011101</v>
+      </c>
+      <c r="C231" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>75D</v>
+      </c>
+      <c r="D231" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
@@ -11932,10 +12743,21 @@
       <c r="AE231" s="9"/>
     </row>
     <row r="232" spans="1:31" ht="12">
-      <c r="A232" s="9"/>
-      <c r="B232" s="9"/>
-      <c r="C232" s="9"/>
-      <c r="D232" s="9"/>
+      <c r="A232" s="8">
+        <v>1886</v>
+      </c>
+      <c r="B232" s="8">
+        <f t="shared" si="21"/>
+        <v>11101011110</v>
+      </c>
+      <c r="C232" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>75E</v>
+      </c>
+      <c r="D232" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
@@ -11965,10 +12787,21 @@
       <c r="AE232" s="9"/>
     </row>
     <row r="233" spans="1:31" ht="12">
-      <c r="A233" s="9"/>
-      <c r="B233" s="9"/>
-      <c r="C233" s="9"/>
-      <c r="D233" s="9"/>
+      <c r="A233" s="8">
+        <v>1887</v>
+      </c>
+      <c r="B233" s="8">
+        <f t="shared" si="21"/>
+        <v>11101011111</v>
+      </c>
+      <c r="C233" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>75F</v>
+      </c>
+      <c r="D233" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>fp16</v>
+      </c>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
@@ -11998,15 +12831,36 @@
       <c r="AE233" s="9"/>
     </row>
     <row r="234" spans="1:31" ht="12">
-      <c r="A234" s="9"/>
-      <c r="B234" s="9"/>
-      <c r="C234" s="9"/>
-      <c r="D234" s="9"/>
-      <c r="E234" s="9"/>
-      <c r="F234" s="9"/>
-      <c r="G234" s="9"/>
-      <c r="H234" s="8"/>
-      <c r="I234" s="9"/>
+      <c r="A234" s="8">
+        <v>1888</v>
+      </c>
+      <c r="B234" s="8">
+        <f t="shared" ref="B234:B249" si="24">DEC2BIN(A234/512)*1000000000+DEC2BIN(MOD(A234,512))</f>
+        <v>11101100000</v>
+      </c>
+      <c r="C234" s="8" t="str">
+        <f t="shared" ref="C234:C249" si="25">DEC2HEX(A234)</f>
+        <v>760</v>
+      </c>
+      <c r="D234" s="9" t="str">
+        <f t="shared" ref="D234:D249" si="26">IF(A234=0,"-", IF(A234&lt;1024,"文字列",IF(A234&lt;1280,"uint32_t",IF(A234&lt;1536,"uint16_t",IF(A234&lt;1792,"float","fp16")))))</f>
+        <v>fp16</v>
+      </c>
+      <c r="E234" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F234" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G234" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="H234" s="8">
+        <v>100</v>
+      </c>
+      <c r="I234" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="J234" s="9"/>
       <c r="K234" s="9"/>
       <c r="L234" s="9"/>
@@ -12031,15 +12885,34 @@
       <c r="AE234" s="9"/>
     </row>
     <row r="235" spans="1:31" ht="12">
-      <c r="A235" s="9"/>
-      <c r="B235" s="9"/>
-      <c r="C235" s="9"/>
-      <c r="D235" s="9"/>
-      <c r="E235" s="9"/>
-      <c r="F235" s="9"/>
+      <c r="A235" s="8">
+        <v>1889</v>
+      </c>
+      <c r="B235" s="8">
+        <f t="shared" si="24"/>
+        <v>11101100001</v>
+      </c>
+      <c r="C235" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>761</v>
+      </c>
+      <c r="D235" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="G235" s="9"/>
-      <c r="H235" s="8"/>
-      <c r="I235" s="9"/>
+      <c r="H235" s="8">
+        <v>100</v>
+      </c>
+      <c r="I235" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="J235" s="9"/>
       <c r="K235" s="9"/>
       <c r="L235" s="9"/>
@@ -12064,12 +12937,27 @@
       <c r="AE235" s="9"/>
     </row>
     <row r="236" spans="1:31" ht="12">
-      <c r="A236" s="9"/>
-      <c r="B236" s="9"/>
-      <c r="C236" s="9"/>
-      <c r="D236" s="9"/>
-      <c r="E236" s="9"/>
-      <c r="F236" s="9"/>
+      <c r="A236" s="8">
+        <v>1890</v>
+      </c>
+      <c r="B236" s="8">
+        <f t="shared" si="24"/>
+        <v>11101100010</v>
+      </c>
+      <c r="C236" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>762</v>
+      </c>
+      <c r="D236" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
+      <c r="E236" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F236" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="G236" s="9"/>
       <c r="H236" s="8"/>
       <c r="I236" s="9"/>
@@ -12097,10 +12985,21 @@
       <c r="AE236" s="9"/>
     </row>
     <row r="237" spans="1:31" ht="12">
-      <c r="A237" s="9"/>
-      <c r="B237" s="9"/>
-      <c r="C237" s="9"/>
-      <c r="D237" s="9"/>
+      <c r="A237" s="8">
+        <v>1891</v>
+      </c>
+      <c r="B237" s="8">
+        <f t="shared" si="24"/>
+        <v>11101100011</v>
+      </c>
+      <c r="C237" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>763</v>
+      </c>
+      <c r="D237" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
       <c r="G237" s="9"/>
@@ -12130,12 +13029,27 @@
       <c r="AE237" s="9"/>
     </row>
     <row r="238" spans="1:31" ht="12">
-      <c r="A238" s="9"/>
-      <c r="B238" s="9"/>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9"/>
-      <c r="E238" s="9"/>
-      <c r="F238" s="9"/>
+      <c r="A238" s="8">
+        <v>1892</v>
+      </c>
+      <c r="B238" s="8">
+        <f t="shared" si="24"/>
+        <v>11101100100</v>
+      </c>
+      <c r="C238" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>764</v>
+      </c>
+      <c r="D238" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
+      <c r="E238" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="G238" s="9"/>
       <c r="H238" s="8"/>
       <c r="I238" s="9"/>
@@ -12163,10 +13077,21 @@
       <c r="AE238" s="9"/>
     </row>
     <row r="239" spans="1:31" ht="12">
-      <c r="A239" s="9"/>
-      <c r="B239" s="9"/>
-      <c r="C239" s="9"/>
-      <c r="D239" s="9"/>
+      <c r="A239" s="8">
+        <v>1893</v>
+      </c>
+      <c r="B239" s="8">
+        <f t="shared" si="24"/>
+        <v>11101100101</v>
+      </c>
+      <c r="C239" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>765</v>
+      </c>
+      <c r="D239" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
       <c r="G239" s="9"/>
@@ -12196,15 +13121,34 @@
       <c r="AE239" s="9"/>
     </row>
     <row r="240" spans="1:31" ht="12">
-      <c r="A240" s="9"/>
-      <c r="B240" s="9"/>
-      <c r="C240" s="9"/>
-      <c r="D240" s="9"/>
-      <c r="E240" s="9"/>
-      <c r="F240" s="9"/>
+      <c r="A240" s="8">
+        <v>1894</v>
+      </c>
+      <c r="B240" s="8">
+        <f t="shared" si="24"/>
+        <v>11101100110</v>
+      </c>
+      <c r="C240" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>766</v>
+      </c>
+      <c r="D240" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
+      <c r="E240" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F240" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G240" s="9"/>
-      <c r="H240" s="8"/>
-      <c r="I240" s="9"/>
+      <c r="H240" s="8">
+        <v>100</v>
+      </c>
+      <c r="I240" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="J240" s="9"/>
       <c r="K240" s="9"/>
       <c r="L240" s="9"/>
@@ -12229,10 +13173,21 @@
       <c r="AE240" s="9"/>
     </row>
     <row r="241" spans="1:31" ht="12">
-      <c r="A241" s="9"/>
-      <c r="B241" s="9"/>
-      <c r="C241" s="9"/>
-      <c r="D241" s="9"/>
+      <c r="A241" s="8">
+        <v>1895</v>
+      </c>
+      <c r="B241" s="8">
+        <f t="shared" si="24"/>
+        <v>11101100111</v>
+      </c>
+      <c r="C241" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>767</v>
+      </c>
+      <c r="D241" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
       <c r="G241" s="9"/>
@@ -12262,10 +13217,21 @@
       <c r="AE241" s="9"/>
     </row>
     <row r="242" spans="1:31" ht="12">
-      <c r="A242" s="9"/>
-      <c r="B242" s="9"/>
-      <c r="C242" s="9"/>
-      <c r="D242" s="9"/>
+      <c r="A242" s="8">
+        <v>1896</v>
+      </c>
+      <c r="B242" s="8">
+        <f t="shared" si="24"/>
+        <v>11101101000</v>
+      </c>
+      <c r="C242" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>768</v>
+      </c>
+      <c r="D242" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
       <c r="G242" s="9"/>
@@ -12295,10 +13261,21 @@
       <c r="AE242" s="9"/>
     </row>
     <row r="243" spans="1:31" ht="12">
-      <c r="A243" s="9"/>
-      <c r="B243" s="9"/>
-      <c r="C243" s="9"/>
-      <c r="D243" s="9"/>
+      <c r="A243" s="8">
+        <v>1897</v>
+      </c>
+      <c r="B243" s="8">
+        <f t="shared" si="24"/>
+        <v>11101101001</v>
+      </c>
+      <c r="C243" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>769</v>
+      </c>
+      <c r="D243" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
@@ -12328,10 +13305,21 @@
       <c r="AE243" s="9"/>
     </row>
     <row r="244" spans="1:31" ht="12">
-      <c r="A244" s="9"/>
-      <c r="B244" s="9"/>
-      <c r="C244" s="9"/>
-      <c r="D244" s="9"/>
+      <c r="A244" s="8">
+        <v>1898</v>
+      </c>
+      <c r="B244" s="8">
+        <f t="shared" si="24"/>
+        <v>11101101010</v>
+      </c>
+      <c r="C244" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>76A</v>
+      </c>
+      <c r="D244" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
       <c r="G244" s="9"/>
@@ -12361,10 +13349,21 @@
       <c r="AE244" s="9"/>
     </row>
     <row r="245" spans="1:31" ht="12">
-      <c r="A245" s="9"/>
-      <c r="B245" s="9"/>
-      <c r="C245" s="9"/>
-      <c r="D245" s="9"/>
+      <c r="A245" s="8">
+        <v>1899</v>
+      </c>
+      <c r="B245" s="8">
+        <f t="shared" si="24"/>
+        <v>11101101011</v>
+      </c>
+      <c r="C245" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>76B</v>
+      </c>
+      <c r="D245" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
       <c r="G245" s="9"/>
@@ -12394,10 +13393,21 @@
       <c r="AE245" s="9"/>
     </row>
     <row r="246" spans="1:31" ht="12">
-      <c r="A246" s="9"/>
-      <c r="B246" s="9"/>
-      <c r="C246" s="9"/>
-      <c r="D246" s="9"/>
+      <c r="A246" s="8">
+        <v>1900</v>
+      </c>
+      <c r="B246" s="8">
+        <f t="shared" si="24"/>
+        <v>11101101100</v>
+      </c>
+      <c r="C246" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>76C</v>
+      </c>
+      <c r="D246" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
       <c r="G246" s="9"/>
@@ -12427,10 +13437,21 @@
       <c r="AE246" s="9"/>
     </row>
     <row r="247" spans="1:31" ht="12">
-      <c r="A247" s="9"/>
-      <c r="B247" s="9"/>
-      <c r="C247" s="9"/>
-      <c r="D247" s="9"/>
+      <c r="A247" s="8">
+        <v>1901</v>
+      </c>
+      <c r="B247" s="8">
+        <f t="shared" si="24"/>
+        <v>11101101101</v>
+      </c>
+      <c r="C247" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>76D</v>
+      </c>
+      <c r="D247" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
       <c r="G247" s="9"/>
@@ -12460,10 +13481,21 @@
       <c r="AE247" s="9"/>
     </row>
     <row r="248" spans="1:31" ht="12">
-      <c r="A248" s="9"/>
-      <c r="B248" s="9"/>
-      <c r="C248" s="9"/>
-      <c r="D248" s="9"/>
+      <c r="A248" s="8">
+        <v>1902</v>
+      </c>
+      <c r="B248" s="8">
+        <f t="shared" si="24"/>
+        <v>11101101110</v>
+      </c>
+      <c r="C248" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>76E</v>
+      </c>
+      <c r="D248" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
       <c r="G248" s="9"/>
@@ -12493,10 +13525,21 @@
       <c r="AE248" s="9"/>
     </row>
     <row r="249" spans="1:31" ht="12">
-      <c r="A249" s="9"/>
-      <c r="B249" s="9"/>
-      <c r="C249" s="9"/>
-      <c r="D249" s="9"/>
+      <c r="A249" s="8">
+        <v>1903</v>
+      </c>
+      <c r="B249" s="8">
+        <f t="shared" si="24"/>
+        <v>11101101111</v>
+      </c>
+      <c r="C249" s="8" t="str">
+        <f t="shared" si="25"/>
+        <v>76F</v>
+      </c>
+      <c r="D249" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>fp16</v>
+      </c>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
       <c r="G249" s="9"/>
@@ -12658,9 +13701,17 @@
       <c r="AE253" s="9"/>
     </row>
     <row r="254" spans="1:31" ht="12">
-      <c r="A254" s="9"/>
-      <c r="B254" s="9"/>
-      <c r="C254" s="9"/>
+      <c r="A254" s="8">
+        <v>2047</v>
+      </c>
+      <c r="B254" s="8">
+        <f>DEC2BIN(A254/512)*1000000000+DEC2BIN(MOD(A254,512))</f>
+        <v>11111111111</v>
+      </c>
+      <c r="C254" s="8" t="str">
+        <f>DEC2HEX(A254)</f>
+        <v>7FF</v>
+      </c>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
@@ -16981,9 +18032,9 @@
       <c r="AE384" s="9"/>
     </row>
     <row r="385" spans="1:31" ht="12">
-      <c r="A385" s="8"/>
-      <c r="B385" s="8"/>
-      <c r="C385" s="8"/>
+      <c r="A385" s="9"/>
+      <c r="B385" s="9"/>
+      <c r="C385" s="9"/>
       <c r="D385" s="9"/>
       <c r="E385" s="9"/>
       <c r="F385" s="9"/>
@@ -17014,9 +18065,9 @@
       <c r="AE385" s="9"/>
     </row>
     <row r="386" spans="1:31" ht="12">
-      <c r="A386" s="8"/>
-      <c r="B386" s="8"/>
-      <c r="C386" s="8"/>
+      <c r="A386" s="9"/>
+      <c r="B386" s="9"/>
+      <c r="C386" s="9"/>
       <c r="D386" s="9"/>
       <c r="E386" s="9"/>
       <c r="F386" s="9"/>
@@ -17047,9 +18098,9 @@
       <c r="AE386" s="9"/>
     </row>
     <row r="387" spans="1:31" ht="12">
-      <c r="A387" s="8"/>
-      <c r="B387" s="8"/>
-      <c r="C387" s="8"/>
+      <c r="A387" s="9"/>
+      <c r="B387" s="9"/>
+      <c r="C387" s="9"/>
       <c r="D387" s="9"/>
       <c r="E387" s="9"/>
       <c r="F387" s="9"/>
@@ -17080,9 +18131,9 @@
       <c r="AE387" s="9"/>
     </row>
     <row r="388" spans="1:31" ht="12">
-      <c r="A388" s="8"/>
-      <c r="B388" s="8"/>
-      <c r="C388" s="8"/>
+      <c r="A388" s="9"/>
+      <c r="B388" s="9"/>
+      <c r="C388" s="9"/>
       <c r="D388" s="9"/>
       <c r="E388" s="9"/>
       <c r="F388" s="9"/>
@@ -17113,9 +18164,9 @@
       <c r="AE388" s="9"/>
     </row>
     <row r="389" spans="1:31" ht="12">
-      <c r="A389" s="8"/>
-      <c r="B389" s="8"/>
-      <c r="C389" s="8"/>
+      <c r="A389" s="9"/>
+      <c r="B389" s="9"/>
+      <c r="C389" s="9"/>
       <c r="D389" s="9"/>
       <c r="E389" s="9"/>
       <c r="F389" s="9"/>
@@ -17146,9 +18197,9 @@
       <c r="AE389" s="9"/>
     </row>
     <row r="390" spans="1:31" ht="12">
-      <c r="A390" s="8"/>
-      <c r="B390" s="8"/>
-      <c r="C390" s="8"/>
+      <c r="A390" s="9"/>
+      <c r="B390" s="9"/>
+      <c r="C390" s="9"/>
       <c r="D390" s="9"/>
       <c r="E390" s="9"/>
       <c r="F390" s="9"/>
@@ -17179,9 +18230,9 @@
       <c r="AE390" s="9"/>
     </row>
     <row r="391" spans="1:31" ht="12">
-      <c r="A391" s="8"/>
-      <c r="B391" s="8"/>
-      <c r="C391" s="8"/>
+      <c r="A391" s="9"/>
+      <c r="B391" s="9"/>
+      <c r="C391" s="9"/>
       <c r="D391" s="9"/>
       <c r="E391" s="9"/>
       <c r="F391" s="9"/>
@@ -17212,9 +18263,9 @@
       <c r="AE391" s="9"/>
     </row>
     <row r="392" spans="1:31" ht="12">
-      <c r="A392" s="8"/>
-      <c r="B392" s="8"/>
-      <c r="C392" s="8"/>
+      <c r="A392" s="9"/>
+      <c r="B392" s="9"/>
+      <c r="C392" s="9"/>
       <c r="D392" s="9"/>
       <c r="E392" s="9"/>
       <c r="F392" s="9"/>
@@ -17245,9 +18296,9 @@
       <c r="AE392" s="9"/>
     </row>
     <row r="393" spans="1:31" ht="12">
-      <c r="A393" s="8"/>
-      <c r="B393" s="8"/>
-      <c r="C393" s="8"/>
+      <c r="A393" s="9"/>
+      <c r="B393" s="9"/>
+      <c r="C393" s="9"/>
       <c r="D393" s="9"/>
       <c r="E393" s="9"/>
       <c r="F393" s="9"/>
@@ -17278,9 +18329,9 @@
       <c r="AE393" s="9"/>
     </row>
     <row r="394" spans="1:31" ht="12">
-      <c r="A394" s="8"/>
-      <c r="B394" s="8"/>
-      <c r="C394" s="8"/>
+      <c r="A394" s="9"/>
+      <c r="B394" s="9"/>
+      <c r="C394" s="9"/>
       <c r="D394" s="9"/>
       <c r="E394" s="9"/>
       <c r="F394" s="9"/>
@@ -17311,9 +18362,9 @@
       <c r="AE394" s="9"/>
     </row>
     <row r="395" spans="1:31" ht="12">
-      <c r="A395" s="8"/>
-      <c r="B395" s="8"/>
-      <c r="C395" s="8"/>
+      <c r="A395" s="9"/>
+      <c r="B395" s="9"/>
+      <c r="C395" s="9"/>
       <c r="D395" s="9"/>
       <c r="E395" s="9"/>
       <c r="F395" s="9"/>
@@ -17344,9 +18395,9 @@
       <c r="AE395" s="9"/>
     </row>
     <row r="396" spans="1:31" ht="12">
-      <c r="A396" s="8"/>
-      <c r="B396" s="8"/>
-      <c r="C396" s="8"/>
+      <c r="A396" s="9"/>
+      <c r="B396" s="9"/>
+      <c r="C396" s="9"/>
       <c r="D396" s="9"/>
       <c r="E396" s="9"/>
       <c r="F396" s="9"/>
@@ -17377,9 +18428,9 @@
       <c r="AE396" s="9"/>
     </row>
     <row r="397" spans="1:31" ht="12">
-      <c r="A397" s="8"/>
-      <c r="B397" s="8"/>
-      <c r="C397" s="8"/>
+      <c r="A397" s="9"/>
+      <c r="B397" s="9"/>
+      <c r="C397" s="9"/>
       <c r="D397" s="9"/>
       <c r="E397" s="9"/>
       <c r="F397" s="9"/>
@@ -17410,9 +18461,9 @@
       <c r="AE397" s="9"/>
     </row>
     <row r="398" spans="1:31" ht="12">
-      <c r="A398" s="8"/>
-      <c r="B398" s="8"/>
-      <c r="C398" s="8"/>
+      <c r="A398" s="9"/>
+      <c r="B398" s="9"/>
+      <c r="C398" s="9"/>
       <c r="D398" s="9"/>
       <c r="E398" s="9"/>
       <c r="F398" s="9"/>
@@ -17443,9 +18494,9 @@
       <c r="AE398" s="9"/>
     </row>
     <row r="399" spans="1:31" ht="12">
-      <c r="A399" s="8"/>
-      <c r="B399" s="8"/>
-      <c r="C399" s="8"/>
+      <c r="A399" s="9"/>
+      <c r="B399" s="9"/>
+      <c r="C399" s="9"/>
       <c r="D399" s="9"/>
       <c r="E399" s="9"/>
       <c r="F399" s="9"/>
@@ -17476,9 +18527,9 @@
       <c r="AE399" s="9"/>
     </row>
     <row r="400" spans="1:31" ht="12">
-      <c r="A400" s="8"/>
-      <c r="B400" s="8"/>
-      <c r="C400" s="8"/>
+      <c r="A400" s="9"/>
+      <c r="B400" s="9"/>
+      <c r="C400" s="9"/>
       <c r="D400" s="9"/>
       <c r="E400" s="9"/>
       <c r="F400" s="9"/>
@@ -17509,9 +18560,9 @@
       <c r="AE400" s="9"/>
     </row>
     <row r="401" spans="1:31" ht="12">
-      <c r="A401" s="8"/>
-      <c r="B401" s="8"/>
-      <c r="C401" s="8"/>
+      <c r="A401" s="9"/>
+      <c r="B401" s="9"/>
+      <c r="C401" s="9"/>
       <c r="D401" s="9"/>
       <c r="E401" s="9"/>
       <c r="F401" s="9"/>
@@ -17542,9 +18593,9 @@
       <c r="AE401" s="9"/>
     </row>
     <row r="402" spans="1:31" ht="12">
-      <c r="A402" s="8"/>
-      <c r="B402" s="8"/>
-      <c r="C402" s="8"/>
+      <c r="A402" s="9"/>
+      <c r="B402" s="9"/>
+      <c r="C402" s="9"/>
       <c r="D402" s="9"/>
       <c r="E402" s="9"/>
       <c r="F402" s="9"/>
@@ -17575,9 +18626,9 @@
       <c r="AE402" s="9"/>
     </row>
     <row r="403" spans="1:31" ht="12">
-      <c r="A403" s="8"/>
-      <c r="B403" s="8"/>
-      <c r="C403" s="8"/>
+      <c r="A403" s="9"/>
+      <c r="B403" s="9"/>
+      <c r="C403" s="9"/>
       <c r="D403" s="9"/>
       <c r="E403" s="9"/>
       <c r="F403" s="9"/>
@@ -17608,9 +18659,9 @@
       <c r="AE403" s="9"/>
     </row>
     <row r="404" spans="1:31" ht="12">
-      <c r="A404" s="8"/>
-      <c r="B404" s="8"/>
-      <c r="C404" s="8"/>
+      <c r="A404" s="9"/>
+      <c r="B404" s="9"/>
+      <c r="C404" s="9"/>
       <c r="D404" s="9"/>
       <c r="E404" s="9"/>
       <c r="F404" s="9"/>
@@ -17641,9 +18692,9 @@
       <c r="AE404" s="9"/>
     </row>
     <row r="405" spans="1:31" ht="12">
-      <c r="A405" s="8"/>
-      <c r="B405" s="8"/>
-      <c r="C405" s="8"/>
+      <c r="A405" s="9"/>
+      <c r="B405" s="9"/>
+      <c r="C405" s="9"/>
       <c r="D405" s="9"/>
       <c r="E405" s="9"/>
       <c r="F405" s="9"/>
@@ -17674,9 +18725,9 @@
       <c r="AE405" s="9"/>
     </row>
     <row r="406" spans="1:31" ht="12">
-      <c r="A406" s="8"/>
-      <c r="B406" s="8"/>
-      <c r="C406" s="8"/>
+      <c r="A406" s="9"/>
+      <c r="B406" s="9"/>
+      <c r="C406" s="9"/>
       <c r="D406" s="9"/>
       <c r="E406" s="9"/>
       <c r="F406" s="9"/>
@@ -17707,9 +18758,9 @@
       <c r="AE406" s="9"/>
     </row>
     <row r="407" spans="1:31" ht="12">
-      <c r="A407" s="8"/>
-      <c r="B407" s="8"/>
-      <c r="C407" s="8"/>
+      <c r="A407" s="9"/>
+      <c r="B407" s="9"/>
+      <c r="C407" s="9"/>
       <c r="D407" s="9"/>
       <c r="E407" s="9"/>
       <c r="F407" s="9"/>
@@ -17740,9 +18791,9 @@
       <c r="AE407" s="9"/>
     </row>
     <row r="408" spans="1:31" ht="12">
-      <c r="A408" s="8"/>
-      <c r="B408" s="8"/>
-      <c r="C408" s="8"/>
+      <c r="A408" s="9"/>
+      <c r="B408" s="9"/>
+      <c r="C408" s="9"/>
       <c r="D408" s="9"/>
       <c r="E408" s="9"/>
       <c r="F408" s="9"/>
@@ -17773,9 +18824,9 @@
       <c r="AE408" s="9"/>
     </row>
     <row r="409" spans="1:31" ht="12">
-      <c r="A409" s="8"/>
-      <c r="B409" s="8"/>
-      <c r="C409" s="8"/>
+      <c r="A409" s="9"/>
+      <c r="B409" s="9"/>
+      <c r="C409" s="9"/>
       <c r="D409" s="9"/>
       <c r="E409" s="9"/>
       <c r="F409" s="9"/>
@@ -17806,9 +18857,9 @@
       <c r="AE409" s="9"/>
     </row>
     <row r="410" spans="1:31" ht="12">
-      <c r="A410" s="8"/>
-      <c r="B410" s="8"/>
-      <c r="C410" s="8"/>
+      <c r="A410" s="9"/>
+      <c r="B410" s="9"/>
+      <c r="C410" s="9"/>
       <c r="D410" s="9"/>
       <c r="E410" s="9"/>
       <c r="F410" s="9"/>
@@ -17839,9 +18890,9 @@
       <c r="AE410" s="9"/>
     </row>
     <row r="411" spans="1:31" ht="12">
-      <c r="A411" s="8"/>
-      <c r="B411" s="8"/>
-      <c r="C411" s="8"/>
+      <c r="A411" s="9"/>
+      <c r="B411" s="9"/>
+      <c r="C411" s="9"/>
       <c r="D411" s="9"/>
       <c r="E411" s="9"/>
       <c r="F411" s="9"/>
@@ -17872,9 +18923,9 @@
       <c r="AE411" s="9"/>
     </row>
     <row r="412" spans="1:31" ht="12">
-      <c r="A412" s="8"/>
-      <c r="B412" s="8"/>
-      <c r="C412" s="8"/>
+      <c r="A412" s="9"/>
+      <c r="B412" s="9"/>
+      <c r="C412" s="9"/>
       <c r="D412" s="9"/>
       <c r="E412" s="9"/>
       <c r="F412" s="9"/>
@@ -17905,9 +18956,9 @@
       <c r="AE412" s="9"/>
     </row>
     <row r="413" spans="1:31" ht="12">
-      <c r="A413" s="8"/>
-      <c r="B413" s="8"/>
-      <c r="C413" s="8"/>
+      <c r="A413" s="9"/>
+      <c r="B413" s="9"/>
+      <c r="C413" s="9"/>
       <c r="D413" s="9"/>
       <c r="E413" s="9"/>
       <c r="F413" s="9"/>
@@ -17938,9 +18989,9 @@
       <c r="AE413" s="9"/>
     </row>
     <row r="414" spans="1:31" ht="12">
-      <c r="A414" s="8"/>
-      <c r="B414" s="8"/>
-      <c r="C414" s="8"/>
+      <c r="A414" s="9"/>
+      <c r="B414" s="9"/>
+      <c r="C414" s="9"/>
       <c r="D414" s="9"/>
       <c r="E414" s="9"/>
       <c r="F414" s="9"/>
@@ -17971,9 +19022,9 @@
       <c r="AE414" s="9"/>
     </row>
     <row r="415" spans="1:31" ht="12">
-      <c r="A415" s="8"/>
-      <c r="B415" s="8"/>
-      <c r="C415" s="8"/>
+      <c r="A415" s="9"/>
+      <c r="B415" s="9"/>
+      <c r="C415" s="9"/>
       <c r="D415" s="9"/>
       <c r="E415" s="9"/>
       <c r="F415" s="9"/>
@@ -18004,9 +19055,9 @@
       <c r="AE415" s="9"/>
     </row>
     <row r="416" spans="1:31" ht="12">
-      <c r="A416" s="8"/>
-      <c r="B416" s="8"/>
-      <c r="C416" s="8"/>
+      <c r="A416" s="9"/>
+      <c r="B416" s="9"/>
+      <c r="C416" s="9"/>
       <c r="D416" s="9"/>
       <c r="E416" s="9"/>
       <c r="F416" s="9"/>
@@ -18037,9 +19088,9 @@
       <c r="AE416" s="9"/>
     </row>
     <row r="417" spans="1:31" ht="12">
-      <c r="A417" s="8"/>
-      <c r="B417" s="8"/>
-      <c r="C417" s="8"/>
+      <c r="A417" s="9"/>
+      <c r="B417" s="9"/>
+      <c r="C417" s="9"/>
       <c r="D417" s="9"/>
       <c r="E417" s="9"/>
       <c r="F417" s="9"/>
@@ -18070,9 +19121,9 @@
       <c r="AE417" s="9"/>
     </row>
     <row r="418" spans="1:31" ht="12">
-      <c r="A418" s="8"/>
-      <c r="B418" s="8"/>
-      <c r="C418" s="8"/>
+      <c r="A418" s="9"/>
+      <c r="B418" s="9"/>
+      <c r="C418" s="9"/>
       <c r="D418" s="9"/>
       <c r="E418" s="9"/>
       <c r="F418" s="9"/>
@@ -18103,9 +19154,9 @@
       <c r="AE418" s="9"/>
     </row>
     <row r="419" spans="1:31" ht="12">
-      <c r="A419" s="8"/>
-      <c r="B419" s="8"/>
-      <c r="C419" s="8"/>
+      <c r="A419" s="9"/>
+      <c r="B419" s="9"/>
+      <c r="C419" s="9"/>
       <c r="D419" s="9"/>
       <c r="E419" s="9"/>
       <c r="F419" s="9"/>
@@ -18136,9 +19187,9 @@
       <c r="AE419" s="9"/>
     </row>
     <row r="420" spans="1:31" ht="12">
-      <c r="A420" s="8"/>
-      <c r="B420" s="8"/>
-      <c r="C420" s="8"/>
+      <c r="A420" s="9"/>
+      <c r="B420" s="9"/>
+      <c r="C420" s="9"/>
       <c r="D420" s="9"/>
       <c r="E420" s="9"/>
       <c r="F420" s="9"/>
@@ -18169,9 +19220,9 @@
       <c r="AE420" s="9"/>
     </row>
     <row r="421" spans="1:31" ht="12">
-      <c r="A421" s="8"/>
-      <c r="B421" s="8"/>
-      <c r="C421" s="8"/>
+      <c r="A421" s="9"/>
+      <c r="B421" s="9"/>
+      <c r="C421" s="9"/>
       <c r="D421" s="9"/>
       <c r="E421" s="9"/>
       <c r="F421" s="9"/>
@@ -18202,9 +19253,9 @@
       <c r="AE421" s="9"/>
     </row>
     <row r="422" spans="1:31" ht="12">
-      <c r="A422" s="8"/>
-      <c r="B422" s="8"/>
-      <c r="C422" s="8"/>
+      <c r="A422" s="9"/>
+      <c r="B422" s="9"/>
+      <c r="C422" s="9"/>
       <c r="D422" s="9"/>
       <c r="E422" s="9"/>
       <c r="F422" s="9"/>
@@ -18235,9 +19286,9 @@
       <c r="AE422" s="9"/>
     </row>
     <row r="423" spans="1:31" ht="12">
-      <c r="A423" s="8"/>
-      <c r="B423" s="8"/>
-      <c r="C423" s="8"/>
+      <c r="A423" s="9"/>
+      <c r="B423" s="9"/>
+      <c r="C423" s="9"/>
       <c r="D423" s="9"/>
       <c r="E423" s="9"/>
       <c r="F423" s="9"/>
@@ -18268,9 +19319,9 @@
       <c r="AE423" s="9"/>
     </row>
     <row r="424" spans="1:31" ht="12">
-      <c r="A424" s="8"/>
-      <c r="B424" s="8"/>
-      <c r="C424" s="8"/>
+      <c r="A424" s="9"/>
+      <c r="B424" s="9"/>
+      <c r="C424" s="9"/>
       <c r="D424" s="9"/>
       <c r="E424" s="9"/>
       <c r="F424" s="9"/>
@@ -18301,9 +19352,9 @@
       <c r="AE424" s="9"/>
     </row>
     <row r="425" spans="1:31" ht="12">
-      <c r="A425" s="8"/>
-      <c r="B425" s="8"/>
-      <c r="C425" s="8"/>
+      <c r="A425" s="9"/>
+      <c r="B425" s="9"/>
+      <c r="C425" s="9"/>
       <c r="D425" s="9"/>
       <c r="E425" s="9"/>
       <c r="F425" s="9"/>
@@ -18334,9 +19385,9 @@
       <c r="AE425" s="9"/>
     </row>
     <row r="426" spans="1:31" ht="12">
-      <c r="A426" s="8"/>
-      <c r="B426" s="8"/>
-      <c r="C426" s="8"/>
+      <c r="A426" s="9"/>
+      <c r="B426" s="9"/>
+      <c r="C426" s="9"/>
       <c r="D426" s="9"/>
       <c r="E426" s="9"/>
       <c r="F426" s="9"/>
@@ -18367,9 +19418,9 @@
       <c r="AE426" s="9"/>
     </row>
     <row r="427" spans="1:31" ht="12">
-      <c r="A427" s="8"/>
-      <c r="B427" s="8"/>
-      <c r="C427" s="8"/>
+      <c r="A427" s="9"/>
+      <c r="B427" s="9"/>
+      <c r="C427" s="9"/>
       <c r="D427" s="9"/>
       <c r="E427" s="9"/>
       <c r="F427" s="9"/>
@@ -18400,9 +19451,9 @@
       <c r="AE427" s="9"/>
     </row>
     <row r="428" spans="1:31" ht="12">
-      <c r="A428" s="8"/>
-      <c r="B428" s="8"/>
-      <c r="C428" s="8"/>
+      <c r="A428" s="9"/>
+      <c r="B428" s="9"/>
+      <c r="C428" s="9"/>
       <c r="D428" s="9"/>
       <c r="E428" s="9"/>
       <c r="F428" s="9"/>
@@ -18433,9 +19484,9 @@
       <c r="AE428" s="9"/>
     </row>
     <row r="429" spans="1:31" ht="12">
-      <c r="A429" s="8"/>
-      <c r="B429" s="8"/>
-      <c r="C429" s="8"/>
+      <c r="A429" s="9"/>
+      <c r="B429" s="9"/>
+      <c r="C429" s="9"/>
       <c r="D429" s="9"/>
       <c r="E429" s="9"/>
       <c r="F429" s="9"/>
@@ -18466,9 +19517,9 @@
       <c r="AE429" s="9"/>
     </row>
     <row r="430" spans="1:31" ht="12">
-      <c r="A430" s="8"/>
-      <c r="B430" s="8"/>
-      <c r="C430" s="8"/>
+      <c r="A430" s="9"/>
+      <c r="B430" s="9"/>
+      <c r="C430" s="9"/>
       <c r="D430" s="9"/>
       <c r="E430" s="9"/>
       <c r="F430" s="9"/>
@@ -18499,9 +19550,9 @@
       <c r="AE430" s="9"/>
     </row>
     <row r="431" spans="1:31" ht="12">
-      <c r="A431" s="8"/>
-      <c r="B431" s="8"/>
-      <c r="C431" s="8"/>
+      <c r="A431" s="9"/>
+      <c r="B431" s="9"/>
+      <c r="C431" s="9"/>
       <c r="D431" s="9"/>
       <c r="E431" s="9"/>
       <c r="F431" s="9"/>
@@ -18532,9 +19583,9 @@
       <c r="AE431" s="9"/>
     </row>
     <row r="432" spans="1:31" ht="12">
-      <c r="A432" s="8"/>
-      <c r="B432" s="8"/>
-      <c r="C432" s="8"/>
+      <c r="A432" s="9"/>
+      <c r="B432" s="9"/>
+      <c r="C432" s="9"/>
       <c r="D432" s="9"/>
       <c r="E432" s="9"/>
       <c r="F432" s="9"/>
@@ -18565,9 +19616,9 @@
       <c r="AE432" s="9"/>
     </row>
     <row r="433" spans="1:31" ht="12">
-      <c r="A433" s="8"/>
-      <c r="B433" s="8"/>
-      <c r="C433" s="8"/>
+      <c r="A433" s="9"/>
+      <c r="B433" s="9"/>
+      <c r="C433" s="9"/>
       <c r="D433" s="9"/>
       <c r="E433" s="9"/>
       <c r="F433" s="9"/>
@@ -18598,9 +19649,9 @@
       <c r="AE433" s="9"/>
     </row>
     <row r="434" spans="1:31" ht="12">
-      <c r="A434" s="8"/>
-      <c r="B434" s="8"/>
-      <c r="C434" s="8"/>
+      <c r="A434" s="9"/>
+      <c r="B434" s="9"/>
+      <c r="C434" s="9"/>
       <c r="D434" s="9"/>
       <c r="E434" s="9"/>
       <c r="F434" s="9"/>
@@ -18631,9 +19682,9 @@
       <c r="AE434" s="9"/>
     </row>
     <row r="435" spans="1:31" ht="12">
-      <c r="A435" s="8"/>
-      <c r="B435" s="8"/>
-      <c r="C435" s="8"/>
+      <c r="A435" s="9"/>
+      <c r="B435" s="9"/>
+      <c r="C435" s="9"/>
       <c r="D435" s="9"/>
       <c r="E435" s="9"/>
       <c r="F435" s="9"/>
@@ -18664,9 +19715,9 @@
       <c r="AE435" s="9"/>
     </row>
     <row r="436" spans="1:31" ht="12">
-      <c r="A436" s="8"/>
-      <c r="B436" s="8"/>
-      <c r="C436" s="8"/>
+      <c r="A436" s="9"/>
+      <c r="B436" s="9"/>
+      <c r="C436" s="9"/>
       <c r="D436" s="9"/>
       <c r="E436" s="9"/>
       <c r="F436" s="9"/>
@@ -18697,9 +19748,9 @@
       <c r="AE436" s="9"/>
     </row>
     <row r="437" spans="1:31" ht="12">
-      <c r="A437" s="8"/>
-      <c r="B437" s="8"/>
-      <c r="C437" s="8"/>
+      <c r="A437" s="9"/>
+      <c r="B437" s="9"/>
+      <c r="C437" s="9"/>
       <c r="D437" s="9"/>
       <c r="E437" s="9"/>
       <c r="F437" s="9"/>
@@ -18730,9 +19781,9 @@
       <c r="AE437" s="9"/>
     </row>
     <row r="438" spans="1:31" ht="12">
-      <c r="A438" s="8"/>
-      <c r="B438" s="8"/>
-      <c r="C438" s="8"/>
+      <c r="A438" s="9"/>
+      <c r="B438" s="9"/>
+      <c r="C438" s="9"/>
       <c r="D438" s="9"/>
       <c r="E438" s="9"/>
       <c r="F438" s="9"/>
@@ -18763,9 +19814,9 @@
       <c r="AE438" s="9"/>
     </row>
     <row r="439" spans="1:31" ht="12">
-      <c r="A439" s="8"/>
-      <c r="B439" s="8"/>
-      <c r="C439" s="8"/>
+      <c r="A439" s="9"/>
+      <c r="B439" s="9"/>
+      <c r="C439" s="9"/>
       <c r="D439" s="9"/>
       <c r="E439" s="9"/>
       <c r="F439" s="9"/>
@@ -18796,9 +19847,9 @@
       <c r="AE439" s="9"/>
     </row>
     <row r="440" spans="1:31" ht="12">
-      <c r="A440" s="8"/>
-      <c r="B440" s="8"/>
-      <c r="C440" s="8"/>
+      <c r="A440" s="9"/>
+      <c r="B440" s="9"/>
+      <c r="C440" s="9"/>
       <c r="D440" s="9"/>
       <c r="E440" s="9"/>
       <c r="F440" s="9"/>
@@ -18829,9 +19880,9 @@
       <c r="AE440" s="9"/>
     </row>
     <row r="441" spans="1:31" ht="12">
-      <c r="A441" s="8"/>
-      <c r="B441" s="8"/>
-      <c r="C441" s="8"/>
+      <c r="A441" s="9"/>
+      <c r="B441" s="9"/>
+      <c r="C441" s="9"/>
       <c r="D441" s="9"/>
       <c r="E441" s="9"/>
       <c r="F441" s="9"/>
@@ -18862,9 +19913,9 @@
       <c r="AE441" s="9"/>
     </row>
     <row r="442" spans="1:31" ht="12">
-      <c r="A442" s="8"/>
-      <c r="B442" s="8"/>
-      <c r="C442" s="8"/>
+      <c r="A442" s="9"/>
+      <c r="B442" s="9"/>
+      <c r="C442" s="9"/>
       <c r="D442" s="9"/>
       <c r="E442" s="9"/>
       <c r="F442" s="9"/>
@@ -18895,9 +19946,9 @@
       <c r="AE442" s="9"/>
     </row>
     <row r="443" spans="1:31" ht="12">
-      <c r="A443" s="8"/>
-      <c r="B443" s="8"/>
-      <c r="C443" s="8"/>
+      <c r="A443" s="9"/>
+      <c r="B443" s="9"/>
+      <c r="C443" s="9"/>
       <c r="D443" s="9"/>
       <c r="E443" s="9"/>
       <c r="F443" s="9"/>
@@ -18928,9 +19979,9 @@
       <c r="AE443" s="9"/>
     </row>
     <row r="444" spans="1:31" ht="12">
-      <c r="A444" s="8"/>
-      <c r="B444" s="8"/>
-      <c r="C444" s="8"/>
+      <c r="A444" s="9"/>
+      <c r="B444" s="9"/>
+      <c r="C444" s="9"/>
       <c r="D444" s="9"/>
       <c r="E444" s="9"/>
       <c r="F444" s="9"/>
@@ -18961,9 +20012,9 @@
       <c r="AE444" s="9"/>
     </row>
     <row r="445" spans="1:31" ht="12">
-      <c r="A445" s="8"/>
-      <c r="B445" s="8"/>
-      <c r="C445" s="8"/>
+      <c r="A445" s="9"/>
+      <c r="B445" s="9"/>
+      <c r="C445" s="9"/>
       <c r="D445" s="9"/>
       <c r="E445" s="9"/>
       <c r="F445" s="9"/>
@@ -18994,9 +20045,9 @@
       <c r="AE445" s="9"/>
     </row>
     <row r="446" spans="1:31" ht="12">
-      <c r="A446" s="8"/>
-      <c r="B446" s="8"/>
-      <c r="C446" s="8"/>
+      <c r="A446" s="9"/>
+      <c r="B446" s="9"/>
+      <c r="C446" s="9"/>
       <c r="D446" s="9"/>
       <c r="E446" s="9"/>
       <c r="F446" s="9"/>
@@ -19027,9 +20078,9 @@
       <c r="AE446" s="9"/>
     </row>
     <row r="447" spans="1:31" ht="12">
-      <c r="A447" s="8"/>
-      <c r="B447" s="8"/>
-      <c r="C447" s="8"/>
+      <c r="A447" s="9"/>
+      <c r="B447" s="9"/>
+      <c r="C447" s="9"/>
       <c r="D447" s="9"/>
       <c r="E447" s="9"/>
       <c r="F447" s="9"/>
@@ -19060,9 +20111,9 @@
       <c r="AE447" s="9"/>
     </row>
     <row r="448" spans="1:31" ht="12">
-      <c r="A448" s="8"/>
-      <c r="B448" s="8"/>
-      <c r="C448" s="8"/>
+      <c r="A448" s="9"/>
+      <c r="B448" s="9"/>
+      <c r="C448" s="9"/>
       <c r="D448" s="9"/>
       <c r="E448" s="9"/>
       <c r="F448" s="9"/>
@@ -19093,9 +20144,9 @@
       <c r="AE448" s="9"/>
     </row>
     <row r="449" spans="1:31" ht="12">
-      <c r="A449" s="8"/>
-      <c r="B449" s="8"/>
-      <c r="C449" s="8"/>
+      <c r="A449" s="9"/>
+      <c r="B449" s="9"/>
+      <c r="C449" s="9"/>
       <c r="D449" s="9"/>
       <c r="E449" s="9"/>
       <c r="F449" s="9"/>
@@ -19126,9 +20177,9 @@
       <c r="AE449" s="9"/>
     </row>
     <row r="450" spans="1:31" ht="12">
-      <c r="A450" s="8"/>
-      <c r="B450" s="8"/>
-      <c r="C450" s="8"/>
+      <c r="A450" s="9"/>
+      <c r="B450" s="9"/>
+      <c r="C450" s="9"/>
       <c r="D450" s="9"/>
       <c r="E450" s="9"/>
       <c r="F450" s="9"/>
@@ -33645,6 +34696,814 @@
       <c r="AD889" s="9"/>
       <c r="AE889" s="9"/>
     </row>
+    <row r="890" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A890" s="8"/>
+      <c r="B890" s="8"/>
+      <c r="C890" s="8"/>
+      <c r="D890" s="9"/>
+      <c r="E890" s="9"/>
+      <c r="F890" s="9"/>
+      <c r="G890" s="9"/>
+      <c r="H890" s="8"/>
+      <c r="I890" s="9"/>
+      <c r="J890" s="9"/>
+      <c r="K890" s="9"/>
+    </row>
+    <row r="891" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A891" s="8"/>
+      <c r="B891" s="8"/>
+      <c r="C891" s="8"/>
+      <c r="D891" s="9"/>
+      <c r="E891" s="9"/>
+      <c r="F891" s="9"/>
+      <c r="G891" s="9"/>
+      <c r="H891" s="8"/>
+      <c r="I891" s="9"/>
+      <c r="J891" s="9"/>
+      <c r="K891" s="9"/>
+    </row>
+    <row r="892" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A892" s="8"/>
+      <c r="B892" s="8"/>
+      <c r="C892" s="8"/>
+      <c r="D892" s="9"/>
+      <c r="E892" s="9"/>
+      <c r="F892" s="9"/>
+      <c r="G892" s="9"/>
+      <c r="H892" s="8"/>
+      <c r="I892" s="9"/>
+      <c r="J892" s="9"/>
+      <c r="K892" s="9"/>
+    </row>
+    <row r="893" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A893" s="8"/>
+      <c r="B893" s="8"/>
+      <c r="C893" s="8"/>
+      <c r="D893" s="9"/>
+      <c r="E893" s="9"/>
+      <c r="F893" s="9"/>
+      <c r="G893" s="9"/>
+      <c r="H893" s="8"/>
+      <c r="I893" s="9"/>
+      <c r="J893" s="9"/>
+      <c r="K893" s="9"/>
+    </row>
+    <row r="894" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A894" s="8"/>
+      <c r="B894" s="8"/>
+      <c r="C894" s="8"/>
+      <c r="D894" s="9"/>
+      <c r="E894" s="9"/>
+      <c r="F894" s="9"/>
+      <c r="G894" s="9"/>
+      <c r="H894" s="8"/>
+      <c r="I894" s="9"/>
+      <c r="J894" s="9"/>
+      <c r="K894" s="9"/>
+    </row>
+    <row r="895" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A895" s="8"/>
+      <c r="B895" s="8"/>
+      <c r="C895" s="8"/>
+      <c r="D895" s="9"/>
+      <c r="E895" s="9"/>
+      <c r="F895" s="9"/>
+      <c r="G895" s="9"/>
+      <c r="H895" s="8"/>
+      <c r="I895" s="9"/>
+      <c r="J895" s="9"/>
+      <c r="K895" s="9"/>
+    </row>
+    <row r="896" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A896" s="8"/>
+      <c r="B896" s="8"/>
+      <c r="C896" s="8"/>
+      <c r="D896" s="9"/>
+      <c r="E896" s="9"/>
+      <c r="F896" s="9"/>
+      <c r="G896" s="9"/>
+      <c r="H896" s="8"/>
+      <c r="I896" s="9"/>
+      <c r="J896" s="9"/>
+      <c r="K896" s="9"/>
+    </row>
+    <row r="897" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A897" s="8"/>
+      <c r="B897" s="8"/>
+      <c r="C897" s="8"/>
+      <c r="D897" s="9"/>
+      <c r="E897" s="9"/>
+      <c r="F897" s="9"/>
+      <c r="G897" s="9"/>
+      <c r="H897" s="8"/>
+      <c r="I897" s="9"/>
+      <c r="J897" s="9"/>
+      <c r="K897" s="9"/>
+    </row>
+    <row r="898" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A898" s="8"/>
+      <c r="B898" s="8"/>
+      <c r="C898" s="8"/>
+      <c r="D898" s="9"/>
+      <c r="E898" s="9"/>
+      <c r="F898" s="9"/>
+      <c r="G898" s="9"/>
+      <c r="H898" s="8"/>
+      <c r="I898" s="9"/>
+      <c r="J898" s="9"/>
+      <c r="K898" s="9"/>
+    </row>
+    <row r="899" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A899" s="8"/>
+      <c r="B899" s="8"/>
+      <c r="C899" s="8"/>
+      <c r="D899" s="9"/>
+      <c r="E899" s="9"/>
+      <c r="F899" s="9"/>
+      <c r="G899" s="9"/>
+      <c r="H899" s="8"/>
+      <c r="I899" s="9"/>
+      <c r="J899" s="9"/>
+      <c r="K899" s="9"/>
+    </row>
+    <row r="900" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A900" s="8"/>
+      <c r="B900" s="8"/>
+      <c r="C900" s="8"/>
+      <c r="D900" s="9"/>
+      <c r="E900" s="9"/>
+      <c r="F900" s="9"/>
+      <c r="G900" s="9"/>
+      <c r="H900" s="8"/>
+      <c r="I900" s="9"/>
+      <c r="J900" s="9"/>
+      <c r="K900" s="9"/>
+    </row>
+    <row r="901" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A901" s="8"/>
+      <c r="B901" s="8"/>
+      <c r="C901" s="8"/>
+      <c r="D901" s="9"/>
+      <c r="E901" s="9"/>
+      <c r="F901" s="9"/>
+      <c r="G901" s="9"/>
+      <c r="H901" s="8"/>
+      <c r="I901" s="9"/>
+      <c r="J901" s="9"/>
+      <c r="K901" s="9"/>
+    </row>
+    <row r="902" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A902" s="8"/>
+      <c r="B902" s="8"/>
+      <c r="C902" s="8"/>
+      <c r="D902" s="9"/>
+      <c r="E902" s="9"/>
+      <c r="F902" s="9"/>
+      <c r="G902" s="9"/>
+      <c r="H902" s="8"/>
+      <c r="I902" s="9"/>
+      <c r="J902" s="9"/>
+      <c r="K902" s="9"/>
+    </row>
+    <row r="903" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A903" s="8"/>
+      <c r="B903" s="8"/>
+      <c r="C903" s="8"/>
+      <c r="D903" s="9"/>
+      <c r="E903" s="9"/>
+      <c r="F903" s="9"/>
+      <c r="G903" s="9"/>
+      <c r="H903" s="8"/>
+      <c r="I903" s="9"/>
+      <c r="J903" s="9"/>
+      <c r="K903" s="9"/>
+    </row>
+    <row r="904" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A904" s="8"/>
+      <c r="B904" s="8"/>
+      <c r="C904" s="8"/>
+      <c r="D904" s="9"/>
+      <c r="E904" s="9"/>
+      <c r="F904" s="9"/>
+      <c r="G904" s="9"/>
+      <c r="H904" s="8"/>
+      <c r="I904" s="9"/>
+      <c r="J904" s="9"/>
+      <c r="K904" s="9"/>
+    </row>
+    <row r="905" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A905" s="8"/>
+      <c r="B905" s="8"/>
+      <c r="C905" s="8"/>
+      <c r="D905" s="9"/>
+      <c r="E905" s="9"/>
+      <c r="F905" s="9"/>
+      <c r="G905" s="9"/>
+      <c r="H905" s="8"/>
+      <c r="I905" s="9"/>
+      <c r="J905" s="9"/>
+      <c r="K905" s="9"/>
+    </row>
+    <row r="906" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A906" s="8"/>
+      <c r="B906" s="8"/>
+      <c r="C906" s="8"/>
+      <c r="D906" s="9"/>
+      <c r="E906" s="9"/>
+      <c r="F906" s="9"/>
+      <c r="G906" s="9"/>
+      <c r="H906" s="8"/>
+      <c r="I906" s="9"/>
+      <c r="J906" s="9"/>
+      <c r="K906" s="9"/>
+    </row>
+    <row r="907" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A907" s="8"/>
+      <c r="B907" s="8"/>
+      <c r="C907" s="8"/>
+      <c r="D907" s="9"/>
+      <c r="E907" s="9"/>
+      <c r="F907" s="9"/>
+      <c r="G907" s="9"/>
+      <c r="H907" s="8"/>
+      <c r="I907" s="9"/>
+      <c r="J907" s="9"/>
+      <c r="K907" s="9"/>
+    </row>
+    <row r="908" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A908" s="8"/>
+      <c r="B908" s="8"/>
+      <c r="C908" s="8"/>
+      <c r="D908" s="9"/>
+      <c r="E908" s="9"/>
+      <c r="F908" s="9"/>
+      <c r="G908" s="9"/>
+      <c r="H908" s="8"/>
+      <c r="I908" s="9"/>
+      <c r="J908" s="9"/>
+      <c r="K908" s="9"/>
+    </row>
+    <row r="909" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A909" s="8"/>
+      <c r="B909" s="8"/>
+      <c r="C909" s="8"/>
+      <c r="D909" s="9"/>
+      <c r="E909" s="9"/>
+      <c r="F909" s="9"/>
+      <c r="G909" s="9"/>
+      <c r="H909" s="8"/>
+      <c r="I909" s="9"/>
+      <c r="J909" s="9"/>
+      <c r="K909" s="9"/>
+    </row>
+    <row r="910" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A910" s="8"/>
+      <c r="B910" s="8"/>
+      <c r="C910" s="8"/>
+      <c r="D910" s="9"/>
+      <c r="E910" s="9"/>
+      <c r="F910" s="9"/>
+      <c r="G910" s="9"/>
+      <c r="H910" s="8"/>
+      <c r="I910" s="9"/>
+      <c r="J910" s="9"/>
+      <c r="K910" s="9"/>
+    </row>
+    <row r="911" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A911" s="8"/>
+      <c r="B911" s="8"/>
+      <c r="C911" s="8"/>
+      <c r="D911" s="9"/>
+      <c r="E911" s="9"/>
+      <c r="F911" s="9"/>
+      <c r="G911" s="9"/>
+      <c r="H911" s="8"/>
+      <c r="I911" s="9"/>
+      <c r="J911" s="9"/>
+      <c r="K911" s="9"/>
+    </row>
+    <row r="912" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A912" s="8"/>
+      <c r="B912" s="8"/>
+      <c r="C912" s="8"/>
+      <c r="D912" s="9"/>
+      <c r="E912" s="9"/>
+      <c r="F912" s="9"/>
+      <c r="G912" s="9"/>
+      <c r="H912" s="8"/>
+      <c r="I912" s="9"/>
+      <c r="J912" s="9"/>
+      <c r="K912" s="9"/>
+    </row>
+    <row r="913" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A913" s="8"/>
+      <c r="B913" s="8"/>
+      <c r="C913" s="8"/>
+      <c r="D913" s="9"/>
+      <c r="E913" s="9"/>
+      <c r="F913" s="9"/>
+      <c r="G913" s="9"/>
+      <c r="H913" s="8"/>
+      <c r="I913" s="9"/>
+      <c r="J913" s="9"/>
+      <c r="K913" s="9"/>
+    </row>
+    <row r="914" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A914" s="8"/>
+      <c r="B914" s="8"/>
+      <c r="C914" s="8"/>
+      <c r="D914" s="9"/>
+      <c r="E914" s="9"/>
+      <c r="F914" s="9"/>
+      <c r="G914" s="9"/>
+      <c r="H914" s="8"/>
+      <c r="I914" s="9"/>
+      <c r="J914" s="9"/>
+      <c r="K914" s="9"/>
+    </row>
+    <row r="915" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A915" s="8"/>
+      <c r="B915" s="8"/>
+      <c r="C915" s="8"/>
+      <c r="D915" s="9"/>
+      <c r="E915" s="9"/>
+      <c r="F915" s="9"/>
+      <c r="G915" s="9"/>
+      <c r="H915" s="8"/>
+      <c r="I915" s="9"/>
+      <c r="J915" s="9"/>
+      <c r="K915" s="9"/>
+    </row>
+    <row r="916" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A916" s="8"/>
+      <c r="B916" s="8"/>
+      <c r="C916" s="8"/>
+      <c r="D916" s="9"/>
+      <c r="E916" s="9"/>
+      <c r="F916" s="9"/>
+      <c r="G916" s="9"/>
+      <c r="H916" s="8"/>
+      <c r="I916" s="9"/>
+      <c r="J916" s="9"/>
+      <c r="K916" s="9"/>
+    </row>
+    <row r="917" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A917" s="8"/>
+      <c r="B917" s="8"/>
+      <c r="C917" s="8"/>
+      <c r="D917" s="9"/>
+      <c r="E917" s="9"/>
+      <c r="F917" s="9"/>
+      <c r="G917" s="9"/>
+      <c r="H917" s="8"/>
+      <c r="I917" s="9"/>
+      <c r="J917" s="9"/>
+      <c r="K917" s="9"/>
+    </row>
+    <row r="918" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A918" s="8"/>
+      <c r="B918" s="8"/>
+      <c r="C918" s="8"/>
+      <c r="D918" s="9"/>
+      <c r="E918" s="9"/>
+      <c r="F918" s="9"/>
+      <c r="G918" s="9"/>
+      <c r="H918" s="8"/>
+      <c r="I918" s="9"/>
+      <c r="J918" s="9"/>
+      <c r="K918" s="9"/>
+    </row>
+    <row r="919" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A919" s="8"/>
+      <c r="B919" s="8"/>
+      <c r="C919" s="8"/>
+      <c r="D919" s="9"/>
+      <c r="E919" s="9"/>
+      <c r="F919" s="9"/>
+      <c r="G919" s="9"/>
+      <c r="H919" s="8"/>
+      <c r="I919" s="9"/>
+      <c r="J919" s="9"/>
+      <c r="K919" s="9"/>
+    </row>
+    <row r="920" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A920" s="8"/>
+      <c r="B920" s="8"/>
+      <c r="C920" s="8"/>
+      <c r="D920" s="9"/>
+      <c r="E920" s="9"/>
+      <c r="F920" s="9"/>
+      <c r="G920" s="9"/>
+      <c r="H920" s="8"/>
+      <c r="I920" s="9"/>
+      <c r="J920" s="9"/>
+      <c r="K920" s="9"/>
+    </row>
+    <row r="921" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A921" s="8"/>
+      <c r="B921" s="8"/>
+      <c r="C921" s="8"/>
+      <c r="D921" s="9"/>
+      <c r="E921" s="9"/>
+      <c r="F921" s="9"/>
+      <c r="G921" s="9"/>
+      <c r="H921" s="8"/>
+      <c r="I921" s="9"/>
+      <c r="J921" s="9"/>
+      <c r="K921" s="9"/>
+    </row>
+    <row r="922" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A922" s="8"/>
+      <c r="B922" s="8"/>
+      <c r="C922" s="8"/>
+      <c r="D922" s="9"/>
+      <c r="E922" s="9"/>
+      <c r="F922" s="9"/>
+      <c r="G922" s="9"/>
+      <c r="H922" s="8"/>
+      <c r="I922" s="9"/>
+      <c r="J922" s="9"/>
+    </row>
+    <row r="923" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A923" s="8"/>
+      <c r="B923" s="8"/>
+      <c r="C923" s="8"/>
+      <c r="D923" s="9"/>
+      <c r="E923" s="9"/>
+      <c r="F923" s="9"/>
+      <c r="G923" s="9"/>
+      <c r="H923" s="8"/>
+      <c r="I923" s="9"/>
+      <c r="J923" s="9"/>
+    </row>
+    <row r="924" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A924" s="8"/>
+      <c r="B924" s="8"/>
+      <c r="C924" s="8"/>
+      <c r="D924" s="9"/>
+      <c r="E924" s="9"/>
+      <c r="F924" s="9"/>
+      <c r="G924" s="9"/>
+      <c r="H924" s="8"/>
+      <c r="I924" s="9"/>
+      <c r="J924" s="9"/>
+    </row>
+    <row r="925" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A925" s="8"/>
+      <c r="B925" s="8"/>
+      <c r="C925" s="8"/>
+      <c r="D925" s="9"/>
+      <c r="E925" s="9"/>
+      <c r="F925" s="9"/>
+      <c r="G925" s="9"/>
+      <c r="H925" s="8"/>
+      <c r="I925" s="9"/>
+      <c r="J925" s="9"/>
+    </row>
+    <row r="926" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A926" s="8"/>
+      <c r="B926" s="8"/>
+      <c r="C926" s="8"/>
+      <c r="D926" s="9"/>
+      <c r="E926" s="9"/>
+      <c r="F926" s="9"/>
+      <c r="G926" s="9"/>
+      <c r="H926" s="8"/>
+      <c r="I926" s="9"/>
+      <c r="J926" s="9"/>
+    </row>
+    <row r="927" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A927" s="8"/>
+      <c r="B927" s="8"/>
+      <c r="C927" s="8"/>
+      <c r="D927" s="9"/>
+      <c r="E927" s="9"/>
+      <c r="F927" s="9"/>
+      <c r="G927" s="9"/>
+      <c r="H927" s="8"/>
+      <c r="I927" s="9"/>
+      <c r="J927" s="9"/>
+    </row>
+    <row r="928" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A928" s="8"/>
+      <c r="B928" s="8"/>
+      <c r="C928" s="8"/>
+      <c r="D928" s="9"/>
+      <c r="E928" s="9"/>
+      <c r="F928" s="9"/>
+      <c r="G928" s="9"/>
+      <c r="H928" s="8"/>
+      <c r="I928" s="9"/>
+      <c r="J928" s="9"/>
+    </row>
+    <row r="929" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A929" s="8"/>
+      <c r="B929" s="8"/>
+      <c r="C929" s="8"/>
+      <c r="D929" s="9"/>
+      <c r="E929" s="9"/>
+      <c r="F929" s="9"/>
+      <c r="G929" s="9"/>
+      <c r="H929" s="8"/>
+      <c r="I929" s="9"/>
+      <c r="J929" s="9"/>
+    </row>
+    <row r="930" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A930" s="8"/>
+      <c r="B930" s="8"/>
+      <c r="C930" s="8"/>
+      <c r="D930" s="9"/>
+      <c r="E930" s="9"/>
+      <c r="F930" s="9"/>
+      <c r="G930" s="9"/>
+      <c r="H930" s="8"/>
+      <c r="I930" s="9"/>
+      <c r="J930" s="9"/>
+    </row>
+    <row r="931" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A931" s="8"/>
+      <c r="B931" s="8"/>
+      <c r="C931" s="8"/>
+      <c r="D931" s="9"/>
+      <c r="E931" s="9"/>
+      <c r="F931" s="9"/>
+      <c r="G931" s="9"/>
+      <c r="H931" s="8"/>
+      <c r="I931" s="9"/>
+      <c r="J931" s="9"/>
+    </row>
+    <row r="932" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A932" s="8"/>
+      <c r="B932" s="8"/>
+      <c r="C932" s="8"/>
+      <c r="D932" s="9"/>
+      <c r="E932" s="9"/>
+      <c r="F932" s="9"/>
+      <c r="G932" s="9"/>
+      <c r="H932" s="8"/>
+      <c r="I932" s="9"/>
+      <c r="J932" s="9"/>
+    </row>
+    <row r="933" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A933" s="8"/>
+      <c r="B933" s="8"/>
+      <c r="C933" s="8"/>
+      <c r="D933" s="9"/>
+      <c r="E933" s="9"/>
+      <c r="F933" s="9"/>
+      <c r="G933" s="9"/>
+      <c r="H933" s="8"/>
+      <c r="I933" s="9"/>
+      <c r="J933" s="9"/>
+    </row>
+    <row r="934" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A934" s="8"/>
+      <c r="B934" s="8"/>
+      <c r="C934" s="8"/>
+      <c r="D934" s="9"/>
+      <c r="E934" s="9"/>
+      <c r="F934" s="9"/>
+      <c r="G934" s="9"/>
+      <c r="H934" s="8"/>
+      <c r="I934" s="9"/>
+      <c r="J934" s="9"/>
+    </row>
+    <row r="935" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A935" s="8"/>
+      <c r="B935" s="8"/>
+      <c r="C935" s="8"/>
+      <c r="D935" s="9"/>
+      <c r="E935" s="9"/>
+      <c r="F935" s="9"/>
+      <c r="G935" s="9"/>
+      <c r="H935" s="8"/>
+      <c r="I935" s="9"/>
+      <c r="J935" s="9"/>
+    </row>
+    <row r="936" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A936" s="8"/>
+      <c r="B936" s="8"/>
+      <c r="C936" s="8"/>
+      <c r="D936" s="9"/>
+      <c r="E936" s="9"/>
+      <c r="F936" s="9"/>
+      <c r="G936" s="9"/>
+      <c r="H936" s="8"/>
+      <c r="I936" s="9"/>
+      <c r="J936" s="9"/>
+    </row>
+    <row r="937" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A937" s="8"/>
+      <c r="B937" s="8"/>
+      <c r="C937" s="8"/>
+      <c r="D937" s="9"/>
+      <c r="E937" s="9"/>
+      <c r="F937" s="9"/>
+      <c r="G937" s="9"/>
+      <c r="H937" s="8"/>
+      <c r="I937" s="9"/>
+      <c r="J937" s="9"/>
+    </row>
+    <row r="938" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A938" s="8"/>
+      <c r="B938" s="8"/>
+      <c r="C938" s="8"/>
+      <c r="D938" s="9"/>
+      <c r="E938" s="9"/>
+      <c r="F938" s="9"/>
+      <c r="G938" s="9"/>
+      <c r="H938" s="8"/>
+      <c r="I938" s="9"/>
+      <c r="J938" s="9"/>
+    </row>
+    <row r="939" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A939" s="8"/>
+      <c r="B939" s="8"/>
+      <c r="C939" s="8"/>
+      <c r="D939" s="9"/>
+      <c r="E939" s="9"/>
+      <c r="F939" s="9"/>
+      <c r="G939" s="9"/>
+      <c r="H939" s="8"/>
+      <c r="I939" s="9"/>
+      <c r="J939" s="9"/>
+    </row>
+    <row r="940" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A940" s="8"/>
+      <c r="B940" s="8"/>
+      <c r="C940" s="8"/>
+      <c r="D940" s="9"/>
+      <c r="E940" s="9"/>
+      <c r="F940" s="9"/>
+      <c r="G940" s="9"/>
+      <c r="H940" s="8"/>
+      <c r="I940" s="9"/>
+    </row>
+    <row r="941" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A941" s="8"/>
+      <c r="B941" s="8"/>
+      <c r="C941" s="8"/>
+      <c r="D941" s="9"/>
+      <c r="E941" s="9"/>
+      <c r="F941" s="9"/>
+      <c r="G941" s="9"/>
+      <c r="H941" s="8"/>
+      <c r="I941" s="9"/>
+    </row>
+    <row r="942" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A942" s="8"/>
+      <c r="B942" s="8"/>
+      <c r="C942" s="8"/>
+      <c r="D942" s="9"/>
+      <c r="E942" s="9"/>
+      <c r="F942" s="9"/>
+      <c r="G942" s="9"/>
+      <c r="H942" s="8"/>
+      <c r="I942" s="9"/>
+    </row>
+    <row r="943" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A943" s="8"/>
+      <c r="B943" s="8"/>
+      <c r="C943" s="8"/>
+      <c r="D943" s="9"/>
+      <c r="E943" s="9"/>
+      <c r="F943" s="9"/>
+      <c r="G943" s="9"/>
+      <c r="H943" s="8"/>
+      <c r="I943" s="9"/>
+    </row>
+    <row r="944" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A944" s="8"/>
+      <c r="B944" s="8"/>
+      <c r="C944" s="8"/>
+      <c r="D944" s="9"/>
+      <c r="E944" s="9"/>
+      <c r="F944" s="9"/>
+      <c r="G944" s="9"/>
+      <c r="H944" s="8"/>
+      <c r="I944" s="9"/>
+    </row>
+    <row r="945" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A945" s="8"/>
+      <c r="B945" s="8"/>
+      <c r="C945" s="8"/>
+      <c r="D945" s="9"/>
+      <c r="E945" s="9"/>
+      <c r="F945" s="9"/>
+      <c r="G945" s="9"/>
+      <c r="H945" s="8"/>
+      <c r="I945" s="9"/>
+    </row>
+    <row r="946" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A946" s="8"/>
+      <c r="B946" s="8"/>
+      <c r="C946" s="8"/>
+      <c r="D946" s="9"/>
+      <c r="E946" s="9"/>
+      <c r="F946" s="9"/>
+      <c r="G946" s="9"/>
+      <c r="H946" s="8"/>
+      <c r="I946" s="9"/>
+    </row>
+    <row r="947" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A947" s="8"/>
+      <c r="B947" s="8"/>
+      <c r="C947" s="8"/>
+      <c r="D947" s="9"/>
+      <c r="E947" s="9"/>
+      <c r="F947" s="9"/>
+      <c r="G947" s="9"/>
+      <c r="H947" s="8"/>
+      <c r="I947" s="9"/>
+    </row>
+    <row r="948" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A948" s="8"/>
+      <c r="B948" s="8"/>
+      <c r="C948" s="8"/>
+      <c r="D948" s="9"/>
+      <c r="E948" s="9"/>
+      <c r="F948" s="9"/>
+      <c r="G948" s="9"/>
+      <c r="H948" s="8"/>
+      <c r="I948" s="9"/>
+    </row>
+    <row r="949" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A949" s="8"/>
+      <c r="B949" s="8"/>
+      <c r="C949" s="8"/>
+      <c r="D949" s="9"/>
+      <c r="E949" s="9"/>
+      <c r="F949" s="9"/>
+      <c r="G949" s="9"/>
+      <c r="H949" s="8"/>
+      <c r="I949" s="9"/>
+    </row>
+    <row r="950" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A950" s="8"/>
+      <c r="B950" s="8"/>
+      <c r="C950" s="8"/>
+      <c r="D950" s="9"/>
+      <c r="E950" s="9"/>
+      <c r="F950" s="9"/>
+      <c r="G950" s="9"/>
+      <c r="H950" s="8"/>
+      <c r="I950" s="9"/>
+    </row>
+    <row r="951" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A951" s="8"/>
+      <c r="B951" s="8"/>
+      <c r="C951" s="8"/>
+      <c r="D951" s="9"/>
+      <c r="E951" s="9"/>
+      <c r="F951" s="9"/>
+      <c r="G951" s="9"/>
+      <c r="H951" s="8"/>
+      <c r="I951" s="9"/>
+    </row>
+    <row r="952" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A952" s="8"/>
+      <c r="B952" s="8"/>
+      <c r="C952" s="8"/>
+      <c r="D952" s="9"/>
+      <c r="E952" s="9"/>
+      <c r="F952" s="9"/>
+      <c r="G952" s="9"/>
+      <c r="H952" s="8"/>
+      <c r="I952" s="9"/>
+    </row>
+    <row r="953" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A953" s="8"/>
+      <c r="B953" s="8"/>
+      <c r="C953" s="8"/>
+      <c r="D953" s="9"/>
+      <c r="E953" s="9"/>
+      <c r="F953" s="9"/>
+      <c r="G953" s="9"/>
+      <c r="H953" s="8"/>
+      <c r="I953" s="9"/>
+    </row>
+    <row r="954" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A954" s="8"/>
+      <c r="B954" s="8"/>
+      <c r="C954" s="8"/>
+      <c r="D954" s="9"/>
+      <c r="E954" s="9"/>
+      <c r="F954" s="9"/>
+      <c r="G954" s="9"/>
+      <c r="H954" s="8"/>
+      <c r="I954" s="9"/>
+    </row>
+    <row r="955" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A955" s="8"/>
+      <c r="B955" s="8"/>
+      <c r="C955" s="8"/>
+      <c r="D955" s="9"/>
+      <c r="E955" s="9"/>
+      <c r="F955" s="9"/>
+      <c r="G955" s="9"/>
+      <c r="H955" s="8"/>
+      <c r="I955" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FFB71E-5E27-4436-937A-58D0CC570E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0646C05F-D8AE-4258-8434-0A646632D4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="363">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -1507,10 +1507,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>対気速度</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>バイナリ</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1520,13 +1516,6 @@
   </si>
   <si>
     <t>Control2</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>タイマー秒数</t>
-    <rPh sb="4" eb="6">
-      <t>ビョウスウ</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1580,6 +1569,25 @@
   </si>
   <si>
     <t>DATA</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_current_actuator_mA</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Opener</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>タイマー秒数</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サーボ電流</t>
+    <rPh sb="3" eb="5">
+      <t>デンリュウ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1740,7 +1748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1796,6 +1804,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2016,8 +2030,8 @@
   </sheetPr>
   <dimension ref="A1:AE971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2293,7 +2307,7 @@
         <v>10</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="15" t="s">
         <v>266</v>
@@ -2305,7 +2319,7 @@
         <v>272</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U7" s="14" t="s">
         <v>275</v>
@@ -2358,7 +2372,7 @@
       </c>
       <c r="M8" s="14">
         <f t="shared" ref="M8:W8" si="3">SUMIF($I:$I,M7,$H:$H)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" si="3"/>
@@ -2402,7 +2416,7 @@
       </c>
       <c r="X8" s="14">
         <f>SUM(M8:W8)</f>
-        <v>1600</v>
+        <v>1610</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>153</v>
@@ -3118,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15">
@@ -3368,7 +3382,7 @@
         <v>335</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
@@ -3427,7 +3441,7 @@
         <v>336</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -3711,7 +3725,7 @@
         <v>26</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>305</v>
@@ -3721,7 +3735,7 @@
         <v>288</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N32" s="9"/>
       <c r="U32" s="9"/>
@@ -3825,10 +3839,10 @@
         <v>1</v>
       </c>
       <c r="M34" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="N34" s="18" t="s">
         <v>348</v>
-      </c>
-      <c r="N34" s="18" t="s">
-        <v>349</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -3877,10 +3891,10 @@
         <v>2</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -4021,7 +4035,7 @@
         <v>26</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>305</v>
@@ -4228,7 +4242,7 @@
         <v>309</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
@@ -4498,7 +4512,7 @@
         <v>26</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>305</v>
@@ -4806,7 +4820,7 @@
         <v>26</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>305</v>
@@ -4904,8 +4918,8 @@
       <c r="M56" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="N56" s="19" t="s">
-        <v>347</v>
+      <c r="N56" s="27" t="s">
+        <v>361</v>
       </c>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
@@ -4947,7 +4961,7 @@
         <v>24</v>
       </c>
       <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
+      <c r="N57" s="28"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
@@ -5179,7 +5193,7 @@
         <v>20</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>306</v>
@@ -5235,7 +5249,7 @@
         <v>20</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>306</v>
@@ -5287,7 +5301,7 @@
         <v>20</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>306</v>
@@ -5339,7 +5353,7 @@
         <v>20</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="14">
@@ -7031,7 +7045,7 @@
         <v>10</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>306</v>
@@ -7640,14 +7654,22 @@
         <f t="shared" si="2"/>
         <v>float</v>
       </c>
-      <c r="E115" s="9"/>
+      <c r="E115" s="9" t="s">
+        <v>359</v>
+      </c>
       <c r="F115" s="9" t="s">
         <v>94</v>
       </c>
       <c r="G115" s="9"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
+      <c r="H115" s="8">
+        <v>10</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>358</v>
+      </c>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
@@ -8276,20 +8298,20 @@
         <v>float</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="8">
         <v>100</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -9329,7 +9351,7 @@
         <v>10</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
@@ -9381,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
@@ -9433,7 +9455,7 @@
         <v>10</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
@@ -11004,7 +11026,7 @@
         <v>100</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J186" s="9" t="s">
         <v>306</v>
@@ -11106,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
@@ -11202,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
@@ -11298,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
@@ -11750,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
@@ -13214,7 +13236,7 @@
         <v>100</v>
       </c>
       <c r="I234" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J234" s="9"/>
       <c r="K234" s="9"/>
@@ -13266,7 +13288,7 @@
         <v>100</v>
       </c>
       <c r="I235" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J235" s="9"/>
       <c r="K235" s="9"/>
@@ -13502,7 +13524,7 @@
         <v>100</v>
       </c>
       <c r="I240" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J240" s="9"/>
       <c r="K240" s="9"/>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0646C05F-D8AE-4258-8434-0A646632D4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8BAE96-322F-44AE-ACF6-20E3A59A4837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="373">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -1203,10 +1203,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ADXL357</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>LPS</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1496,17 +1492,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ノーズ GPS高度</t>
-    <rPh sb="7" eb="9">
-      <t>コウド</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ノーズ GPS高度</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>バイナリ</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1588,6 +1573,78 @@
     <rPh sb="3" eb="5">
       <t>デンリュウ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ピトー管電圧</t>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デンアツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>燃焼圧力</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>高精度最大　合成加速度</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カソクド</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>高精度加速度</t>
+  </si>
+  <si>
+    <t>Light</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_F_precise_accel_x_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_F_precise_accel_y_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_F_precise_accel_z_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CCP_F_precise_accel_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>E(BNO)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>A(MPU)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>D(sense)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>F(ADXL357)</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1748,7 +1805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1785,6 +1842,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1804,12 +1870,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2028,10 +2088,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE971"/>
+  <dimension ref="A1:AE987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2207,15 +2267,15 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <f t="shared" ref="B5:B217" si="0">DEC2BIN(A5/512)*1000000000+DEC2BIN(MOD(A5,512))</f>
+        <f t="shared" ref="B5:B233" si="0">DEC2BIN(A5/512)*1000000000+DEC2BIN(MOD(A5,512))</f>
         <v>0</v>
       </c>
       <c r="C5" s="8" t="str">
-        <f t="shared" ref="C5:C217" si="1">DEC2HEX(A5)</f>
+        <f t="shared" ref="C5:C233" si="1">DEC2HEX(A5)</f>
         <v>0</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f t="shared" ref="D5:D217" si="2">IF(A5=0,"-", IF(A5&lt;1024,"文字列",IF(A5&lt;1280,"uint32_t",IF(A5&lt;1536,"uint16_t",IF(A5&lt;1792,"float","fp16")))))</f>
+        <f t="shared" ref="D5:D233" si="2">IF(A5=0,"-", IF(A5&lt;1024,"文字列",IF(A5&lt;1280,"uint32_t",IF(A5&lt;1536,"uint16_t",IF(A5&lt;1792,"float","fp16")))))</f>
         <v>-</v>
       </c>
       <c r="E5" s="9"/>
@@ -2261,7 +2321,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
@@ -2307,7 +2367,7 @@
         <v>10</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="15" t="s">
         <v>266</v>
@@ -2319,7 +2379,7 @@
         <v>272</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="U7" s="14" t="s">
         <v>275</v>
@@ -2337,7 +2397,7 @@
         <v>151</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
@@ -2368,7 +2428,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" ref="M8:W8" si="3">SUMIF($I:$I,M7,$H:$H)</f>
@@ -2412,11 +2472,11 @@
       </c>
       <c r="W8" s="14">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="X8" s="14">
         <f>SUM(M8:W8)</f>
-        <v>1610</v>
+        <v>2010</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>153</v>
@@ -2673,19 +2733,21 @@
         <v>286</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>277</v>
+        <v>370</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>287</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>273</v>
+        <v>371</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+      <c r="W13" s="9" t="s">
+        <v>372</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -2767,7 +2829,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K15" s="9"/>
       <c r="V15" s="9"/>
@@ -2811,7 +2873,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9" t="s">
@@ -2869,7 +2931,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M17" s="14">
         <v>0</v>
@@ -2937,22 +2999,22 @@
         <v>15</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="18">
         <v>0</v>
       </c>
-      <c r="M18" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
+      <c r="M18" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -2994,20 +3056,20 @@
         <v>15</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K19" s="9"/>
-      <c r="L19" s="21">
+      <c r="L19" s="24">
         <v>1</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N19" s="15" t="s">
         <v>211</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>211</v>
@@ -3058,7 +3120,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="22"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="15">
         <v>1</v>
       </c>
@@ -3082,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
@@ -3118,7 +3180,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="22"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="15">
         <v>0</v>
       </c>
@@ -3132,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15">
@@ -3178,7 +3240,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="22"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="15">
         <v>0</v>
       </c>
@@ -3238,7 +3300,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="23"/>
+      <c r="L23" s="26"/>
       <c r="M23" s="15">
         <v>1</v>
       </c>
@@ -3298,7 +3360,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="24">
+      <c r="L24" s="27">
         <v>2</v>
       </c>
       <c r="M24" s="15" t="s">
@@ -3359,30 +3421,30 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N25" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q25" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="O25" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q25" s="15" t="s">
+      <c r="R25" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="S25" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="R25" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>335</v>
-      </c>
       <c r="T25" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
@@ -3418,30 +3480,30 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="24"/>
+      <c r="L26" s="27"/>
       <c r="M26" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -3480,16 +3542,16 @@
       <c r="L27" s="16">
         <v>3</v>
       </c>
-      <c r="M27" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
+      <c r="M27" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
@@ -3527,14 +3589,14 @@
       <c r="L28" s="16">
         <v>4</v>
       </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
@@ -3581,7 +3643,7 @@
         <v>5</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
@@ -3631,7 +3693,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="16">
@@ -3725,17 +3787,17 @@
         <v>26</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9" t="s">
         <v>288</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N32" s="9"/>
       <c r="U32" s="9"/>
@@ -3785,10 +3847,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="N33" s="18" t="s">
         <v>342</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>343</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -3832,17 +3894,17 @@
         <v>148</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="14">
         <v>1</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -3891,10 +3953,10 @@
         <v>2</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -3938,17 +4000,17 @@
         <v>231</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="14">
         <v>3</v>
       </c>
       <c r="M36" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="N36" s="19" t="s">
         <v>307</v>
-      </c>
-      <c r="N36" s="19" t="s">
-        <v>308</v>
       </c>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
@@ -4035,20 +4097,20 @@
         <v>26</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="14">
         <v>5</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N38" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -4138,17 +4200,17 @@
         <v>205</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="14">
         <v>7</v>
       </c>
       <c r="M40" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="N40" s="19" t="s">
         <v>309</v>
-      </c>
-      <c r="N40" s="19" t="s">
-        <v>310</v>
       </c>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
@@ -4239,10 +4301,10 @@
         <v>9</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
@@ -4321,10 +4383,10 @@
         <v>11</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N44" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
@@ -4415,7 +4477,7 @@
         <v>276</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="14">
@@ -4512,20 +4574,20 @@
         <v>26</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="14">
         <v>15</v>
       </c>
       <c r="M48" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
@@ -4619,7 +4681,7 @@
         <v>279</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="14">
@@ -4719,17 +4781,17 @@
         <v>231</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="14">
         <v>19</v>
       </c>
       <c r="M52" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N52" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
@@ -4820,20 +4882,20 @@
         <v>26</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="14">
         <v>21</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N54" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
@@ -4916,10 +4978,10 @@
         <v>23</v>
       </c>
       <c r="M56" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="N56" s="27" t="s">
-        <v>361</v>
+        <v>308</v>
+      </c>
+      <c r="N56" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
@@ -4961,7 +5023,7 @@
         <v>24</v>
       </c>
       <c r="M57" s="19"/>
-      <c r="N57" s="28"/>
+      <c r="N57" s="21"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
@@ -5003,10 +5065,10 @@
         <v>25</v>
       </c>
       <c r="M58" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
@@ -5187,26 +5249,26 @@
         <v>70</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H62" s="8">
         <v>20</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="14">
         <v>29</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N62" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -5249,10 +5311,10 @@
         <v>20</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="14">
@@ -5301,10 +5363,10 @@
         <v>20</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="14">
@@ -5353,7 +5415,7 @@
         <v>20</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="14">
@@ -5398,7 +5460,7 @@
         <v>154</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H66" s="8">
         <v>10</v>
@@ -5412,10 +5474,10 @@
         <v>33</v>
       </c>
       <c r="M66" s="19" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N66" s="19" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
@@ -5515,8 +5577,12 @@
       <c r="L68" s="14">
         <v>35</v>
       </c>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
+      <c r="M68" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="N68" s="20" t="s">
+        <v>361</v>
+      </c>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
@@ -5566,7 +5632,7 @@
         <v>36</v>
       </c>
       <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
+      <c r="N69" s="21"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
@@ -5604,7 +5670,7 @@
         <v>158</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H70" s="8">
         <v>10</v>
@@ -5613,17 +5679,17 @@
         <v>148</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="14">
         <v>37</v>
       </c>
       <c r="M70" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="N70" s="19" t="s">
         <v>312</v>
-      </c>
-      <c r="N70" s="19" t="s">
-        <v>313</v>
       </c>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
@@ -5669,7 +5735,7 @@
         <v>148</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K71" s="9"/>
       <c r="L71" s="14">
@@ -5721,7 +5787,7 @@
         <v>148</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K72" s="9"/>
       <c r="L72" s="14">
@@ -5819,10 +5885,10 @@
         <v>41</v>
       </c>
       <c r="M74" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N74" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
@@ -5991,10 +6057,10 @@
         <v>45</v>
       </c>
       <c r="M78" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="N78" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
+      </c>
+      <c r="N78" s="22" t="s">
+        <v>362</v>
       </c>
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
@@ -6037,7 +6103,7 @@
         <v>46</v>
       </c>
       <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
+      <c r="N79" s="22"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
@@ -6073,7 +6139,7 @@
         <v>47</v>
       </c>
       <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
+      <c r="N80" s="22"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
@@ -6122,7 +6188,7 @@
         <v>48</v>
       </c>
       <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
+      <c r="N81" s="22"/>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
@@ -6167,17 +6233,17 @@
         <v>198</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K82" s="9"/>
       <c r="L82" s="14">
         <v>49</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
@@ -6335,7 +6401,7 @@
         <v>10</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K86" s="9"/>
       <c r="Q86" s="9"/>
@@ -6514,7 +6580,7 @@
         <v>233</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H90" s="8">
         <v>100</v>
@@ -6854,7 +6920,7 @@
         <v>147</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -7039,16 +7105,16 @@
         <v>84</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H102" s="8">
         <v>10</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -7614,7 +7680,7 @@
         <v>264</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -7655,7 +7721,7 @@
         <v>float</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>94</v>
@@ -7665,10 +7731,10 @@
         <v>10</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -7757,7 +7823,7 @@
         <v>float</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>94</v>
@@ -8298,20 +8364,20 @@
         <v>float</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="8">
         <v>100</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -9345,13 +9411,13 @@
         <v>84</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H150" s="8">
         <v>10</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
@@ -9403,7 +9469,7 @@
         <v>10</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
@@ -9455,7 +9521,7 @@
         <v>10</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
@@ -9812,7 +9878,7 @@
         <v>11001101010</v>
       </c>
       <c r="C160" s="8" t="str">
-        <f t="shared" ref="C160:C165" si="15">DEC2HEX(A160)</f>
+        <f t="shared" ref="C160:C174" si="15">DEC2HEX(A160)</f>
         <v>66A</v>
       </c>
       <c r="D160" s="9" t="str">
@@ -9917,8 +9983,8 @@
       </c>
       <c r="G162" s="9"/>
       <c r="H162" s="8"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
@@ -10081,22 +10147,24 @@
     </row>
     <row r="166" spans="1:31" ht="12">
       <c r="A166" s="8">
-        <v>0</v>
+        <v>1648</v>
       </c>
       <c r="B166" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="B166:B181" si="16">DEC2BIN(A166/512)*1000000000+DEC2BIN(MOD(A166,512))</f>
+        <v>11001110000</v>
       </c>
       <c r="C166" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>670</v>
       </c>
       <c r="D166" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <f t="shared" ref="D166:D181" si="17">IF(A166=0,"-", IF(A166&lt;1024,"文字列",IF(A166&lt;1280,"uint32_t",IF(A166&lt;1536,"uint16_t",IF(A166&lt;1792,"float","fp16")))))</f>
+        <v>float</v>
       </c>
       <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
+      <c r="F166" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="G166" s="9"/>
       <c r="H166" s="8"/>
       <c r="I166" s="9"/>
@@ -10125,22 +10193,24 @@
     </row>
     <row r="167" spans="1:31" ht="12">
       <c r="A167" s="8">
-        <v>1791</v>
+        <v>1649</v>
       </c>
       <c r="B167" s="8">
-        <f t="shared" si="0"/>
-        <v>11011111111</v>
+        <f t="shared" si="16"/>
+        <v>11001110001</v>
       </c>
       <c r="C167" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>6FF</v>
+        <f t="shared" si="15"/>
+        <v>671</v>
       </c>
       <c r="D167" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>float</v>
       </c>
       <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
+      <c r="F167" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="G167" s="9"/>
       <c r="H167" s="8"/>
       <c r="I167" s="9"/>
@@ -10169,22 +10239,24 @@
     </row>
     <row r="168" spans="1:31" ht="12">
       <c r="A168" s="8">
-        <v>1792</v>
+        <v>1650</v>
       </c>
       <c r="B168" s="8">
-        <f t="shared" si="0"/>
-        <v>11100000000</v>
+        <f t="shared" si="16"/>
+        <v>11001110010</v>
       </c>
       <c r="C168" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>700</v>
+        <f t="shared" si="15"/>
+        <v>672</v>
       </c>
       <c r="D168" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="17"/>
+        <v>float</v>
       </c>
       <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
+      <c r="F168" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="G168" s="9"/>
       <c r="H168" s="8"/>
       <c r="I168" s="9"/>
@@ -10213,22 +10285,24 @@
     </row>
     <row r="169" spans="1:31" ht="12">
       <c r="A169" s="8">
-        <v>0</v>
+        <v>1651</v>
       </c>
       <c r="B169" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>11001110011</v>
       </c>
       <c r="C169" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>673</v>
       </c>
       <c r="D169" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <f t="shared" si="17"/>
+        <v>float</v>
       </c>
       <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
+      <c r="F169" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="G169" s="9"/>
       <c r="H169" s="8"/>
       <c r="I169" s="9"/>
@@ -10257,38 +10331,34 @@
     </row>
     <row r="170" spans="1:31" ht="12">
       <c r="A170" s="8">
-        <v>1824</v>
+        <v>1652</v>
       </c>
       <c r="B170" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100000</v>
+        <f t="shared" si="16"/>
+        <v>11001110100</v>
       </c>
       <c r="C170" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>720</v>
+        <f t="shared" si="15"/>
+        <v>674</v>
       </c>
       <c r="D170" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F170" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G170" s="9" t="s">
-        <v>102</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v>float</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="G170" s="9"/>
       <c r="H170" s="8">
         <v>100</v>
       </c>
       <c r="I170" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J170" s="9" t="s">
-        <v>306</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="9"/>
       <c r="M170" s="9"/>
@@ -10313,25 +10383,33 @@
     </row>
     <row r="171" spans="1:31" ht="12">
       <c r="A171" s="8">
-        <v>1825</v>
+        <v>1653</v>
       </c>
       <c r="B171" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100001</v>
+        <f t="shared" si="16"/>
+        <v>11001110101</v>
       </c>
       <c r="C171" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>721</v>
+        <f t="shared" si="15"/>
+        <v>675</v>
       </c>
       <c r="D171" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
+        <f t="shared" si="17"/>
+        <v>float</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>363</v>
+      </c>
       <c r="G171" s="9"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="9"/>
+      <c r="H171" s="8">
+        <v>100</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
       <c r="L171" s="9"/>
@@ -10357,32 +10435,32 @@
     </row>
     <row r="172" spans="1:31" ht="12">
       <c r="A172" s="8">
-        <v>1826</v>
+        <v>1654</v>
       </c>
       <c r="B172" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100010</v>
+        <f t="shared" si="16"/>
+        <v>11001110110</v>
       </c>
       <c r="C172" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>722</v>
+        <f t="shared" si="15"/>
+        <v>676</v>
       </c>
       <c r="D172" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F172" s="9" t="s">
-        <v>104</v>
+        <f t="shared" si="17"/>
+        <v>float</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>363</v>
       </c>
       <c r="G172" s="9"/>
       <c r="H172" s="8">
         <v>100</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>10</v>
+        <v>364</v>
       </c>
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
@@ -10409,25 +10487,33 @@
     </row>
     <row r="173" spans="1:31" ht="12">
       <c r="A173" s="8">
-        <v>1827</v>
+        <v>1655</v>
       </c>
       <c r="B173" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100011</v>
+        <f t="shared" si="16"/>
+        <v>11001110111</v>
       </c>
       <c r="C173" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>723</v>
+        <f t="shared" si="15"/>
+        <v>677</v>
       </c>
       <c r="D173" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
+        <f t="shared" si="17"/>
+        <v>float</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>363</v>
+      </c>
       <c r="G173" s="9"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="9"/>
+      <c r="H173" s="8">
+        <v>100</v>
+      </c>
+      <c r="I173" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="9"/>
@@ -10453,33 +10539,27 @@
     </row>
     <row r="174" spans="1:31" ht="12">
       <c r="A174" s="8">
-        <v>1828</v>
+        <v>1656</v>
       </c>
       <c r="B174" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100100</v>
+        <f t="shared" si="16"/>
+        <v>11001111000</v>
       </c>
       <c r="C174" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>724</v>
+        <f t="shared" si="15"/>
+        <v>678</v>
       </c>
       <c r="D174" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>182</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v>float</v>
+      </c>
+      <c r="E174" s="9"/>
       <c r="F174" s="9" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="G174" s="9"/>
-      <c r="H174" s="8">
-        <v>100</v>
-      </c>
-      <c r="I174" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="H174" s="8"/>
+      <c r="I174" s="9"/>
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
@@ -10505,22 +10585,24 @@
     </row>
     <row r="175" spans="1:31" ht="12">
       <c r="A175" s="8">
-        <v>1829</v>
+        <v>1657</v>
       </c>
       <c r="B175" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100101</v>
+        <f t="shared" si="16"/>
+        <v>11001111001</v>
       </c>
       <c r="C175" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>725</v>
+        <f>DEC2HEX(A175)</f>
+        <v>679</v>
       </c>
       <c r="D175" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="17"/>
+        <v>float</v>
       </c>
       <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
+      <c r="F175" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="G175" s="9"/>
       <c r="H175" s="8"/>
       <c r="I175" s="9"/>
@@ -10549,33 +10631,27 @@
     </row>
     <row r="176" spans="1:31" ht="12">
       <c r="A176" s="8">
-        <v>1830</v>
+        <v>1658</v>
       </c>
       <c r="B176" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100110</v>
+        <f t="shared" si="16"/>
+        <v>11001111010</v>
       </c>
       <c r="C176" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>726</v>
+        <f t="shared" ref="C176:C181" si="18">DEC2HEX(A176)</f>
+        <v>67A</v>
       </c>
       <c r="D176" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
-      </c>
-      <c r="E176" s="9" t="s">
-        <v>184</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v>float</v>
+      </c>
+      <c r="E176" s="9"/>
       <c r="F176" s="9" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="G176" s="9"/>
-      <c r="H176" s="8">
-        <v>100</v>
-      </c>
-      <c r="I176" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="H176" s="8"/>
+      <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
@@ -10601,22 +10677,24 @@
     </row>
     <row r="177" spans="1:31" ht="12">
       <c r="A177" s="8">
-        <v>1831</v>
+        <v>1659</v>
       </c>
       <c r="B177" s="8">
-        <f t="shared" si="0"/>
-        <v>11100100111</v>
+        <f t="shared" si="16"/>
+        <v>11001111011</v>
       </c>
       <c r="C177" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>727</v>
+        <f t="shared" si="18"/>
+        <v>67B</v>
       </c>
       <c r="D177" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="17"/>
+        <v>float</v>
       </c>
       <c r="E177" s="9"/>
-      <c r="F177" s="9"/>
+      <c r="F177" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="G177" s="9"/>
       <c r="H177" s="8"/>
       <c r="I177" s="9"/>
@@ -10645,27 +10723,27 @@
     </row>
     <row r="178" spans="1:31" ht="12">
       <c r="A178" s="8">
-        <v>1832</v>
+        <v>1660</v>
       </c>
       <c r="B178" s="8">
-        <f t="shared" si="0"/>
-        <v>11100101000</v>
+        <f t="shared" si="16"/>
+        <v>11001111100</v>
       </c>
       <c r="C178" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>728</v>
+        <f t="shared" si="18"/>
+        <v>67C</v>
       </c>
       <c r="D178" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="17"/>
+        <v>float</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="9" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G178" s="9"/>
       <c r="H178" s="8"/>
-      <c r="I178" s="9"/>
+      <c r="I178" s="12"/>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
@@ -10691,22 +10769,24 @@
     </row>
     <row r="179" spans="1:31" ht="12">
       <c r="A179" s="8">
-        <v>1833</v>
+        <v>1661</v>
       </c>
       <c r="B179" s="8">
-        <f t="shared" si="0"/>
-        <v>11100101001</v>
+        <f t="shared" si="16"/>
+        <v>11001111101</v>
       </c>
       <c r="C179" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>729</v>
+        <f t="shared" si="18"/>
+        <v>67D</v>
       </c>
       <c r="D179" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="17"/>
+        <v>float</v>
       </c>
       <c r="E179" s="9"/>
-      <c r="F179" s="9"/>
+      <c r="F179" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G179" s="9"/>
       <c r="H179" s="8"/>
       <c r="I179" s="9"/>
@@ -10735,22 +10815,24 @@
     </row>
     <row r="180" spans="1:31" ht="12">
       <c r="A180" s="8">
-        <v>1834</v>
+        <v>1662</v>
       </c>
       <c r="B180" s="8">
-        <f t="shared" si="0"/>
-        <v>11100101010</v>
+        <f t="shared" si="16"/>
+        <v>11001111110</v>
       </c>
       <c r="C180" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>72A</v>
+        <f t="shared" si="18"/>
+        <v>67E</v>
       </c>
       <c r="D180" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="17"/>
+        <v>float</v>
       </c>
       <c r="E180" s="9"/>
-      <c r="F180" s="9"/>
+      <c r="F180" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G180" s="9"/>
       <c r="H180" s="8"/>
       <c r="I180" s="9"/>
@@ -10779,22 +10861,24 @@
     </row>
     <row r="181" spans="1:31" ht="12">
       <c r="A181" s="8">
-        <v>1835</v>
+        <v>1663</v>
       </c>
       <c r="B181" s="8">
-        <f t="shared" si="0"/>
-        <v>11100101011</v>
+        <f t="shared" si="16"/>
+        <v>11001111111</v>
       </c>
       <c r="C181" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>72B</v>
+        <f t="shared" si="18"/>
+        <v>67F</v>
       </c>
       <c r="D181" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>fp16</v>
+        <f t="shared" si="17"/>
+        <v>float</v>
       </c>
       <c r="E181" s="9"/>
-      <c r="F181" s="9"/>
+      <c r="F181" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G181" s="9"/>
       <c r="H181" s="8"/>
       <c r="I181" s="9"/>
@@ -10823,19 +10907,19 @@
     </row>
     <row r="182" spans="1:31" ht="12">
       <c r="A182" s="8">
-        <v>1836</v>
+        <v>0</v>
       </c>
       <c r="B182" s="8">
         <f t="shared" si="0"/>
-        <v>11100101100</v>
+        <v>0</v>
       </c>
       <c r="C182" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>72C</v>
+        <v>0</v>
       </c>
       <c r="D182" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>fp16</v>
+        <v>-</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
@@ -10867,19 +10951,19 @@
     </row>
     <row r="183" spans="1:31" ht="12">
       <c r="A183" s="8">
-        <v>1837</v>
+        <v>1791</v>
       </c>
       <c r="B183" s="8">
         <f t="shared" si="0"/>
-        <v>11100101101</v>
+        <v>11011111111</v>
       </c>
       <c r="C183" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>72D</v>
+        <v>6FF</v>
       </c>
       <c r="D183" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>fp16</v>
+        <v>float</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
@@ -10911,15 +10995,15 @@
     </row>
     <row r="184" spans="1:31" ht="12">
       <c r="A184" s="8">
-        <v>1838</v>
+        <v>1792</v>
       </c>
       <c r="B184" s="8">
         <f t="shared" si="0"/>
-        <v>11100101110</v>
+        <v>11100000000</v>
       </c>
       <c r="C184" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>72E</v>
+        <v>700</v>
       </c>
       <c r="D184" s="9" t="str">
         <f t="shared" si="2"/>
@@ -10955,19 +11039,19 @@
     </row>
     <row r="185" spans="1:31" ht="12">
       <c r="A185" s="8">
-        <v>1839</v>
+        <v>0</v>
       </c>
       <c r="B185" s="8">
         <f t="shared" si="0"/>
-        <v>11100101111</v>
+        <v>0</v>
       </c>
       <c r="C185" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>72F</v>
+        <v>0</v>
       </c>
       <c r="D185" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>fp16</v>
+        <v>-</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
@@ -10999,37 +11083,37 @@
     </row>
     <row r="186" spans="1:31" ht="12">
       <c r="A186" s="8">
-        <v>1840</v>
+        <v>1824</v>
       </c>
       <c r="B186" s="8">
         <f t="shared" si="0"/>
-        <v>11100110000</v>
+        <v>11100100000</v>
       </c>
       <c r="C186" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="D186" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="H186" s="8">
         <v>100</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>352</v>
+        <v>10</v>
       </c>
       <c r="J186" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
@@ -11055,26 +11139,22 @@
     </row>
     <row r="187" spans="1:31" ht="12">
       <c r="A187" s="8">
-        <v>1841</v>
+        <v>1825</v>
       </c>
       <c r="B187" s="8">
         <f t="shared" si="0"/>
-        <v>11100110001</v>
+        <v>11100100001</v>
       </c>
       <c r="C187" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="D187" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
-      <c r="E187" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F187" s="9" t="s">
-        <v>176</v>
-      </c>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
       <c r="G187" s="9"/>
       <c r="H187" s="8"/>
       <c r="I187" s="9"/>
@@ -11103,32 +11183,32 @@
     </row>
     <row r="188" spans="1:31" ht="12">
       <c r="A188" s="8">
-        <v>1842</v>
+        <v>1826</v>
       </c>
       <c r="B188" s="8">
         <f t="shared" si="0"/>
-        <v>11100110010</v>
+        <v>11100100010</v>
       </c>
       <c r="C188" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="D188" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F188" s="9" t="s">
         <v>104</v>
       </c>
       <c r="G188" s="9"/>
       <c r="H188" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>352</v>
+        <v>10</v>
       </c>
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
@@ -11155,15 +11235,15 @@
     </row>
     <row r="189" spans="1:31" ht="12">
       <c r="A189" s="8">
-        <v>1843</v>
+        <v>1827</v>
       </c>
       <c r="B189" s="8">
         <f t="shared" si="0"/>
-        <v>11100110011</v>
+        <v>11100100011</v>
       </c>
       <c r="C189" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="D189" s="9" t="str">
         <f t="shared" si="2"/>
@@ -11199,32 +11279,32 @@
     </row>
     <row r="190" spans="1:31" ht="12">
       <c r="A190" s="8">
-        <v>1844</v>
+        <v>1828</v>
       </c>
       <c r="B190" s="8">
         <f t="shared" si="0"/>
-        <v>11100110100</v>
+        <v>11100100100</v>
       </c>
       <c r="C190" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="D190" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F190" s="9" t="s">
         <v>106</v>
       </c>
       <c r="G190" s="9"/>
       <c r="H190" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>352</v>
+        <v>10</v>
       </c>
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
@@ -11251,15 +11331,15 @@
     </row>
     <row r="191" spans="1:31" ht="12">
       <c r="A191" s="8">
-        <v>1845</v>
+        <v>1829</v>
       </c>
       <c r="B191" s="8">
         <f t="shared" si="0"/>
-        <v>11100110101</v>
+        <v>11100100101</v>
       </c>
       <c r="C191" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="D191" s="9" t="str">
         <f t="shared" si="2"/>
@@ -11295,32 +11375,32 @@
     </row>
     <row r="192" spans="1:31" ht="12">
       <c r="A192" s="8">
-        <v>1846</v>
+        <v>1830</v>
       </c>
       <c r="B192" s="8">
         <f t="shared" si="0"/>
-        <v>11100110110</v>
+        <v>11100100110</v>
       </c>
       <c r="C192" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="D192" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F192" s="9" t="s">
         <v>108</v>
       </c>
       <c r="G192" s="9"/>
       <c r="H192" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I192" s="9" t="s">
-        <v>352</v>
+        <v>10</v>
       </c>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
@@ -11347,15 +11427,15 @@
     </row>
     <row r="193" spans="1:31" ht="12">
       <c r="A193" s="8">
-        <v>1847</v>
+        <v>1831</v>
       </c>
       <c r="B193" s="8">
         <f t="shared" si="0"/>
-        <v>11100110111</v>
+        <v>11100100111</v>
       </c>
       <c r="C193" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D193" s="9" t="str">
         <f t="shared" si="2"/>
@@ -11391,15 +11471,15 @@
     </row>
     <row r="194" spans="1:31" ht="12">
       <c r="A194" s="8">
-        <v>1848</v>
+        <v>1832</v>
       </c>
       <c r="B194" s="8">
         <f t="shared" si="0"/>
-        <v>11100111000</v>
+        <v>11100101000</v>
       </c>
       <c r="C194" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="D194" s="9" t="str">
         <f t="shared" si="2"/>
@@ -11407,7 +11487,7 @@
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G194" s="9"/>
       <c r="H194" s="8"/>
@@ -11437,15 +11517,15 @@
     </row>
     <row r="195" spans="1:31" ht="12">
       <c r="A195" s="8">
-        <v>1849</v>
+        <v>1833</v>
       </c>
       <c r="B195" s="8">
         <f t="shared" si="0"/>
-        <v>11100111001</v>
+        <v>11100101001</v>
       </c>
       <c r="C195" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="D195" s="9" t="str">
         <f t="shared" si="2"/>
@@ -11481,15 +11561,15 @@
     </row>
     <row r="196" spans="1:31" ht="12">
       <c r="A196" s="8">
-        <v>1850</v>
+        <v>1834</v>
       </c>
       <c r="B196" s="8">
         <f t="shared" si="0"/>
-        <v>11100111010</v>
+        <v>11100101010</v>
       </c>
       <c r="C196" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>73A</v>
+        <v>72A</v>
       </c>
       <c r="D196" s="9" t="str">
         <f t="shared" si="2"/>
@@ -11525,15 +11605,15 @@
     </row>
     <row r="197" spans="1:31" ht="12">
       <c r="A197" s="8">
-        <v>1851</v>
+        <v>1835</v>
       </c>
       <c r="B197" s="8">
         <f t="shared" si="0"/>
-        <v>11100111011</v>
+        <v>11100101011</v>
       </c>
       <c r="C197" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>73B</v>
+        <v>72B</v>
       </c>
       <c r="D197" s="9" t="str">
         <f t="shared" si="2"/>
@@ -11569,15 +11649,15 @@
     </row>
     <row r="198" spans="1:31" ht="12">
       <c r="A198" s="8">
-        <v>1852</v>
+        <v>1836</v>
       </c>
       <c r="B198" s="8">
         <f t="shared" si="0"/>
-        <v>11100111100</v>
+        <v>11100101100</v>
       </c>
       <c r="C198" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>73C</v>
+        <v>72C</v>
       </c>
       <c r="D198" s="9" t="str">
         <f t="shared" si="2"/>
@@ -11613,15 +11693,15 @@
     </row>
     <row r="199" spans="1:31" ht="12">
       <c r="A199" s="8">
-        <v>1853</v>
+        <v>1837</v>
       </c>
       <c r="B199" s="8">
         <f t="shared" si="0"/>
-        <v>11100111101</v>
+        <v>11100101101</v>
       </c>
       <c r="C199" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>73D</v>
+        <v>72D</v>
       </c>
       <c r="D199" s="9" t="str">
         <f t="shared" si="2"/>
@@ -11657,15 +11737,15 @@
     </row>
     <row r="200" spans="1:31" ht="12">
       <c r="A200" s="8">
-        <v>1854</v>
+        <v>1838</v>
       </c>
       <c r="B200" s="8">
         <f t="shared" si="0"/>
-        <v>11100111110</v>
+        <v>11100101110</v>
       </c>
       <c r="C200" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>73E</v>
+        <v>72E</v>
       </c>
       <c r="D200" s="9" t="str">
         <f t="shared" si="2"/>
@@ -11701,15 +11781,15 @@
     </row>
     <row r="201" spans="1:31" ht="12">
       <c r="A201" s="8">
-        <v>1855</v>
+        <v>1839</v>
       </c>
       <c r="B201" s="8">
         <f t="shared" si="0"/>
-        <v>11100111111</v>
+        <v>11100101111</v>
       </c>
       <c r="C201" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>73F</v>
+        <v>72F</v>
       </c>
       <c r="D201" s="9" t="str">
         <f t="shared" si="2"/>
@@ -11745,34 +11825,34 @@
     </row>
     <row r="202" spans="1:31" ht="12">
       <c r="A202" s="8">
-        <v>1856</v>
+        <v>1840</v>
       </c>
       <c r="B202" s="8">
         <f t="shared" si="0"/>
-        <v>11101000000</v>
+        <v>11100110000</v>
       </c>
       <c r="C202" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D202" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="H202" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
@@ -11799,22 +11879,22 @@
     </row>
     <row r="203" spans="1:31" ht="12">
       <c r="A203" s="8">
-        <v>1857</v>
+        <v>1841</v>
       </c>
       <c r="B203" s="8">
         <f t="shared" si="0"/>
-        <v>11101000001</v>
+        <v>11100110001</v>
       </c>
       <c r="C203" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="D203" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="F203" s="9" t="s">
         <v>176</v>
@@ -11847,29 +11927,33 @@
     </row>
     <row r="204" spans="1:31" ht="12">
       <c r="A204" s="8">
-        <v>1858</v>
+        <v>1842</v>
       </c>
       <c r="B204" s="8">
         <f t="shared" si="0"/>
-        <v>11101000010</v>
+        <v>11100110010</v>
       </c>
       <c r="C204" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="D204" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F204" s="9" t="s">
         <v>104</v>
       </c>
       <c r="G204" s="9"/>
-      <c r="H204" s="8"/>
-      <c r="I204" s="9"/>
+      <c r="H204" s="8">
+        <v>0</v>
+      </c>
+      <c r="I204" s="9" t="s">
+        <v>349</v>
+      </c>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
       <c r="L204" s="9"/>
@@ -11895,15 +11979,15 @@
     </row>
     <row r="205" spans="1:31" ht="12">
       <c r="A205" s="8">
-        <v>1859</v>
+        <v>1843</v>
       </c>
       <c r="B205" s="8">
         <f t="shared" si="0"/>
-        <v>11101000011</v>
+        <v>11100110011</v>
       </c>
       <c r="C205" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D205" s="9" t="str">
         <f t="shared" si="2"/>
@@ -11939,29 +12023,33 @@
     </row>
     <row r="206" spans="1:31" ht="12">
       <c r="A206" s="8">
-        <v>1860</v>
+        <v>1844</v>
       </c>
       <c r="B206" s="8">
         <f t="shared" si="0"/>
-        <v>11101000100</v>
+        <v>11100110100</v>
       </c>
       <c r="C206" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D206" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F206" s="9" t="s">
         <v>106</v>
       </c>
       <c r="G206" s="9"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="9"/>
+      <c r="H206" s="8">
+        <v>0</v>
+      </c>
+      <c r="I206" s="9" t="s">
+        <v>349</v>
+      </c>
       <c r="J206" s="9"/>
       <c r="K206" s="9"/>
       <c r="L206" s="9"/>
@@ -11987,15 +12075,15 @@
     </row>
     <row r="207" spans="1:31" ht="12">
       <c r="A207" s="8">
-        <v>1861</v>
+        <v>1845</v>
       </c>
       <c r="B207" s="8">
         <f t="shared" si="0"/>
-        <v>11101000101</v>
+        <v>11100110101</v>
       </c>
       <c r="C207" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="D207" s="9" t="str">
         <f t="shared" si="2"/>
@@ -12031,29 +12119,33 @@
     </row>
     <row r="208" spans="1:31" ht="12">
       <c r="A208" s="8">
-        <v>1862</v>
+        <v>1846</v>
       </c>
       <c r="B208" s="8">
         <f t="shared" si="0"/>
-        <v>11101000110</v>
+        <v>11100110110</v>
       </c>
       <c r="C208" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D208" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F208" s="9" t="s">
         <v>108</v>
       </c>
       <c r="G208" s="9"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="9"/>
+      <c r="H208" s="8">
+        <v>0</v>
+      </c>
+      <c r="I208" s="9" t="s">
+        <v>349</v>
+      </c>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
       <c r="L208" s="9"/>
@@ -12079,15 +12171,15 @@
     </row>
     <row r="209" spans="1:31" ht="12">
       <c r="A209" s="8">
-        <v>1863</v>
+        <v>1847</v>
       </c>
       <c r="B209" s="8">
         <f t="shared" si="0"/>
-        <v>11101000111</v>
+        <v>11100110111</v>
       </c>
       <c r="C209" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="D209" s="9" t="str">
         <f t="shared" si="2"/>
@@ -12123,22 +12215,24 @@
     </row>
     <row r="210" spans="1:31" ht="12">
       <c r="A210" s="8">
-        <v>1864</v>
+        <v>1848</v>
       </c>
       <c r="B210" s="8">
         <f t="shared" si="0"/>
-        <v>11101001000</v>
+        <v>11100111000</v>
       </c>
       <c r="C210" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="D210" s="9" t="str">
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E210" s="9"/>
-      <c r="F210" s="9"/>
+      <c r="F210" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="G210" s="9"/>
       <c r="H210" s="8"/>
       <c r="I210" s="9"/>
@@ -12167,15 +12261,15 @@
     </row>
     <row r="211" spans="1:31" ht="12">
       <c r="A211" s="8">
-        <v>1865</v>
+        <v>1849</v>
       </c>
       <c r="B211" s="8">
         <f t="shared" si="0"/>
-        <v>11101001001</v>
+        <v>11100111001</v>
       </c>
       <c r="C211" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D211" s="9" t="str">
         <f t="shared" si="2"/>
@@ -12211,15 +12305,15 @@
     </row>
     <row r="212" spans="1:31" ht="12">
       <c r="A212" s="8">
-        <v>1866</v>
+        <v>1850</v>
       </c>
       <c r="B212" s="8">
         <f t="shared" si="0"/>
-        <v>11101001010</v>
+        <v>11100111010</v>
       </c>
       <c r="C212" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>74A</v>
+        <v>73A</v>
       </c>
       <c r="D212" s="9" t="str">
         <f t="shared" si="2"/>
@@ -12255,15 +12349,15 @@
     </row>
     <row r="213" spans="1:31" ht="12">
       <c r="A213" s="8">
-        <v>1867</v>
+        <v>1851</v>
       </c>
       <c r="B213" s="8">
         <f t="shared" si="0"/>
-        <v>11101001011</v>
+        <v>11100111011</v>
       </c>
       <c r="C213" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>74B</v>
+        <v>73B</v>
       </c>
       <c r="D213" s="9" t="str">
         <f t="shared" si="2"/>
@@ -12299,15 +12393,15 @@
     </row>
     <row r="214" spans="1:31" ht="12">
       <c r="A214" s="8">
-        <v>1868</v>
+        <v>1852</v>
       </c>
       <c r="B214" s="8">
         <f t="shared" si="0"/>
-        <v>11101001100</v>
+        <v>11100111100</v>
       </c>
       <c r="C214" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>74C</v>
+        <v>73C</v>
       </c>
       <c r="D214" s="9" t="str">
         <f t="shared" si="2"/>
@@ -12343,15 +12437,15 @@
     </row>
     <row r="215" spans="1:31" ht="12">
       <c r="A215" s="8">
-        <v>1869</v>
+        <v>1853</v>
       </c>
       <c r="B215" s="8">
         <f t="shared" si="0"/>
-        <v>11101001101</v>
+        <v>11100111101</v>
       </c>
       <c r="C215" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>74D</v>
+        <v>73D</v>
       </c>
       <c r="D215" s="9" t="str">
         <f t="shared" si="2"/>
@@ -12387,15 +12481,15 @@
     </row>
     <row r="216" spans="1:31" ht="12">
       <c r="A216" s="8">
-        <v>1870</v>
+        <v>1854</v>
       </c>
       <c r="B216" s="8">
         <f t="shared" si="0"/>
-        <v>11101001110</v>
+        <v>11100111110</v>
       </c>
       <c r="C216" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>74E</v>
+        <v>73E</v>
       </c>
       <c r="D216" s="9" t="str">
         <f t="shared" si="2"/>
@@ -12431,15 +12525,15 @@
     </row>
     <row r="217" spans="1:31" ht="12">
       <c r="A217" s="8">
-        <v>1871</v>
+        <v>1855</v>
       </c>
       <c r="B217" s="8">
         <f t="shared" si="0"/>
-        <v>11101001111</v>
+        <v>11100111111</v>
       </c>
       <c r="C217" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>74F</v>
+        <v>73F</v>
       </c>
       <c r="D217" s="9" t="str">
         <f t="shared" si="2"/>
@@ -12475,34 +12569,34 @@
     </row>
     <row r="218" spans="1:31" ht="12">
       <c r="A218" s="8">
-        <v>1872</v>
+        <v>1856</v>
       </c>
       <c r="B218" s="8">
-        <f t="shared" ref="B218:B233" si="16">DEC2BIN(A218/512)*1000000000+DEC2BIN(MOD(A218,512))</f>
-        <v>11101010000</v>
+        <f t="shared" si="0"/>
+        <v>11101000000</v>
       </c>
       <c r="C218" s="8" t="str">
-        <f t="shared" ref="C218:C233" si="17">DEC2HEX(A218)</f>
-        <v>750</v>
+        <f t="shared" si="1"/>
+        <v>740</v>
       </c>
       <c r="D218" s="9" t="str">
-        <f t="shared" ref="D218:D233" si="18">IF(A218=0,"-", IF(A218&lt;1024,"文字列",IF(A218&lt;1280,"uint32_t",IF(A218&lt;1536,"uint16_t",IF(A218&lt;1792,"float","fp16")))))</f>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="F218" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="H218" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I218" s="9" t="s">
-        <v>256</v>
+        <v>349</v>
       </c>
       <c r="J218" s="9"/>
       <c r="K218" s="9"/>
@@ -12529,22 +12623,22 @@
     </row>
     <row r="219" spans="1:31" ht="12">
       <c r="A219" s="8">
-        <v>1873</v>
+        <v>1857</v>
       </c>
       <c r="B219" s="8">
-        <f t="shared" si="16"/>
-        <v>11101010001</v>
+        <f t="shared" si="0"/>
+        <v>11101000001</v>
       </c>
       <c r="C219" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>751</v>
+        <f t="shared" si="1"/>
+        <v>741</v>
       </c>
       <c r="D219" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F219" s="9" t="s">
         <v>176</v>
@@ -12577,22 +12671,22 @@
     </row>
     <row r="220" spans="1:31" ht="12">
       <c r="A220" s="8">
-        <v>1874</v>
+        <v>1858</v>
       </c>
       <c r="B220" s="8">
-        <f t="shared" si="16"/>
-        <v>11101010010</v>
+        <f t="shared" si="0"/>
+        <v>11101000010</v>
       </c>
       <c r="C220" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>752</v>
+        <f t="shared" si="1"/>
+        <v>742</v>
       </c>
       <c r="D220" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="F220" s="9" t="s">
         <v>104</v>
@@ -12625,18 +12719,18 @@
     </row>
     <row r="221" spans="1:31" ht="12">
       <c r="A221" s="8">
-        <v>1875</v>
+        <v>1859</v>
       </c>
       <c r="B221" s="8">
-        <f t="shared" si="16"/>
-        <v>11101010011</v>
+        <f t="shared" si="0"/>
+        <v>11101000011</v>
       </c>
       <c r="C221" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>753</v>
+        <f t="shared" si="1"/>
+        <v>743</v>
       </c>
       <c r="D221" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E221" s="9"/>
@@ -12669,22 +12763,22 @@
     </row>
     <row r="222" spans="1:31" ht="12">
       <c r="A222" s="8">
-        <v>1876</v>
+        <v>1860</v>
       </c>
       <c r="B222" s="8">
-        <f t="shared" si="16"/>
-        <v>11101010100</v>
+        <f t="shared" si="0"/>
+        <v>11101000100</v>
       </c>
       <c r="C222" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>754</v>
+        <f t="shared" si="1"/>
+        <v>744</v>
       </c>
       <c r="D222" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="F222" s="9" t="s">
         <v>106</v>
@@ -12717,18 +12811,18 @@
     </row>
     <row r="223" spans="1:31" ht="12">
       <c r="A223" s="8">
-        <v>1877</v>
+        <v>1861</v>
       </c>
       <c r="B223" s="8">
-        <f t="shared" si="16"/>
-        <v>11101010101</v>
+        <f t="shared" si="0"/>
+        <v>11101000101</v>
       </c>
       <c r="C223" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>755</v>
+        <f t="shared" si="1"/>
+        <v>745</v>
       </c>
       <c r="D223" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E223" s="9"/>
@@ -12761,33 +12855,29 @@
     </row>
     <row r="224" spans="1:31" ht="12">
       <c r="A224" s="8">
-        <v>1878</v>
+        <v>1862</v>
       </c>
       <c r="B224" s="8">
-        <f t="shared" si="16"/>
-        <v>11101010110</v>
+        <f t="shared" si="0"/>
+        <v>11101000110</v>
       </c>
       <c r="C224" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>756</v>
+        <f t="shared" si="1"/>
+        <v>746</v>
       </c>
       <c r="D224" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="F224" s="9" t="s">
         <v>108</v>
       </c>
       <c r="G224" s="9"/>
-      <c r="H224" s="8">
-        <v>100</v>
-      </c>
-      <c r="I224" s="9" t="s">
-        <v>256</v>
-      </c>
+      <c r="H224" s="8"/>
+      <c r="I224" s="9"/>
       <c r="J224" s="9"/>
       <c r="K224" s="9"/>
       <c r="L224" s="9"/>
@@ -12813,18 +12903,18 @@
     </row>
     <row r="225" spans="1:31" ht="12">
       <c r="A225" s="8">
-        <v>1879</v>
+        <v>1863</v>
       </c>
       <c r="B225" s="8">
-        <f t="shared" si="16"/>
-        <v>11101010111</v>
+        <f t="shared" si="0"/>
+        <v>11101000111</v>
       </c>
       <c r="C225" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>757</v>
+        <f t="shared" si="1"/>
+        <v>747</v>
       </c>
       <c r="D225" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E225" s="9"/>
@@ -12857,18 +12947,18 @@
     </row>
     <row r="226" spans="1:31" ht="12">
       <c r="A226" s="8">
-        <v>1880</v>
+        <v>1864</v>
       </c>
       <c r="B226" s="8">
-        <f t="shared" si="16"/>
-        <v>11101011000</v>
+        <f t="shared" si="0"/>
+        <v>11101001000</v>
       </c>
       <c r="C226" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>758</v>
+        <f t="shared" si="1"/>
+        <v>748</v>
       </c>
       <c r="D226" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E226" s="9"/>
@@ -12901,18 +12991,18 @@
     </row>
     <row r="227" spans="1:31" ht="12">
       <c r="A227" s="8">
-        <v>1881</v>
+        <v>1865</v>
       </c>
       <c r="B227" s="8">
-        <f t="shared" si="16"/>
-        <v>11101011001</v>
+        <f t="shared" si="0"/>
+        <v>11101001001</v>
       </c>
       <c r="C227" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>759</v>
+        <f t="shared" si="1"/>
+        <v>749</v>
       </c>
       <c r="D227" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E227" s="9"/>
@@ -12945,18 +13035,18 @@
     </row>
     <row r="228" spans="1:31" ht="12">
       <c r="A228" s="8">
-        <v>1882</v>
+        <v>1866</v>
       </c>
       <c r="B228" s="8">
-        <f t="shared" si="16"/>
-        <v>11101011010</v>
+        <f t="shared" si="0"/>
+        <v>11101001010</v>
       </c>
       <c r="C228" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>75A</v>
+        <f t="shared" si="1"/>
+        <v>74A</v>
       </c>
       <c r="D228" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E228" s="9"/>
@@ -12989,18 +13079,18 @@
     </row>
     <row r="229" spans="1:31" ht="12">
       <c r="A229" s="8">
-        <v>1883</v>
+        <v>1867</v>
       </c>
       <c r="B229" s="8">
-        <f t="shared" si="16"/>
-        <v>11101011011</v>
+        <f t="shared" si="0"/>
+        <v>11101001011</v>
       </c>
       <c r="C229" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>75B</v>
+        <f t="shared" si="1"/>
+        <v>74B</v>
       </c>
       <c r="D229" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E229" s="9"/>
@@ -13033,18 +13123,18 @@
     </row>
     <row r="230" spans="1:31" ht="12">
       <c r="A230" s="8">
-        <v>1884</v>
+        <v>1868</v>
       </c>
       <c r="B230" s="8">
-        <f t="shared" si="16"/>
-        <v>11101011100</v>
+        <f t="shared" si="0"/>
+        <v>11101001100</v>
       </c>
       <c r="C230" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>75C</v>
+        <f t="shared" si="1"/>
+        <v>74C</v>
       </c>
       <c r="D230" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E230" s="9"/>
@@ -13077,18 +13167,18 @@
     </row>
     <row r="231" spans="1:31" ht="12">
       <c r="A231" s="8">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="B231" s="8">
-        <f t="shared" si="16"/>
-        <v>11101011101</v>
+        <f t="shared" si="0"/>
+        <v>11101001101</v>
       </c>
       <c r="C231" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>75D</v>
+        <f t="shared" si="1"/>
+        <v>74D</v>
       </c>
       <c r="D231" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E231" s="9"/>
@@ -13121,18 +13211,18 @@
     </row>
     <row r="232" spans="1:31" ht="12">
       <c r="A232" s="8">
-        <v>1886</v>
+        <v>1870</v>
       </c>
       <c r="B232" s="8">
-        <f t="shared" si="16"/>
-        <v>11101011110</v>
+        <f t="shared" si="0"/>
+        <v>11101001110</v>
       </c>
       <c r="C232" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>75E</v>
+        <f t="shared" si="1"/>
+        <v>74E</v>
       </c>
       <c r="D232" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E232" s="9"/>
@@ -13165,18 +13255,18 @@
     </row>
     <row r="233" spans="1:31" ht="12">
       <c r="A233" s="8">
-        <v>1887</v>
+        <v>1871</v>
       </c>
       <c r="B233" s="8">
-        <f t="shared" si="16"/>
-        <v>11101011111</v>
+        <f t="shared" si="0"/>
+        <v>11101001111</v>
       </c>
       <c r="C233" s="8" t="str">
-        <f t="shared" si="17"/>
-        <v>75F</v>
+        <f t="shared" si="1"/>
+        <v>74F</v>
       </c>
       <c r="D233" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
       <c r="E233" s="9"/>
@@ -13209,34 +13299,34 @@
     </row>
     <row r="234" spans="1:31" ht="12">
       <c r="A234" s="8">
-        <v>1888</v>
+        <v>1872</v>
       </c>
       <c r="B234" s="8">
         <f t="shared" ref="B234:B249" si="19">DEC2BIN(A234/512)*1000000000+DEC2BIN(MOD(A234,512))</f>
-        <v>11101100000</v>
+        <v>11101010000</v>
       </c>
       <c r="C234" s="8" t="str">
         <f t="shared" ref="C234:C249" si="20">DEC2HEX(A234)</f>
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="D234" s="9" t="str">
         <f t="shared" ref="D234:D249" si="21">IF(A234=0,"-", IF(A234&lt;1024,"文字列",IF(A234&lt;1280,"uint32_t",IF(A234&lt;1536,"uint16_t",IF(A234&lt;1792,"float","fp16")))))</f>
         <v>fp16</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F234" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G234" s="9" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H234" s="8">
         <v>100</v>
       </c>
       <c r="I234" s="9" t="s">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="J234" s="9"/>
       <c r="K234" s="9"/>
@@ -13263,33 +13353,29 @@
     </row>
     <row r="235" spans="1:31" ht="12">
       <c r="A235" s="8">
-        <v>1889</v>
+        <v>1873</v>
       </c>
       <c r="B235" s="8">
         <f t="shared" si="19"/>
-        <v>11101100001</v>
+        <v>11101010001</v>
       </c>
       <c r="C235" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="D235" s="9" t="str">
         <f t="shared" si="21"/>
         <v>fp16</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F235" s="9" t="s">
         <v>176</v>
       </c>
       <c r="G235" s="9"/>
-      <c r="H235" s="8">
-        <v>100</v>
-      </c>
-      <c r="I235" s="9" t="s">
-        <v>351</v>
-      </c>
+      <c r="H235" s="8"/>
+      <c r="I235" s="9"/>
       <c r="J235" s="9"/>
       <c r="K235" s="9"/>
       <c r="L235" s="9"/>
@@ -13315,22 +13401,22 @@
     </row>
     <row r="236" spans="1:31" ht="12">
       <c r="A236" s="8">
-        <v>1890</v>
+        <v>1874</v>
       </c>
       <c r="B236" s="8">
         <f t="shared" si="19"/>
-        <v>11101100010</v>
+        <v>11101010010</v>
       </c>
       <c r="C236" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="D236" s="9" t="str">
         <f t="shared" si="21"/>
         <v>fp16</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F236" s="9" t="s">
         <v>104</v>
@@ -13363,15 +13449,15 @@
     </row>
     <row r="237" spans="1:31" ht="12">
       <c r="A237" s="8">
-        <v>1891</v>
+        <v>1875</v>
       </c>
       <c r="B237" s="8">
         <f t="shared" si="19"/>
-        <v>11101100011</v>
+        <v>11101010011</v>
       </c>
       <c r="C237" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="D237" s="9" t="str">
         <f t="shared" si="21"/>
@@ -13407,22 +13493,22 @@
     </row>
     <row r="238" spans="1:31" ht="12">
       <c r="A238" s="8">
-        <v>1892</v>
+        <v>1876</v>
       </c>
       <c r="B238" s="8">
         <f t="shared" si="19"/>
-        <v>11101100100</v>
+        <v>11101010100</v>
       </c>
       <c r="C238" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D238" s="9" t="str">
         <f t="shared" si="21"/>
         <v>fp16</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F238" s="9" t="s">
         <v>106</v>
@@ -13455,15 +13541,15 @@
     </row>
     <row r="239" spans="1:31" ht="12">
       <c r="A239" s="8">
-        <v>1893</v>
+        <v>1877</v>
       </c>
       <c r="B239" s="8">
         <f t="shared" si="19"/>
-        <v>11101100101</v>
+        <v>11101010101</v>
       </c>
       <c r="C239" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="D239" s="9" t="str">
         <f t="shared" si="21"/>
@@ -13499,22 +13585,22 @@
     </row>
     <row r="240" spans="1:31" ht="12">
       <c r="A240" s="8">
-        <v>1894</v>
+        <v>1878</v>
       </c>
       <c r="B240" s="8">
         <f t="shared" si="19"/>
-        <v>11101100110</v>
+        <v>11101010110</v>
       </c>
       <c r="C240" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="D240" s="9" t="str">
         <f t="shared" si="21"/>
         <v>fp16</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="F240" s="9" t="s">
         <v>108</v>
@@ -13524,7 +13610,7 @@
         <v>100</v>
       </c>
       <c r="I240" s="9" t="s">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="J240" s="9"/>
       <c r="K240" s="9"/>
@@ -13551,15 +13637,15 @@
     </row>
     <row r="241" spans="1:31" ht="12">
       <c r="A241" s="8">
-        <v>1895</v>
+        <v>1879</v>
       </c>
       <c r="B241" s="8">
         <f t="shared" si="19"/>
-        <v>11101100111</v>
+        <v>11101010111</v>
       </c>
       <c r="C241" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="D241" s="9" t="str">
         <f t="shared" si="21"/>
@@ -13595,15 +13681,15 @@
     </row>
     <row r="242" spans="1:31" ht="12">
       <c r="A242" s="8">
-        <v>1896</v>
+        <v>1880</v>
       </c>
       <c r="B242" s="8">
         <f t="shared" si="19"/>
-        <v>11101101000</v>
+        <v>11101011000</v>
       </c>
       <c r="C242" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D242" s="9" t="str">
         <f t="shared" si="21"/>
@@ -13639,15 +13725,15 @@
     </row>
     <row r="243" spans="1:31" ht="12">
       <c r="A243" s="8">
-        <v>1897</v>
+        <v>1881</v>
       </c>
       <c r="B243" s="8">
         <f t="shared" si="19"/>
-        <v>11101101001</v>
+        <v>11101011001</v>
       </c>
       <c r="C243" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="D243" s="9" t="str">
         <f t="shared" si="21"/>
@@ -13683,15 +13769,15 @@
     </row>
     <row r="244" spans="1:31" ht="12">
       <c r="A244" s="8">
-        <v>1898</v>
+        <v>1882</v>
       </c>
       <c r="B244" s="8">
         <f t="shared" si="19"/>
-        <v>11101101010</v>
+        <v>11101011010</v>
       </c>
       <c r="C244" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>76A</v>
+        <v>75A</v>
       </c>
       <c r="D244" s="9" t="str">
         <f t="shared" si="21"/>
@@ -13727,15 +13813,15 @@
     </row>
     <row r="245" spans="1:31" ht="12">
       <c r="A245" s="8">
-        <v>1899</v>
+        <v>1883</v>
       </c>
       <c r="B245" s="8">
         <f t="shared" si="19"/>
-        <v>11101101011</v>
+        <v>11101011011</v>
       </c>
       <c r="C245" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>76B</v>
+        <v>75B</v>
       </c>
       <c r="D245" s="9" t="str">
         <f t="shared" si="21"/>
@@ -13771,15 +13857,15 @@
     </row>
     <row r="246" spans="1:31" ht="12">
       <c r="A246" s="8">
-        <v>1900</v>
+        <v>1884</v>
       </c>
       <c r="B246" s="8">
         <f t="shared" si="19"/>
-        <v>11101101100</v>
+        <v>11101011100</v>
       </c>
       <c r="C246" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>76C</v>
+        <v>75C</v>
       </c>
       <c r="D246" s="9" t="str">
         <f t="shared" si="21"/>
@@ -13815,15 +13901,15 @@
     </row>
     <row r="247" spans="1:31" ht="12">
       <c r="A247" s="8">
-        <v>1901</v>
+        <v>1885</v>
       </c>
       <c r="B247" s="8">
         <f t="shared" si="19"/>
-        <v>11101101101</v>
+        <v>11101011101</v>
       </c>
       <c r="C247" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>76D</v>
+        <v>75D</v>
       </c>
       <c r="D247" s="9" t="str">
         <f t="shared" si="21"/>
@@ -13859,15 +13945,15 @@
     </row>
     <row r="248" spans="1:31" ht="12">
       <c r="A248" s="8">
-        <v>1902</v>
+        <v>1886</v>
       </c>
       <c r="B248" s="8">
         <f t="shared" si="19"/>
-        <v>11101101110</v>
+        <v>11101011110</v>
       </c>
       <c r="C248" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>76E</v>
+        <v>75E</v>
       </c>
       <c r="D248" s="9" t="str">
         <f t="shared" si="21"/>
@@ -13903,15 +13989,15 @@
     </row>
     <row r="249" spans="1:31" ht="12">
       <c r="A249" s="8">
-        <v>1903</v>
+        <v>1887</v>
       </c>
       <c r="B249" s="8">
         <f t="shared" si="19"/>
-        <v>11101101111</v>
+        <v>11101011111</v>
       </c>
       <c r="C249" s="8" t="str">
         <f t="shared" si="20"/>
-        <v>76F</v>
+        <v>75F</v>
       </c>
       <c r="D249" s="9" t="str">
         <f t="shared" si="21"/>
@@ -13947,34 +14033,34 @@
     </row>
     <row r="250" spans="1:31" ht="12">
       <c r="A250" s="8">
-        <v>1904</v>
+        <v>1888</v>
       </c>
       <c r="B250" s="8">
         <f t="shared" ref="B250:B265" si="22">DEC2BIN(A250/512)*1000000000+DEC2BIN(MOD(A250,512))</f>
-        <v>11101110000</v>
+        <v>11101100000</v>
       </c>
       <c r="C250" s="8" t="str">
         <f t="shared" ref="C250:C265" si="23">DEC2HEX(A250)</f>
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="D250" s="9" t="str">
         <f t="shared" ref="D250:D265" si="24">IF(A250=0,"-", IF(A250&lt;1024,"文字列",IF(A250&lt;1280,"uint32_t",IF(A250&lt;1536,"uint16_t",IF(A250&lt;1792,"float","fp16")))))</f>
         <v>fp16</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="F250" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G250" s="9" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="H250" s="8">
         <v>100</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>289</v>
+        <v>348</v>
       </c>
       <c r="J250" s="9"/>
       <c r="K250" s="9"/>
@@ -14001,29 +14087,33 @@
     </row>
     <row r="251" spans="1:31" ht="12">
       <c r="A251" s="8">
-        <v>1905</v>
+        <v>1889</v>
       </c>
       <c r="B251" s="8">
         <f t="shared" si="22"/>
-        <v>11101110001</v>
+        <v>11101100001</v>
       </c>
       <c r="C251" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="D251" s="9" t="str">
         <f t="shared" si="24"/>
         <v>fp16</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>176</v>
       </c>
       <c r="G251" s="9"/>
-      <c r="H251" s="8"/>
-      <c r="I251" s="9"/>
+      <c r="H251" s="8">
+        <v>100</v>
+      </c>
+      <c r="I251" s="9" t="s">
+        <v>348</v>
+      </c>
       <c r="J251" s="9"/>
       <c r="K251" s="9"/>
       <c r="L251" s="9"/>
@@ -14049,22 +14139,22 @@
     </row>
     <row r="252" spans="1:31" ht="12">
       <c r="A252" s="8">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="B252" s="8">
         <f t="shared" si="22"/>
-        <v>11101110010</v>
+        <v>11101100010</v>
       </c>
       <c r="C252" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="D252" s="9" t="str">
         <f t="shared" si="24"/>
         <v>fp16</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="F252" s="9" t="s">
         <v>104</v>
@@ -14097,15 +14187,15 @@
     </row>
     <row r="253" spans="1:31" ht="12">
       <c r="A253" s="8">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="B253" s="8">
         <f t="shared" si="22"/>
-        <v>11101110011</v>
+        <v>11101100011</v>
       </c>
       <c r="C253" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D253" s="9" t="str">
         <f t="shared" si="24"/>
@@ -14141,22 +14231,22 @@
     </row>
     <row r="254" spans="1:31" ht="12">
       <c r="A254" s="8">
-        <v>1908</v>
+        <v>1892</v>
       </c>
       <c r="B254" s="8">
         <f t="shared" si="22"/>
-        <v>11101110100</v>
+        <v>11101100100</v>
       </c>
       <c r="C254" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="D254" s="9" t="str">
         <f t="shared" si="24"/>
         <v>fp16</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="F254" s="9" t="s">
         <v>106</v>
@@ -14189,15 +14279,15 @@
     </row>
     <row r="255" spans="1:31" ht="12">
       <c r="A255" s="8">
-        <v>1909</v>
+        <v>1893</v>
       </c>
       <c r="B255" s="8">
         <f t="shared" si="22"/>
-        <v>11101110101</v>
+        <v>11101100101</v>
       </c>
       <c r="C255" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="D255" s="9" t="str">
         <f t="shared" si="24"/>
@@ -14233,29 +14323,33 @@
     </row>
     <row r="256" spans="1:31" ht="12">
       <c r="A256" s="8">
-        <v>1910</v>
+        <v>1894</v>
       </c>
       <c r="B256" s="8">
         <f t="shared" si="22"/>
-        <v>11101110110</v>
+        <v>11101100110</v>
       </c>
       <c r="C256" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="D256" s="9" t="str">
         <f t="shared" si="24"/>
         <v>fp16</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="F256" s="9" t="s">
         <v>108</v>
       </c>
       <c r="G256" s="9"/>
-      <c r="H256" s="8"/>
-      <c r="I256" s="9"/>
+      <c r="H256" s="8">
+        <v>100</v>
+      </c>
+      <c r="I256" s="9" t="s">
+        <v>348</v>
+      </c>
       <c r="J256" s="9"/>
       <c r="K256" s="9"/>
       <c r="L256" s="9"/>
@@ -14281,15 +14375,15 @@
     </row>
     <row r="257" spans="1:31" ht="12">
       <c r="A257" s="8">
-        <v>1911</v>
+        <v>1895</v>
       </c>
       <c r="B257" s="8">
         <f t="shared" si="22"/>
-        <v>11101110111</v>
+        <v>11101100111</v>
       </c>
       <c r="C257" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="D257" s="9" t="str">
         <f t="shared" si="24"/>
@@ -14325,15 +14419,15 @@
     </row>
     <row r="258" spans="1:31" ht="12">
       <c r="A258" s="8">
-        <v>1912</v>
+        <v>1896</v>
       </c>
       <c r="B258" s="8">
         <f t="shared" si="22"/>
-        <v>11101111000</v>
+        <v>11101101000</v>
       </c>
       <c r="C258" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="D258" s="9" t="str">
         <f t="shared" si="24"/>
@@ -14369,15 +14463,15 @@
     </row>
     <row r="259" spans="1:31" ht="12">
       <c r="A259" s="8">
-        <v>1913</v>
+        <v>1897</v>
       </c>
       <c r="B259" s="8">
         <f t="shared" si="22"/>
-        <v>11101111001</v>
+        <v>11101101001</v>
       </c>
       <c r="C259" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="D259" s="9" t="str">
         <f t="shared" si="24"/>
@@ -14413,15 +14507,15 @@
     </row>
     <row r="260" spans="1:31" ht="12">
       <c r="A260" s="8">
-        <v>1914</v>
+        <v>1898</v>
       </c>
       <c r="B260" s="8">
         <f t="shared" si="22"/>
-        <v>11101111010</v>
+        <v>11101101010</v>
       </c>
       <c r="C260" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>77A</v>
+        <v>76A</v>
       </c>
       <c r="D260" s="9" t="str">
         <f t="shared" si="24"/>
@@ -14457,15 +14551,15 @@
     </row>
     <row r="261" spans="1:31" ht="12">
       <c r="A261" s="8">
-        <v>1915</v>
+        <v>1899</v>
       </c>
       <c r="B261" s="8">
         <f t="shared" si="22"/>
-        <v>11101111011</v>
+        <v>11101101011</v>
       </c>
       <c r="C261" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>77B</v>
+        <v>76B</v>
       </c>
       <c r="D261" s="9" t="str">
         <f t="shared" si="24"/>
@@ -14501,15 +14595,15 @@
     </row>
     <row r="262" spans="1:31" ht="12">
       <c r="A262" s="8">
-        <v>1916</v>
+        <v>1900</v>
       </c>
       <c r="B262" s="8">
         <f t="shared" si="22"/>
-        <v>11101111100</v>
+        <v>11101101100</v>
       </c>
       <c r="C262" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>77C</v>
+        <v>76C</v>
       </c>
       <c r="D262" s="9" t="str">
         <f t="shared" si="24"/>
@@ -14545,15 +14639,15 @@
     </row>
     <row r="263" spans="1:31" ht="12">
       <c r="A263" s="8">
-        <v>1917</v>
+        <v>1901</v>
       </c>
       <c r="B263" s="8">
         <f t="shared" si="22"/>
-        <v>11101111101</v>
+        <v>11101101101</v>
       </c>
       <c r="C263" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>77D</v>
+        <v>76D</v>
       </c>
       <c r="D263" s="9" t="str">
         <f t="shared" si="24"/>
@@ -14589,15 +14683,15 @@
     </row>
     <row r="264" spans="1:31" ht="12">
       <c r="A264" s="8">
-        <v>1918</v>
+        <v>1902</v>
       </c>
       <c r="B264" s="8">
         <f t="shared" si="22"/>
-        <v>11101111110</v>
+        <v>11101101110</v>
       </c>
       <c r="C264" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>77E</v>
+        <v>76E</v>
       </c>
       <c r="D264" s="9" t="str">
         <f t="shared" si="24"/>
@@ -14633,15 +14727,15 @@
     </row>
     <row r="265" spans="1:31" ht="12">
       <c r="A265" s="8">
-        <v>1919</v>
+        <v>1903</v>
       </c>
       <c r="B265" s="8">
         <f t="shared" si="22"/>
-        <v>11101111111</v>
+        <v>11101101111</v>
       </c>
       <c r="C265" s="8" t="str">
         <f t="shared" si="23"/>
-        <v>77F</v>
+        <v>76F</v>
       </c>
       <c r="D265" s="9" t="str">
         <f t="shared" si="24"/>
@@ -14676,15 +14770,34 @@
       <c r="AE265" s="9"/>
     </row>
     <row r="266" spans="1:31" ht="12">
-      <c r="A266" s="9"/>
-      <c r="B266" s="9"/>
-      <c r="C266" s="9"/>
-      <c r="D266" s="9"/>
-      <c r="E266" s="9"/>
-      <c r="F266" s="9"/>
+      <c r="A266" s="8">
+        <v>1904</v>
+      </c>
+      <c r="B266" s="8">
+        <f t="shared" ref="B266:B281" si="25">DEC2BIN(A266/512)*1000000000+DEC2BIN(MOD(A266,512))</f>
+        <v>11101110000</v>
+      </c>
+      <c r="C266" s="8" t="str">
+        <f t="shared" ref="C266:C281" si="26">DEC2HEX(A266)</f>
+        <v>770</v>
+      </c>
+      <c r="D266" s="9" t="str">
+        <f t="shared" ref="D266:D281" si="27">IF(A266=0,"-", IF(A266&lt;1024,"文字列",IF(A266&lt;1280,"uint32_t",IF(A266&lt;1536,"uint16_t",IF(A266&lt;1792,"float","fp16")))))</f>
+        <v>fp16</v>
+      </c>
+      <c r="E266" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F266" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G266" s="9"/>
-      <c r="H266" s="8"/>
-      <c r="I266" s="9"/>
+      <c r="H266" s="8">
+        <v>100</v>
+      </c>
+      <c r="I266" s="9" t="s">
+        <v>289</v>
+      </c>
       <c r="J266" s="9"/>
       <c r="K266" s="9"/>
       <c r="L266" s="9"/>
@@ -14709,12 +14822,27 @@
       <c r="AE266" s="9"/>
     </row>
     <row r="267" spans="1:31" ht="12">
-      <c r="A267" s="9"/>
-      <c r="B267" s="9"/>
-      <c r="C267" s="9"/>
-      <c r="D267" s="9"/>
-      <c r="E267" s="9"/>
-      <c r="F267" s="9"/>
+      <c r="A267" s="8">
+        <v>1905</v>
+      </c>
+      <c r="B267" s="8">
+        <f t="shared" si="25"/>
+        <v>11101110001</v>
+      </c>
+      <c r="C267" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>771</v>
+      </c>
+      <c r="D267" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
+      <c r="E267" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F267" s="9" t="s">
+        <v>176</v>
+      </c>
       <c r="G267" s="9"/>
       <c r="H267" s="8"/>
       <c r="I267" s="9"/>
@@ -14742,12 +14870,27 @@
       <c r="AE267" s="9"/>
     </row>
     <row r="268" spans="1:31" ht="12">
-      <c r="A268" s="9"/>
-      <c r="B268" s="9"/>
-      <c r="C268" s="9"/>
-      <c r="D268" s="9"/>
-      <c r="E268" s="9"/>
-      <c r="F268" s="9"/>
+      <c r="A268" s="8">
+        <v>1906</v>
+      </c>
+      <c r="B268" s="8">
+        <f t="shared" si="25"/>
+        <v>11101110010</v>
+      </c>
+      <c r="C268" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>772</v>
+      </c>
+      <c r="D268" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
+      <c r="E268" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F268" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="G268" s="9"/>
       <c r="H268" s="8"/>
       <c r="I268" s="9"/>
@@ -14775,10 +14918,21 @@
       <c r="AE268" s="9"/>
     </row>
     <row r="269" spans="1:31" ht="12">
-      <c r="A269" s="9"/>
-      <c r="B269" s="9"/>
-      <c r="C269" s="9"/>
-      <c r="D269" s="9"/>
+      <c r="A269" s="8">
+        <v>1907</v>
+      </c>
+      <c r="B269" s="8">
+        <f t="shared" si="25"/>
+        <v>11101110011</v>
+      </c>
+      <c r="C269" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>773</v>
+      </c>
+      <c r="D269" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
       <c r="E269" s="9"/>
       <c r="F269" s="9"/>
       <c r="G269" s="9"/>
@@ -14809,19 +14963,26 @@
     </row>
     <row r="270" spans="1:31" ht="12">
       <c r="A270" s="8">
-        <v>2047</v>
+        <v>1908</v>
       </c>
       <c r="B270" s="8">
-        <f>DEC2BIN(A270/512)*1000000000+DEC2BIN(MOD(A270,512))</f>
-        <v>11111111111</v>
+        <f t="shared" si="25"/>
+        <v>11101110100</v>
       </c>
       <c r="C270" s="8" t="str">
-        <f>DEC2HEX(A270)</f>
-        <v>7FF</v>
-      </c>
-      <c r="D270" s="9"/>
-      <c r="E270" s="9"/>
-      <c r="F270" s="9"/>
+        <f t="shared" si="26"/>
+        <v>774</v>
+      </c>
+      <c r="D270" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
+      <c r="E270" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F270" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="G270" s="9"/>
       <c r="H270" s="8"/>
       <c r="I270" s="9"/>
@@ -14849,10 +15010,21 @@
       <c r="AE270" s="9"/>
     </row>
     <row r="271" spans="1:31" ht="12">
-      <c r="A271" s="9"/>
-      <c r="B271" s="9"/>
-      <c r="C271" s="9"/>
-      <c r="D271" s="9"/>
+      <c r="A271" s="8">
+        <v>1909</v>
+      </c>
+      <c r="B271" s="8">
+        <f t="shared" si="25"/>
+        <v>11101110101</v>
+      </c>
+      <c r="C271" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>775</v>
+      </c>
+      <c r="D271" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
       <c r="E271" s="9"/>
       <c r="F271" s="9"/>
       <c r="G271" s="9"/>
@@ -14882,12 +15054,27 @@
       <c r="AE271" s="9"/>
     </row>
     <row r="272" spans="1:31" ht="12">
-      <c r="A272" s="9"/>
-      <c r="B272" s="9"/>
-      <c r="C272" s="9"/>
-      <c r="D272" s="9"/>
-      <c r="E272" s="9"/>
-      <c r="F272" s="9"/>
+      <c r="A272" s="8">
+        <v>1910</v>
+      </c>
+      <c r="B272" s="8">
+        <f t="shared" si="25"/>
+        <v>11101110110</v>
+      </c>
+      <c r="C272" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>776</v>
+      </c>
+      <c r="D272" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
+      <c r="E272" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F272" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G272" s="9"/>
       <c r="H272" s="8"/>
       <c r="I272" s="9"/>
@@ -14915,10 +15102,21 @@
       <c r="AE272" s="9"/>
     </row>
     <row r="273" spans="1:31" ht="12">
-      <c r="A273" s="9"/>
-      <c r="B273" s="9"/>
-      <c r="C273" s="9"/>
-      <c r="D273" s="9"/>
+      <c r="A273" s="8">
+        <v>1911</v>
+      </c>
+      <c r="B273" s="8">
+        <f t="shared" si="25"/>
+        <v>11101110111</v>
+      </c>
+      <c r="C273" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>777</v>
+      </c>
+      <c r="D273" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
       <c r="G273" s="9"/>
@@ -14948,10 +15146,21 @@
       <c r="AE273" s="9"/>
     </row>
     <row r="274" spans="1:31" ht="12">
-      <c r="A274" s="9"/>
-      <c r="B274" s="9"/>
-      <c r="C274" s="9"/>
-      <c r="D274" s="9"/>
+      <c r="A274" s="8">
+        <v>1912</v>
+      </c>
+      <c r="B274" s="8">
+        <f t="shared" si="25"/>
+        <v>11101111000</v>
+      </c>
+      <c r="C274" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>778</v>
+      </c>
+      <c r="D274" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
       <c r="G274" s="9"/>
@@ -14981,10 +15190,21 @@
       <c r="AE274" s="9"/>
     </row>
     <row r="275" spans="1:31" ht="12">
-      <c r="A275" s="9"/>
-      <c r="B275" s="9"/>
-      <c r="C275" s="9"/>
-      <c r="D275" s="9"/>
+      <c r="A275" s="8">
+        <v>1913</v>
+      </c>
+      <c r="B275" s="8">
+        <f t="shared" si="25"/>
+        <v>11101111001</v>
+      </c>
+      <c r="C275" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>779</v>
+      </c>
+      <c r="D275" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
       <c r="G275" s="9"/>
@@ -15014,10 +15234,21 @@
       <c r="AE275" s="9"/>
     </row>
     <row r="276" spans="1:31" ht="12">
-      <c r="A276" s="9"/>
-      <c r="B276" s="9"/>
-      <c r="C276" s="9"/>
-      <c r="D276" s="9"/>
+      <c r="A276" s="8">
+        <v>1914</v>
+      </c>
+      <c r="B276" s="8">
+        <f t="shared" si="25"/>
+        <v>11101111010</v>
+      </c>
+      <c r="C276" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>77A</v>
+      </c>
+      <c r="D276" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
       <c r="G276" s="9"/>
@@ -15047,10 +15278,21 @@
       <c r="AE276" s="9"/>
     </row>
     <row r="277" spans="1:31" ht="12">
-      <c r="A277" s="9"/>
-      <c r="B277" s="9"/>
-      <c r="C277" s="9"/>
-      <c r="D277" s="9"/>
+      <c r="A277" s="8">
+        <v>1915</v>
+      </c>
+      <c r="B277" s="8">
+        <f t="shared" si="25"/>
+        <v>11101111011</v>
+      </c>
+      <c r="C277" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>77B</v>
+      </c>
+      <c r="D277" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
       <c r="E277" s="9"/>
       <c r="F277" s="9"/>
       <c r="G277" s="9"/>
@@ -15080,10 +15322,21 @@
       <c r="AE277" s="9"/>
     </row>
     <row r="278" spans="1:31" ht="12">
-      <c r="A278" s="9"/>
-      <c r="B278" s="9"/>
-      <c r="C278" s="9"/>
-      <c r="D278" s="9"/>
+      <c r="A278" s="8">
+        <v>1916</v>
+      </c>
+      <c r="B278" s="8">
+        <f t="shared" si="25"/>
+        <v>11101111100</v>
+      </c>
+      <c r="C278" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>77C</v>
+      </c>
+      <c r="D278" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
       <c r="G278" s="9"/>
@@ -15113,10 +15366,21 @@
       <c r="AE278" s="9"/>
     </row>
     <row r="279" spans="1:31" ht="12">
-      <c r="A279" s="9"/>
-      <c r="B279" s="9"/>
-      <c r="C279" s="9"/>
-      <c r="D279" s="9"/>
+      <c r="A279" s="8">
+        <v>1917</v>
+      </c>
+      <c r="B279" s="8">
+        <f t="shared" si="25"/>
+        <v>11101111101</v>
+      </c>
+      <c r="C279" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>77D</v>
+      </c>
+      <c r="D279" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
       <c r="G279" s="9"/>
@@ -15146,10 +15410,21 @@
       <c r="AE279" s="9"/>
     </row>
     <row r="280" spans="1:31" ht="12">
-      <c r="A280" s="9"/>
-      <c r="B280" s="9"/>
-      <c r="C280" s="9"/>
-      <c r="D280" s="9"/>
+      <c r="A280" s="8">
+        <v>1918</v>
+      </c>
+      <c r="B280" s="8">
+        <f t="shared" si="25"/>
+        <v>11101111110</v>
+      </c>
+      <c r="C280" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>77E</v>
+      </c>
+      <c r="D280" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
       <c r="E280" s="9"/>
       <c r="F280" s="9"/>
       <c r="G280" s="9"/>
@@ -15179,10 +15454,21 @@
       <c r="AE280" s="9"/>
     </row>
     <row r="281" spans="1:31" ht="12">
-      <c r="A281" s="9"/>
-      <c r="B281" s="9"/>
-      <c r="C281" s="9"/>
-      <c r="D281" s="9"/>
+      <c r="A281" s="8">
+        <v>1919</v>
+      </c>
+      <c r="B281" s="8">
+        <f t="shared" si="25"/>
+        <v>11101111111</v>
+      </c>
+      <c r="C281" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>77F</v>
+      </c>
+      <c r="D281" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>fp16</v>
+      </c>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
       <c r="G281" s="9"/>
@@ -15344,9 +15630,17 @@
       <c r="AE285" s="9"/>
     </row>
     <row r="286" spans="1:31" ht="12">
-      <c r="A286" s="9"/>
-      <c r="B286" s="9"/>
-      <c r="C286" s="9"/>
+      <c r="A286" s="8">
+        <v>2047</v>
+      </c>
+      <c r="B286" s="8">
+        <f>DEC2BIN(A286/512)*1000000000+DEC2BIN(MOD(A286,512))</f>
+        <v>11111111111</v>
+      </c>
+      <c r="C286" s="8" t="str">
+        <f>DEC2HEX(A286)</f>
+        <v>7FF</v>
+      </c>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
@@ -21317,9 +21611,9 @@
       <c r="AE466" s="9"/>
     </row>
     <row r="467" spans="1:31" ht="12">
-      <c r="A467" s="8"/>
-      <c r="B467" s="8"/>
-      <c r="C467" s="8"/>
+      <c r="A467" s="9"/>
+      <c r="B467" s="9"/>
+      <c r="C467" s="9"/>
       <c r="D467" s="9"/>
       <c r="E467" s="9"/>
       <c r="F467" s="9"/>
@@ -21350,9 +21644,9 @@
       <c r="AE467" s="9"/>
     </row>
     <row r="468" spans="1:31" ht="12">
-      <c r="A468" s="8"/>
-      <c r="B468" s="8"/>
-      <c r="C468" s="8"/>
+      <c r="A468" s="9"/>
+      <c r="B468" s="9"/>
+      <c r="C468" s="9"/>
       <c r="D468" s="9"/>
       <c r="E468" s="9"/>
       <c r="F468" s="9"/>
@@ -21383,9 +21677,9 @@
       <c r="AE468" s="9"/>
     </row>
     <row r="469" spans="1:31" ht="12">
-      <c r="A469" s="8"/>
-      <c r="B469" s="8"/>
-      <c r="C469" s="8"/>
+      <c r="A469" s="9"/>
+      <c r="B469" s="9"/>
+      <c r="C469" s="9"/>
       <c r="D469" s="9"/>
       <c r="E469" s="9"/>
       <c r="F469" s="9"/>
@@ -21416,9 +21710,9 @@
       <c r="AE469" s="9"/>
     </row>
     <row r="470" spans="1:31" ht="12">
-      <c r="A470" s="8"/>
-      <c r="B470" s="8"/>
-      <c r="C470" s="8"/>
+      <c r="A470" s="9"/>
+      <c r="B470" s="9"/>
+      <c r="C470" s="9"/>
       <c r="D470" s="9"/>
       <c r="E470" s="9"/>
       <c r="F470" s="9"/>
@@ -21449,9 +21743,9 @@
       <c r="AE470" s="9"/>
     </row>
     <row r="471" spans="1:31" ht="12">
-      <c r="A471" s="8"/>
-      <c r="B471" s="8"/>
-      <c r="C471" s="8"/>
+      <c r="A471" s="9"/>
+      <c r="B471" s="9"/>
+      <c r="C471" s="9"/>
       <c r="D471" s="9"/>
       <c r="E471" s="9"/>
       <c r="F471" s="9"/>
@@ -21482,9 +21776,9 @@
       <c r="AE471" s="9"/>
     </row>
     <row r="472" spans="1:31" ht="12">
-      <c r="A472" s="8"/>
-      <c r="B472" s="8"/>
-      <c r="C472" s="8"/>
+      <c r="A472" s="9"/>
+      <c r="B472" s="9"/>
+      <c r="C472" s="9"/>
       <c r="D472" s="9"/>
       <c r="E472" s="9"/>
       <c r="F472" s="9"/>
@@ -21515,9 +21809,9 @@
       <c r="AE472" s="9"/>
     </row>
     <row r="473" spans="1:31" ht="12">
-      <c r="A473" s="8"/>
-      <c r="B473" s="8"/>
-      <c r="C473" s="8"/>
+      <c r="A473" s="9"/>
+      <c r="B473" s="9"/>
+      <c r="C473" s="9"/>
       <c r="D473" s="9"/>
       <c r="E473" s="9"/>
       <c r="F473" s="9"/>
@@ -21548,9 +21842,9 @@
       <c r="AE473" s="9"/>
     </row>
     <row r="474" spans="1:31" ht="12">
-      <c r="A474" s="8"/>
-      <c r="B474" s="8"/>
-      <c r="C474" s="8"/>
+      <c r="A474" s="9"/>
+      <c r="B474" s="9"/>
+      <c r="C474" s="9"/>
       <c r="D474" s="9"/>
       <c r="E474" s="9"/>
       <c r="F474" s="9"/>
@@ -21581,9 +21875,9 @@
       <c r="AE474" s="9"/>
     </row>
     <row r="475" spans="1:31" ht="12">
-      <c r="A475" s="8"/>
-      <c r="B475" s="8"/>
-      <c r="C475" s="8"/>
+      <c r="A475" s="9"/>
+      <c r="B475" s="9"/>
+      <c r="C475" s="9"/>
       <c r="D475" s="9"/>
       <c r="E475" s="9"/>
       <c r="F475" s="9"/>
@@ -21614,9 +21908,9 @@
       <c r="AE475" s="9"/>
     </row>
     <row r="476" spans="1:31" ht="12">
-      <c r="A476" s="8"/>
-      <c r="B476" s="8"/>
-      <c r="C476" s="8"/>
+      <c r="A476" s="9"/>
+      <c r="B476" s="9"/>
+      <c r="C476" s="9"/>
       <c r="D476" s="9"/>
       <c r="E476" s="9"/>
       <c r="F476" s="9"/>
@@ -21647,9 +21941,9 @@
       <c r="AE476" s="9"/>
     </row>
     <row r="477" spans="1:31" ht="12">
-      <c r="A477" s="8"/>
-      <c r="B477" s="8"/>
-      <c r="C477" s="8"/>
+      <c r="A477" s="9"/>
+      <c r="B477" s="9"/>
+      <c r="C477" s="9"/>
       <c r="D477" s="9"/>
       <c r="E477" s="9"/>
       <c r="F477" s="9"/>
@@ -21680,9 +21974,9 @@
       <c r="AE477" s="9"/>
     </row>
     <row r="478" spans="1:31" ht="12">
-      <c r="A478" s="8"/>
-      <c r="B478" s="8"/>
-      <c r="C478" s="8"/>
+      <c r="A478" s="9"/>
+      <c r="B478" s="9"/>
+      <c r="C478" s="9"/>
       <c r="D478" s="9"/>
       <c r="E478" s="9"/>
       <c r="F478" s="9"/>
@@ -21713,9 +22007,9 @@
       <c r="AE478" s="9"/>
     </row>
     <row r="479" spans="1:31" ht="12">
-      <c r="A479" s="8"/>
-      <c r="B479" s="8"/>
-      <c r="C479" s="8"/>
+      <c r="A479" s="9"/>
+      <c r="B479" s="9"/>
+      <c r="C479" s="9"/>
       <c r="D479" s="9"/>
       <c r="E479" s="9"/>
       <c r="F479" s="9"/>
@@ -21746,9 +22040,9 @@
       <c r="AE479" s="9"/>
     </row>
     <row r="480" spans="1:31" ht="12">
-      <c r="A480" s="8"/>
-      <c r="B480" s="8"/>
-      <c r="C480" s="8"/>
+      <c r="A480" s="9"/>
+      <c r="B480" s="9"/>
+      <c r="C480" s="9"/>
       <c r="D480" s="9"/>
       <c r="E480" s="9"/>
       <c r="F480" s="9"/>
@@ -21779,9 +22073,9 @@
       <c r="AE480" s="9"/>
     </row>
     <row r="481" spans="1:31" ht="12">
-      <c r="A481" s="8"/>
-      <c r="B481" s="8"/>
-      <c r="C481" s="8"/>
+      <c r="A481" s="9"/>
+      <c r="B481" s="9"/>
+      <c r="C481" s="9"/>
       <c r="D481" s="9"/>
       <c r="E481" s="9"/>
       <c r="F481" s="9"/>
@@ -21812,9 +22106,9 @@
       <c r="AE481" s="9"/>
     </row>
     <row r="482" spans="1:31" ht="12">
-      <c r="A482" s="8"/>
-      <c r="B482" s="8"/>
-      <c r="C482" s="8"/>
+      <c r="A482" s="9"/>
+      <c r="B482" s="9"/>
+      <c r="C482" s="9"/>
       <c r="D482" s="9"/>
       <c r="E482" s="9"/>
       <c r="F482" s="9"/>
@@ -36259,8 +36553,184 @@
       <c r="H971" s="8"/>
       <c r="I971" s="9"/>
     </row>
+    <row r="972" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A972" s="8"/>
+      <c r="B972" s="8"/>
+      <c r="C972" s="8"/>
+      <c r="D972" s="9"/>
+      <c r="E972" s="9"/>
+      <c r="F972" s="9"/>
+      <c r="G972" s="9"/>
+      <c r="H972" s="8"/>
+      <c r="I972" s="9"/>
+    </row>
+    <row r="973" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A973" s="8"/>
+      <c r="B973" s="8"/>
+      <c r="C973" s="8"/>
+      <c r="D973" s="9"/>
+      <c r="E973" s="9"/>
+      <c r="F973" s="9"/>
+      <c r="G973" s="9"/>
+      <c r="H973" s="8"/>
+      <c r="I973" s="9"/>
+    </row>
+    <row r="974" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A974" s="8"/>
+      <c r="B974" s="8"/>
+      <c r="C974" s="8"/>
+      <c r="D974" s="9"/>
+      <c r="E974" s="9"/>
+      <c r="F974" s="9"/>
+      <c r="G974" s="9"/>
+      <c r="H974" s="8"/>
+      <c r="I974" s="9"/>
+    </row>
+    <row r="975" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A975" s="8"/>
+      <c r="B975" s="8"/>
+      <c r="C975" s="8"/>
+      <c r="D975" s="9"/>
+      <c r="E975" s="9"/>
+      <c r="F975" s="9"/>
+      <c r="G975" s="9"/>
+      <c r="H975" s="8"/>
+      <c r="I975" s="9"/>
+    </row>
+    <row r="976" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A976" s="8"/>
+      <c r="B976" s="8"/>
+      <c r="C976" s="8"/>
+      <c r="D976" s="9"/>
+      <c r="E976" s="9"/>
+      <c r="F976" s="9"/>
+      <c r="G976" s="9"/>
+      <c r="H976" s="8"/>
+      <c r="I976" s="9"/>
+    </row>
+    <row r="977" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A977" s="8"/>
+      <c r="B977" s="8"/>
+      <c r="C977" s="8"/>
+      <c r="D977" s="9"/>
+      <c r="E977" s="9"/>
+      <c r="F977" s="9"/>
+      <c r="G977" s="9"/>
+      <c r="H977" s="8"/>
+      <c r="I977" s="9"/>
+    </row>
+    <row r="978" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A978" s="8"/>
+      <c r="B978" s="8"/>
+      <c r="C978" s="8"/>
+      <c r="D978" s="9"/>
+      <c r="E978" s="9"/>
+      <c r="F978" s="9"/>
+      <c r="G978" s="9"/>
+      <c r="H978" s="8"/>
+      <c r="I978" s="9"/>
+    </row>
+    <row r="979" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A979" s="8"/>
+      <c r="B979" s="8"/>
+      <c r="C979" s="8"/>
+      <c r="D979" s="9"/>
+      <c r="E979" s="9"/>
+      <c r="F979" s="9"/>
+      <c r="G979" s="9"/>
+      <c r="H979" s="8"/>
+      <c r="I979" s="9"/>
+    </row>
+    <row r="980" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A980" s="8"/>
+      <c r="B980" s="8"/>
+      <c r="C980" s="8"/>
+      <c r="D980" s="9"/>
+      <c r="E980" s="9"/>
+      <c r="F980" s="9"/>
+      <c r="G980" s="9"/>
+      <c r="H980" s="8"/>
+      <c r="I980" s="9"/>
+    </row>
+    <row r="981" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A981" s="8"/>
+      <c r="B981" s="8"/>
+      <c r="C981" s="8"/>
+      <c r="D981" s="9"/>
+      <c r="E981" s="9"/>
+      <c r="F981" s="9"/>
+      <c r="G981" s="9"/>
+      <c r="H981" s="8"/>
+      <c r="I981" s="9"/>
+    </row>
+    <row r="982" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A982" s="8"/>
+      <c r="B982" s="8"/>
+      <c r="C982" s="8"/>
+      <c r="D982" s="9"/>
+      <c r="E982" s="9"/>
+      <c r="F982" s="9"/>
+      <c r="G982" s="9"/>
+      <c r="H982" s="8"/>
+      <c r="I982" s="9"/>
+    </row>
+    <row r="983" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A983" s="8"/>
+      <c r="B983" s="8"/>
+      <c r="C983" s="8"/>
+      <c r="D983" s="9"/>
+      <c r="E983" s="9"/>
+      <c r="F983" s="9"/>
+      <c r="G983" s="9"/>
+      <c r="H983" s="8"/>
+      <c r="I983" s="9"/>
+    </row>
+    <row r="984" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A984" s="8"/>
+      <c r="B984" s="8"/>
+      <c r="C984" s="8"/>
+      <c r="D984" s="9"/>
+      <c r="E984" s="9"/>
+      <c r="F984" s="9"/>
+      <c r="G984" s="9"/>
+      <c r="H984" s="8"/>
+      <c r="I984" s="9"/>
+    </row>
+    <row r="985" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A985" s="8"/>
+      <c r="B985" s="8"/>
+      <c r="C985" s="8"/>
+      <c r="D985" s="9"/>
+      <c r="E985" s="9"/>
+      <c r="F985" s="9"/>
+      <c r="G985" s="9"/>
+      <c r="H985" s="8"/>
+      <c r="I985" s="9"/>
+    </row>
+    <row r="986" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A986" s="8"/>
+      <c r="B986" s="8"/>
+      <c r="C986" s="8"/>
+      <c r="D986" s="9"/>
+      <c r="E986" s="9"/>
+      <c r="F986" s="9"/>
+      <c r="G986" s="9"/>
+      <c r="H986" s="8"/>
+      <c r="I986" s="9"/>
+    </row>
+    <row r="987" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A987" s="8"/>
+      <c r="B987" s="8"/>
+      <c r="C987" s="8"/>
+      <c r="D987" s="9"/>
+      <c r="E987" s="9"/>
+      <c r="F987" s="9"/>
+      <c r="G987" s="9"/>
+      <c r="H987" s="8"/>
+      <c r="I987" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
     <mergeCell ref="L19:L23"/>
     <mergeCell ref="M27:T28"/>
     <mergeCell ref="M29:T30"/>
@@ -36282,6 +36752,8 @@
     <mergeCell ref="N52:N53"/>
     <mergeCell ref="M42:M43"/>
     <mergeCell ref="N42:N43"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
     <mergeCell ref="M78:M81"/>
     <mergeCell ref="N78:N81"/>
     <mergeCell ref="M56:M57"/>
@@ -36290,12 +36762,12 @@
     <mergeCell ref="N70:N73"/>
     <mergeCell ref="M74:M77"/>
     <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
     <mergeCell ref="M58:M61"/>
     <mergeCell ref="N58:N61"/>
     <mergeCell ref="M62:M65"/>
     <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66408,12 +66880,12 @@
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="2" t="s">
         <v>121</v>
       </c>
@@ -66425,11 +66897,11 @@
       <c r="B2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="12.75">
@@ -66439,11 +66911,11 @@
       <c r="B3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="2" t="s">
@@ -66452,11 +66924,11 @@
       <c r="B4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="2" t="s">
@@ -66465,24 +66937,24 @@
       <c r="B5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="2" t="s">
         <v>131</v>
       </c>
@@ -66511,14 +66983,14 @@
       <c r="A8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="2" t="s">
         <v>136</v>
       </c>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8BAE96-322F-44AE-ACF6-20E3A59A4837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD528D6-8D29-4AF9-9F11-2D5180F762B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="375">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -1647,6 +1647,14 @@
     <t>F(ADXL357)</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(BEGIN,KILL)</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -1839,21 +1847,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1865,6 +1858,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2090,8 +2098,8 @@
   </sheetPr>
   <dimension ref="A1:AE987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2249,9 +2257,22 @@
         <v>196</v>
       </c>
       <c r="K4" s="9"/>
-      <c r="T4" s="9"/>
+      <c r="M4" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>373</v>
+      </c>
       <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
+      <c r="V4" s="9" t="s">
+        <v>373</v>
+      </c>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
@@ -3005,16 +3026,16 @@
       <c r="L18" s="18">
         <v>0</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -3059,7 +3080,7 @@
         <v>303</v>
       </c>
       <c r="K19" s="9"/>
-      <c r="L19" s="24">
+      <c r="L19" s="19">
         <v>1</v>
       </c>
       <c r="M19" s="15" t="s">
@@ -3120,7 +3141,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="25"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="15">
         <v>1</v>
       </c>
@@ -3180,7 +3201,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="25"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="15">
         <v>0</v>
       </c>
@@ -3240,7 +3261,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="25"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="15">
         <v>0</v>
       </c>
@@ -3300,7 +3321,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="26"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="15">
         <v>1</v>
       </c>
@@ -3360,7 +3381,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="27">
+      <c r="L24" s="22">
         <v>2</v>
       </c>
       <c r="M24" s="15" t="s">
@@ -3421,7 +3442,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="27"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="15" t="s">
         <v>328</v>
       </c>
@@ -3480,7 +3501,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="27"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="15" t="s">
         <v>327</v>
       </c>
@@ -3542,16 +3563,16 @@
       <c r="L27" s="16">
         <v>3</v>
       </c>
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
@@ -3589,14 +3610,14 @@
       <c r="L28" s="16">
         <v>4</v>
       </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
@@ -3628,7 +3649,7 @@
         <v>44</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="8" t="s">
@@ -3642,16 +3663,16 @@
       <c r="L29" s="16">
         <v>5</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
@@ -3699,14 +3720,14 @@
       <c r="L30" s="16">
         <v>6</v>
       </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
@@ -4006,10 +4027,10 @@
       <c r="L36" s="14">
         <v>3</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="N36" s="19" t="s">
+      <c r="N36" s="23" t="s">
         <v>307</v>
       </c>
       <c r="V36" s="9"/>
@@ -4057,8 +4078,8 @@
       <c r="L37" s="14">
         <v>4</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
@@ -4106,10 +4127,10 @@
       <c r="L38" s="14">
         <v>5</v>
       </c>
-      <c r="M38" s="19" t="s">
+      <c r="M38" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="N38" s="19" t="s">
+      <c r="N38" s="23" t="s">
         <v>310</v>
       </c>
       <c r="V38" s="9"/>
@@ -4157,8 +4178,8 @@
       <c r="L39" s="14">
         <v>6</v>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
@@ -4206,10 +4227,10 @@
       <c r="L40" s="14">
         <v>7</v>
       </c>
-      <c r="M40" s="19" t="s">
+      <c r="M40" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="N40" s="19" t="s">
+      <c r="N40" s="23" t="s">
         <v>309</v>
       </c>
       <c r="V40" s="9"/>
@@ -4255,8 +4276,8 @@
       <c r="L41" s="14">
         <v>8</v>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
@@ -4300,10 +4321,10 @@
       <c r="L42" s="14">
         <v>9</v>
       </c>
-      <c r="M42" s="19" t="s">
+      <c r="M42" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="N42" s="19" t="s">
+      <c r="N42" s="23" t="s">
         <v>359</v>
       </c>
       <c r="V42" s="9"/>
@@ -4343,8 +4364,8 @@
       <c r="L43" s="14">
         <v>10</v>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
@@ -4382,10 +4403,10 @@
       <c r="L44" s="14">
         <v>11</v>
       </c>
-      <c r="M44" s="19" t="s">
+      <c r="M44" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="N44" s="19" t="s">
+      <c r="N44" s="23" t="s">
         <v>316</v>
       </c>
       <c r="V44" s="9"/>
@@ -4433,8 +4454,8 @@
       <c r="L45" s="14">
         <v>12</v>
       </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
@@ -4483,8 +4504,8 @@
       <c r="L46" s="14">
         <v>13</v>
       </c>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
@@ -4532,8 +4553,8 @@
       <c r="L47" s="14">
         <v>14</v>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
@@ -4583,10 +4604,10 @@
       <c r="L48" s="14">
         <v>15</v>
       </c>
-      <c r="M48" s="19" t="s">
+      <c r="M48" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="N48" s="19" t="s">
+      <c r="N48" s="23" t="s">
         <v>319</v>
       </c>
       <c r="T48" s="9"/>
@@ -4636,8 +4657,8 @@
       <c r="L49" s="14">
         <v>16</v>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
@@ -4687,8 +4708,8 @@
       <c r="L50" s="14">
         <v>17</v>
       </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
@@ -4736,8 +4757,8 @@
       <c r="L51" s="14">
         <v>18</v>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
@@ -4787,10 +4808,10 @@
       <c r="L52" s="14">
         <v>19</v>
       </c>
-      <c r="M52" s="19" t="s">
+      <c r="M52" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="N52" s="19" t="s">
+      <c r="N52" s="23" t="s">
         <v>317</v>
       </c>
       <c r="T52" s="9"/>
@@ -4840,8 +4861,8 @@
       <c r="L53" s="14">
         <v>20</v>
       </c>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
@@ -4891,10 +4912,10 @@
       <c r="L54" s="14">
         <v>21</v>
       </c>
-      <c r="M54" s="19" t="s">
+      <c r="M54" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="N54" s="19" t="s">
+      <c r="N54" s="23" t="s">
         <v>318</v>
       </c>
       <c r="T54" s="9"/>
@@ -4936,8 +4957,8 @@
       <c r="L55" s="14">
         <v>22</v>
       </c>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
@@ -4977,10 +4998,10 @@
       <c r="L56" s="14">
         <v>23</v>
       </c>
-      <c r="M56" s="19" t="s">
+      <c r="M56" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="N56" s="20" t="s">
+      <c r="N56" s="25" t="s">
         <v>358</v>
       </c>
       <c r="T56" s="9"/>
@@ -5022,8 +5043,8 @@
       <c r="L57" s="14">
         <v>24</v>
       </c>
-      <c r="M57" s="19"/>
-      <c r="N57" s="21"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="26"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
@@ -5064,10 +5085,10 @@
       <c r="L58" s="14">
         <v>25</v>
       </c>
-      <c r="M58" s="19" t="s">
+      <c r="M58" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="N58" s="19" t="s">
+      <c r="N58" s="23" t="s">
         <v>314</v>
       </c>
       <c r="S58" s="9"/>
@@ -5118,8 +5139,8 @@
       <c r="L59" s="14">
         <v>26</v>
       </c>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
@@ -5168,8 +5189,8 @@
       <c r="L60" s="14">
         <v>27</v>
       </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
@@ -5210,8 +5231,8 @@
       <c r="L61" s="14">
         <v>28</v>
       </c>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
@@ -5264,10 +5285,10 @@
       <c r="L62" s="14">
         <v>29</v>
       </c>
-      <c r="M62" s="19" t="s">
+      <c r="M62" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="N62" s="19" t="s">
+      <c r="N62" s="23" t="s">
         <v>315</v>
       </c>
       <c r="S62" s="9"/>
@@ -5320,8 +5341,8 @@
       <c r="L63" s="14">
         <v>30</v>
       </c>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
@@ -5372,8 +5393,8 @@
       <c r="L64" s="14">
         <v>31</v>
       </c>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
@@ -5421,8 +5442,8 @@
       <c r="L65" s="14">
         <v>32</v>
       </c>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
@@ -5473,10 +5494,10 @@
       <c r="L66" s="14">
         <v>33</v>
       </c>
-      <c r="M66" s="19" t="s">
+      <c r="M66" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="N66" s="19" t="s">
+      <c r="N66" s="23" t="s">
         <v>360</v>
       </c>
       <c r="S66" s="9"/>
@@ -5527,8 +5548,8 @@
       <c r="L67" s="14">
         <v>34</v>
       </c>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
@@ -5577,10 +5598,10 @@
       <c r="L68" s="14">
         <v>35</v>
       </c>
-      <c r="M68" s="19" t="s">
+      <c r="M68" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="N68" s="20" t="s">
+      <c r="N68" s="25" t="s">
         <v>361</v>
       </c>
       <c r="S68" s="9"/>
@@ -5631,8 +5652,8 @@
       <c r="L69" s="14">
         <v>36</v>
       </c>
-      <c r="M69" s="19"/>
-      <c r="N69" s="21"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="26"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
@@ -5685,10 +5706,10 @@
       <c r="L70" s="14">
         <v>37</v>
       </c>
-      <c r="M70" s="19" t="s">
+      <c r="M70" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="N70" s="19" t="s">
+      <c r="N70" s="23" t="s">
         <v>312</v>
       </c>
       <c r="S70" s="9"/>
@@ -5741,8 +5762,8 @@
       <c r="L71" s="14">
         <v>38</v>
       </c>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
@@ -5793,8 +5814,8 @@
       <c r="L72" s="14">
         <v>39</v>
       </c>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
@@ -5842,8 +5863,8 @@
       <c r="L73" s="14">
         <v>40</v>
       </c>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
@@ -5884,10 +5905,10 @@
       <c r="L74" s="14">
         <v>41</v>
       </c>
-      <c r="M74" s="19" t="s">
+      <c r="M74" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="N74" s="19" t="s">
+      <c r="N74" s="23" t="s">
         <v>313</v>
       </c>
       <c r="S74" s="9"/>
@@ -5930,8 +5951,8 @@
       <c r="L75" s="14">
         <v>42</v>
       </c>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
@@ -5972,8 +5993,8 @@
       <c r="L76" s="14">
         <v>43</v>
       </c>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
@@ -6014,8 +6035,8 @@
       <c r="L77" s="14">
         <v>44</v>
       </c>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
@@ -6056,10 +6077,10 @@
       <c r="L78" s="14">
         <v>45</v>
       </c>
-      <c r="M78" s="19" t="s">
+      <c r="M78" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="N78" s="22" t="s">
+      <c r="N78" s="27" t="s">
         <v>362</v>
       </c>
       <c r="S78" s="9"/>
@@ -6102,8 +6123,8 @@
       <c r="L79" s="14">
         <v>46</v>
       </c>
-      <c r="M79" s="19"/>
-      <c r="N79" s="22"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="27"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
@@ -6138,8 +6159,8 @@
       <c r="L80" s="14">
         <v>47</v>
       </c>
-      <c r="M80" s="19"/>
-      <c r="N80" s="22"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="27"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
@@ -6187,8 +6208,8 @@
       <c r="L81" s="14">
         <v>48</v>
       </c>
-      <c r="M81" s="19"/>
-      <c r="N81" s="22"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="27"/>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
@@ -36731,27 +36752,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="M27:T28"/>
-    <mergeCell ref="M29:T30"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="M18:T18"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
     <mergeCell ref="M68:M69"/>
     <mergeCell ref="N68:N69"/>
     <mergeCell ref="M78:M81"/>
@@ -36768,6 +36768,27 @@
     <mergeCell ref="N62:N65"/>
     <mergeCell ref="M66:M67"/>
     <mergeCell ref="N66:N67"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="M27:T28"/>
+    <mergeCell ref="M29:T30"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD528D6-8D29-4AF9-9F11-2D5180F762B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC79CAA-0F46-474B-A183-08BE2F978E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="384">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -1036,10 +1036,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Nose</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>CCP_E_accel_mss</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1648,11 +1644,51 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>o</t>
+    <t>(BEGIN,KILL)</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>(BEGIN,KILL)</t>
+    <t>A(BME)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>B(BMP)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>C(BMP)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>D(BMP)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>E(LPS)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>GPS4</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>nennsyouatu</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>denngenn</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>GPS</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>gpsおそい-50</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1660,7 +1696,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1730,6 +1766,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="BIZ UDゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1813,7 +1856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1847,6 +1890,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2098,8 +2142,8 @@
   </sheetPr>
   <dimension ref="A1:AE987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2257,23 +2301,24 @@
         <v>196</v>
       </c>
       <c r="K4" s="9"/>
-      <c r="M4" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>373</v>
-      </c>
+      <c r="M4" s="10">
+        <f>M8+O8+P8+T8</f>
+        <v>920</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="W4" s="9"/>
+        <v>380</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>381</v>
+      </c>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
@@ -2342,10 +2387,30 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="T6" s="9"/>
+        <v>335</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>382</v>
+      </c>
       <c r="U6" s="9"/>
+      <c r="V6" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>383</v>
+      </c>
       <c r="X6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
@@ -2379,37 +2444,37 @@
         <v>9</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V7" s="14" t="s">
         <v>147</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="X7" s="14" t="s">
         <v>142</v>
@@ -2418,7 +2483,7 @@
         <v>151</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
@@ -2449,7 +2514,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" ref="M8:W8" si="3">SUMIF($I:$I,M7,$H:$H)</f>
@@ -2468,8 +2533,8 @@
         <v>110</v>
       </c>
       <c r="Q8" s="14">
-        <f t="shared" si="3"/>
-        <v>370</v>
+        <f>SUMIF($I:$I,Q7,$H:$H)</f>
+        <v>540</v>
       </c>
       <c r="R8" s="14">
         <f t="shared" si="3"/>
@@ -2477,11 +2542,11 @@
       </c>
       <c r="S8" s="14">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="T8" s="14">
         <f t="shared" si="3"/>
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="U8" s="14">
         <f t="shared" si="3"/>
@@ -2492,18 +2557,18 @@
         <v>10</v>
       </c>
       <c r="W8" s="14">
-        <f t="shared" si="3"/>
-        <v>500</v>
+        <f>SUMIF($I:$I,W7,$H:$H)-50</f>
+        <v>50</v>
       </c>
       <c r="X8" s="14">
         <f>SUM(M8:W8)</f>
-        <v>2010</v>
+        <v>1620</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>153</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
@@ -2534,30 +2599,30 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M9" s="9"/>
       <c r="O9" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="T9" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="U9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
@@ -2588,32 +2653,32 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S10" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="T10" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="U10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
@@ -2644,21 +2709,20 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="9" t="s">
-        <v>277</v>
-      </c>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
+      <c r="W11" s="9" t="s">
+        <v>276</v>
+      </c>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
@@ -2692,22 +2756,22 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>270</v>
+        <v>374</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>273</v>
+        <v>375</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>376</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>274</v>
+        <v>377</v>
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -2751,23 +2815,23 @@
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="P13" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="R13" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="P13" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="R13" s="10" t="s">
+      <c r="T13" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="V13" s="9"/>
+      <c r="W13" s="19" t="s">
         <v>371</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9" t="s">
-        <v>372</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -2850,7 +2914,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K15" s="9"/>
       <c r="V15" s="9"/>
@@ -2894,11 +2958,11 @@
         <v>15</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -2952,7 +3016,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M17" s="14">
         <v>0</v>
@@ -3020,22 +3084,22 @@
         <v>15</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="18">
         <v>0</v>
       </c>
-      <c r="M18" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
+      <c r="M18" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -3077,20 +3141,20 @@
         <v>15</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K19" s="9"/>
-      <c r="L19" s="19">
+      <c r="L19" s="20">
         <v>1</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N19" s="15" t="s">
         <v>211</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>211</v>
@@ -3141,7 +3205,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="20"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="15">
         <v>1</v>
       </c>
@@ -3165,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
@@ -3201,7 +3265,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="20"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="15">
         <v>0</v>
       </c>
@@ -3215,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15">
@@ -3261,7 +3325,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="20"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="15">
         <v>0</v>
       </c>
@@ -3321,7 +3385,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="21"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="15">
         <v>1</v>
       </c>
@@ -3381,7 +3445,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="22">
+      <c r="L24" s="23">
         <v>2</v>
       </c>
       <c r="M24" s="15" t="s">
@@ -3442,30 +3506,30 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="22"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N25" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q25" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="O25" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q25" s="15" t="s">
+      <c r="R25" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="S25" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="R25" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>334</v>
-      </c>
       <c r="T25" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
@@ -3501,30 +3565,30 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="22"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -3563,16 +3627,16 @@
       <c r="L27" s="16">
         <v>3</v>
       </c>
-      <c r="M27" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
+      <c r="M27" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
@@ -3610,14 +3674,14 @@
       <c r="L28" s="16">
         <v>4</v>
       </c>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
@@ -3649,7 +3713,7 @@
         <v>44</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="8" t="s">
@@ -3663,16 +3727,16 @@
       <c r="L29" s="16">
         <v>5</v>
       </c>
-      <c r="M29" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
+      <c r="M29" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
@@ -3714,20 +3778,20 @@
         <v>10</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="16">
         <v>6</v>
       </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
@@ -3808,17 +3872,17 @@
         <v>26</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N32" s="9"/>
       <c r="U32" s="9"/>
@@ -3868,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="N33" s="18" t="s">
         <v>341</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>342</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -3915,17 +3979,17 @@
         <v>148</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="14">
         <v>1</v>
       </c>
       <c r="M34" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="N34" s="18" t="s">
         <v>344</v>
-      </c>
-      <c r="N34" s="18" t="s">
-        <v>345</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -3974,10 +4038,10 @@
         <v>2</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -4021,17 +4085,17 @@
         <v>231</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="14">
         <v>3</v>
       </c>
-      <c r="M36" s="23" t="s">
+      <c r="M36" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="N36" s="24" t="s">
         <v>306</v>
-      </c>
-      <c r="N36" s="23" t="s">
-        <v>307</v>
       </c>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
@@ -4078,8 +4142,8 @@
       <c r="L37" s="14">
         <v>4</v>
       </c>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
@@ -4118,20 +4182,20 @@
         <v>26</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="14">
         <v>5</v>
       </c>
-      <c r="M38" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="N38" s="23" t="s">
-        <v>310</v>
+      <c r="M38" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -4178,8 +4242,8 @@
       <c r="L39" s="14">
         <v>6</v>
       </c>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
@@ -4221,17 +4285,17 @@
         <v>205</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="14">
         <v>7</v>
       </c>
-      <c r="M40" s="23" t="s">
+      <c r="M40" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="N40" s="24" t="s">
         <v>308</v>
-      </c>
-      <c r="N40" s="23" t="s">
-        <v>309</v>
       </c>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
@@ -4276,8 +4340,8 @@
       <c r="L41" s="14">
         <v>8</v>
       </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
@@ -4321,11 +4385,11 @@
       <c r="L42" s="14">
         <v>9</v>
       </c>
-      <c r="M42" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="N42" s="23" t="s">
-        <v>359</v>
+      <c r="M42" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="N42" s="24" t="s">
+        <v>358</v>
       </c>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
@@ -4364,8 +4428,8 @@
       <c r="L43" s="14">
         <v>10</v>
       </c>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
@@ -4403,11 +4467,11 @@
       <c r="L44" s="14">
         <v>11</v>
       </c>
-      <c r="M44" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="N44" s="23" t="s">
-        <v>316</v>
+      <c r="M44" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="N44" s="24" t="s">
+        <v>315</v>
       </c>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
@@ -4454,8 +4518,8 @@
       <c r="L45" s="14">
         <v>12</v>
       </c>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
@@ -4495,17 +4559,17 @@
         <v>26</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="14">
         <v>13</v>
       </c>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
@@ -4553,8 +4617,8 @@
       <c r="L47" s="14">
         <v>14</v>
       </c>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
@@ -4595,20 +4659,20 @@
         <v>26</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="14">
         <v>15</v>
       </c>
-      <c r="M48" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="N48" s="23" t="s">
-        <v>319</v>
+      <c r="M48" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="N48" s="24" t="s">
+        <v>318</v>
       </c>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
@@ -4657,8 +4721,8 @@
       <c r="L49" s="14">
         <v>16</v>
       </c>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
@@ -4699,17 +4763,17 @@
         <v>26</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="14">
         <v>17</v>
       </c>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
@@ -4757,8 +4821,8 @@
       <c r="L51" s="14">
         <v>18</v>
       </c>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
@@ -4802,17 +4866,17 @@
         <v>231</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="14">
         <v>19</v>
       </c>
-      <c r="M52" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="N52" s="23" t="s">
-        <v>317</v>
+      <c r="M52" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="N52" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
@@ -4861,8 +4925,8 @@
       <c r="L53" s="14">
         <v>20</v>
       </c>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
@@ -4903,20 +4967,20 @@
         <v>26</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="14">
         <v>21</v>
       </c>
-      <c r="M54" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="N54" s="23" t="s">
-        <v>318</v>
+      <c r="M54" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="N54" s="24" t="s">
+        <v>317</v>
       </c>
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
@@ -4957,8 +5021,8 @@
       <c r="L55" s="14">
         <v>22</v>
       </c>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
@@ -4998,11 +5062,11 @@
       <c r="L56" s="14">
         <v>23</v>
       </c>
-      <c r="M56" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="N56" s="25" t="s">
-        <v>358</v>
+      <c r="M56" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="N56" s="26" t="s">
+        <v>357</v>
       </c>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
@@ -5043,8 +5107,8 @@
       <c r="L57" s="14">
         <v>24</v>
       </c>
-      <c r="M57" s="23"/>
-      <c r="N57" s="26"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="27"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
@@ -5085,11 +5149,11 @@
       <c r="L58" s="14">
         <v>25</v>
       </c>
-      <c r="M58" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="N58" s="23" t="s">
-        <v>314</v>
+      <c r="M58" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="N58" s="24" t="s">
+        <v>313</v>
       </c>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
@@ -5139,8 +5203,8 @@
       <c r="L59" s="14">
         <v>26</v>
       </c>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
@@ -5189,8 +5253,8 @@
       <c r="L60" s="14">
         <v>27</v>
       </c>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
@@ -5231,8 +5295,8 @@
       <c r="L61" s="14">
         <v>28</v>
       </c>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
@@ -5270,26 +5334,26 @@
         <v>70</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H62" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="14">
         <v>29</v>
       </c>
-      <c r="M62" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="N62" s="23" t="s">
-        <v>315</v>
+      <c r="M62" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="N62" s="24" t="s">
+        <v>314</v>
       </c>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -5329,20 +5393,20 @@
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="14">
         <v>30</v>
       </c>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
@@ -5381,20 +5445,18 @@
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>305</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="14">
         <v>31</v>
       </c>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
@@ -5433,17 +5495,17 @@
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="14">
         <v>32</v>
       </c>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
@@ -5481,24 +5543,24 @@
         <v>154</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H66" s="8">
         <v>10</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="14">
         <v>33</v>
       </c>
-      <c r="M66" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="N66" s="23" t="s">
-        <v>360</v>
+      <c r="M66" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="N66" s="24" t="s">
+        <v>359</v>
       </c>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
@@ -5548,8 +5610,8 @@
       <c r="L67" s="14">
         <v>34</v>
       </c>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
@@ -5598,11 +5660,11 @@
       <c r="L68" s="14">
         <v>35</v>
       </c>
-      <c r="M68" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="N68" s="25" t="s">
-        <v>361</v>
+      <c r="M68" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="N68" s="26" t="s">
+        <v>360</v>
       </c>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
@@ -5652,8 +5714,8 @@
       <c r="L69" s="14">
         <v>36</v>
       </c>
-      <c r="M69" s="23"/>
-      <c r="N69" s="26"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="27"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
@@ -5691,7 +5753,7 @@
         <v>158</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H70" s="8">
         <v>10</v>
@@ -5700,17 +5762,17 @@
         <v>148</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="14">
         <v>37</v>
       </c>
-      <c r="M70" s="23" t="s">
+      <c r="M70" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="N70" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="N70" s="23" t="s">
-        <v>312</v>
       </c>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
@@ -5756,14 +5818,14 @@
         <v>148</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K71" s="9"/>
       <c r="L71" s="14">
         <v>38</v>
       </c>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
@@ -5807,15 +5869,13 @@
       <c r="I72" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="J72" s="9" t="s">
-        <v>305</v>
-      </c>
+      <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="14">
         <v>39</v>
       </c>
-      <c r="M72" s="23"/>
-      <c r="N72" s="23"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
@@ -5863,8 +5923,8 @@
       <c r="L73" s="14">
         <v>40</v>
       </c>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
@@ -5905,11 +5965,11 @@
       <c r="L74" s="14">
         <v>41</v>
       </c>
-      <c r="M74" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="N74" s="23" t="s">
-        <v>313</v>
+      <c r="M74" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="N74" s="24" t="s">
+        <v>312</v>
       </c>
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
@@ -5951,8 +6011,8 @@
       <c r="L75" s="14">
         <v>42</v>
       </c>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
@@ -5993,8 +6053,8 @@
       <c r="L76" s="14">
         <v>43</v>
       </c>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
@@ -6035,8 +6095,8 @@
       <c r="L77" s="14">
         <v>44</v>
       </c>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
@@ -6077,11 +6137,11 @@
       <c r="L78" s="14">
         <v>45</v>
       </c>
-      <c r="M78" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="N78" s="27" t="s">
-        <v>362</v>
+      <c r="M78" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="N78" s="28" t="s">
+        <v>361</v>
       </c>
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
@@ -6123,8 +6183,8 @@
       <c r="L79" s="14">
         <v>46</v>
       </c>
-      <c r="M79" s="23"/>
-      <c r="N79" s="27"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="28"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
@@ -6159,8 +6219,8 @@
       <c r="L80" s="14">
         <v>47</v>
       </c>
-      <c r="M80" s="23"/>
-      <c r="N80" s="27"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="28"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
@@ -6208,8 +6268,8 @@
       <c r="L81" s="14">
         <v>48</v>
       </c>
-      <c r="M81" s="23"/>
-      <c r="N81" s="27"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="28"/>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
@@ -6254,17 +6314,17 @@
         <v>198</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K82" s="9"/>
       <c r="L82" s="14">
         <v>49</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
@@ -6407,7 +6467,7 @@
         <v>float</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>84</v>
@@ -6422,7 +6482,7 @@
         <v>10</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K86" s="9"/>
       <c r="Q86" s="9"/>
@@ -6601,7 +6661,7 @@
         <v>233</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H90" s="8">
         <v>100</v>
@@ -6941,7 +7001,7 @@
         <v>147</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -7126,16 +7186,16 @@
         <v>84</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H102" s="8">
         <v>10</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -7698,10 +7758,10 @@
         <v>10</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -7742,7 +7802,7 @@
         <v>float</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>94</v>
@@ -7752,10 +7812,10 @@
         <v>10</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -7844,7 +7904,7 @@
         <v>float</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>94</v>
@@ -7901,7 +7961,7 @@
         <v>170</v>
       </c>
       <c r="H118" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>148</v>
@@ -7953,7 +8013,7 @@
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I119" s="9" t="s">
         <v>148</v>
@@ -8005,7 +8065,7 @@
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I120" s="9" t="s">
         <v>148</v>
@@ -8281,15 +8341,13 @@
         <v>float</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F126" s="9" t="s">
         <v>172</v>
       </c>
       <c r="G126" s="9"/>
-      <c r="H126" s="8">
-        <v>0</v>
-      </c>
+      <c r="H126" s="8"/>
       <c r="I126" s="9" t="s">
         <v>148</v>
       </c>
@@ -8333,14 +8391,14 @@
         <v>float</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>173</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I127" s="9" t="s">
         <v>148</v>
@@ -8385,20 +8443,20 @@
         <v>float</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="8">
         <v>100</v>
       </c>
       <c r="I128" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="J128" s="9" t="s">
         <v>354</v>
-      </c>
-      <c r="J128" s="9" t="s">
-        <v>355</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -8677,9 +8735,7 @@
       <c r="G134" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H134" s="8">
-        <v>10</v>
-      </c>
+      <c r="H134" s="8"/>
       <c r="I134" s="9" t="s">
         <v>234</v>
       </c>
@@ -8729,9 +8785,7 @@
         <v>86</v>
       </c>
       <c r="G135" s="9"/>
-      <c r="H135" s="8">
-        <v>10</v>
-      </c>
+      <c r="H135" s="8"/>
       <c r="I135" s="9" t="s">
         <v>234</v>
       </c>
@@ -8781,9 +8835,7 @@
         <v>88</v>
       </c>
       <c r="G136" s="9"/>
-      <c r="H136" s="8">
-        <v>10</v>
-      </c>
+      <c r="H136" s="8"/>
       <c r="I136" s="9" t="s">
         <v>234</v>
       </c>
@@ -9432,13 +9484,13 @@
         <v>84</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H150" s="8">
         <v>10</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
@@ -9490,7 +9542,7 @@
         <v>10</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
@@ -9542,7 +9594,7 @@
         <v>10</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
@@ -10367,17 +10419,15 @@
         <v>float</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F170" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G170" s="9"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="G170" s="9"/>
-      <c r="H170" s="8">
-        <v>100</v>
-      </c>
-      <c r="I170" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
@@ -10419,17 +10469,15 @@
         <v>float</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F171" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G171" s="9"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="G171" s="9"/>
-      <c r="H171" s="8">
-        <v>100</v>
-      </c>
-      <c r="I171" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
@@ -10471,17 +10519,15 @@
         <v>float</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F172" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G172" s="9"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="G172" s="9"/>
-      <c r="H172" s="8">
-        <v>100</v>
-      </c>
-      <c r="I172" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
@@ -10523,17 +10569,15 @@
         <v>float</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F173" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G173" s="9"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="G173" s="9"/>
-      <c r="H173" s="8">
-        <v>100</v>
-      </c>
-      <c r="I173" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
@@ -11134,7 +11178,7 @@
         <v>10</v>
       </c>
       <c r="J186" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
@@ -11867,13 +11911,13 @@
         <v>175</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H202" s="8">
         <v>100</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
@@ -11973,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
@@ -12069,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="I206" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J206" s="9"/>
       <c r="K206" s="9"/>
@@ -12165,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
@@ -12617,7 +12661,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J218" s="9"/>
       <c r="K218" s="9"/>
@@ -13343,11 +13387,9 @@
       <c r="G234" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="H234" s="8">
-        <v>100</v>
-      </c>
+      <c r="H234" s="8"/>
       <c r="I234" s="9" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J234" s="9"/>
       <c r="K234" s="9"/>
@@ -13627,11 +13669,9 @@
         <v>108</v>
       </c>
       <c r="G240" s="9"/>
-      <c r="H240" s="8">
-        <v>100</v>
-      </c>
+      <c r="H240" s="8"/>
       <c r="I240" s="9" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="J240" s="9"/>
       <c r="K240" s="9"/>
@@ -14069,19 +14109,19 @@
         <v>fp16</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F250" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G250" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H250" s="8">
         <v>100</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J250" s="9"/>
       <c r="K250" s="9"/>
@@ -14123,7 +14163,7 @@
         <v>fp16</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>176</v>
@@ -14133,7 +14173,7 @@
         <v>100</v>
       </c>
       <c r="I251" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J251" s="9"/>
       <c r="K251" s="9"/>
@@ -14175,7 +14215,7 @@
         <v>fp16</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F252" s="9" t="s">
         <v>104</v>
@@ -14267,7 +14307,7 @@
         <v>fp16</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F254" s="9" t="s">
         <v>106</v>
@@ -14359,7 +14399,7 @@
         <v>fp16</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F256" s="9" t="s">
         <v>108</v>
@@ -14369,7 +14409,7 @@
         <v>100</v>
       </c>
       <c r="I256" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J256" s="9"/>
       <c r="K256" s="9"/>
@@ -14807,17 +14847,15 @@
         <v>fp16</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F266" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G266" s="9"/>
-      <c r="H266" s="8">
-        <v>100</v>
-      </c>
+      <c r="H266" s="8"/>
       <c r="I266" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J266" s="9"/>
       <c r="K266" s="9"/>
@@ -14859,7 +14897,7 @@
         <v>fp16</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F267" s="9" t="s">
         <v>176</v>
@@ -14907,7 +14945,7 @@
         <v>fp16</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F268" s="9" t="s">
         <v>104</v>
@@ -14999,7 +15037,7 @@
         <v>fp16</v>
       </c>
       <c r="E270" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F270" s="9" t="s">
         <v>106</v>
@@ -15091,7 +15129,7 @@
         <v>fp16</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F272" s="9" t="s">
         <v>108</v>
@@ -66901,12 +66939,12 @@
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="2" t="s">
         <v>121</v>
       </c>
@@ -66918,11 +66956,11 @@
       <c r="B2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="12.75">
@@ -66932,11 +66970,11 @@
       <c r="B3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="2" t="s">
@@ -66945,11 +66983,11 @@
       <c r="B4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="2" t="s">
@@ -66958,24 +66996,24 @@
       <c r="B5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="2" t="s">
         <v>131</v>
       </c>
@@ -67004,14 +67042,14 @@
       <c r="A8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="2" t="s">
         <v>136</v>
       </c>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC79CAA-0F46-474B-A183-08BE2F978E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8761B942-6C82-48A3-9A48-18DB11650DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="389">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -1460,13 +1460,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>予約</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>使用禁止</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
@@ -1586,25 +1579,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>高精度最大　合成加速度</t>
-    <rPh sb="0" eb="1">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>セイド</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゴウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>カソクド</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>高精度加速度</t>
   </si>
   <si>
@@ -1689,6 +1663,46 @@
   </si>
   <si>
     <t>gpsおそい-50</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メイン電装のみ</t>
+    <rPh sb="3" eb="5">
+      <t>デンソウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>単発ダウンリンク</t>
+    <rPh sb="0" eb="2">
+      <t>タンパツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CANに信号がないとき</t>
+    <rPh sb="4" eb="6">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1856,7 +1870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1891,6 +1905,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1908,15 +1940,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2142,8 +2165,8 @@
   </sheetPr>
   <dimension ref="A1:AE987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="L41" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2223,7 +2246,9 @@
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
+      <c r="X2" s="9" t="s">
+        <v>383</v>
+      </c>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
@@ -2260,7 +2285,10 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
+      <c r="X3" s="9">
+        <f>M8+N8+O8+P8+T8+U8+V8+W8</f>
+        <v>980</v>
+      </c>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -2306,18 +2334,18 @@
         <v>920</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
@@ -2390,26 +2418,26 @@
         <v>335</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="X6" s="9"/>
       <c r="AB6" s="9"/>
@@ -2453,7 +2481,7 @@
         <v>10</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="15" t="s">
         <v>265</v>
@@ -2465,7 +2493,7 @@
         <v>271</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U7" s="14" t="s">
         <v>274</v>
@@ -2517,7 +2545,7 @@
         <v>336</v>
       </c>
       <c r="M8" s="14">
-        <f t="shared" ref="M8:W8" si="3">SUMIF($I:$I,M7,$H:$H)</f>
+        <f t="shared" ref="M8:V8" si="3">SUMIF($I:$I,M7,$H:$H)</f>
         <v>50</v>
       </c>
       <c r="N8" s="14">
@@ -2759,19 +2787,19 @@
         <v>282</v>
       </c>
       <c r="O12" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q12" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="S12" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="T12" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="S12" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -2818,20 +2846,20 @@
         <v>285</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>286</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -3090,16 +3118,16 @@
       <c r="L18" s="18">
         <v>0</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="M18" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -3144,7 +3172,7 @@
         <v>302</v>
       </c>
       <c r="K19" s="9"/>
-      <c r="L19" s="20">
+      <c r="L19" s="26">
         <v>1</v>
       </c>
       <c r="M19" s="15" t="s">
@@ -3205,7 +3233,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="21"/>
+      <c r="L20" s="27"/>
       <c r="M20" s="15">
         <v>1</v>
       </c>
@@ -3265,7 +3293,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="21"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="15">
         <v>0</v>
       </c>
@@ -3279,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15">
@@ -3325,7 +3353,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="21"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="15">
         <v>0</v>
       </c>
@@ -3385,7 +3413,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="22"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="15">
         <v>1</v>
       </c>
@@ -3445,7 +3473,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="23">
+      <c r="L24" s="29">
         <v>2</v>
       </c>
       <c r="M24" s="15" t="s">
@@ -3506,7 +3534,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="23"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15" t="s">
         <v>327</v>
       </c>
@@ -3529,7 +3557,7 @@
         <v>333</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
@@ -3565,7 +3593,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="23"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="15" t="s">
         <v>326</v>
       </c>
@@ -3588,7 +3616,7 @@
         <v>334</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
@@ -3627,16 +3655,16 @@
       <c r="L27" s="16">
         <v>3</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="M27" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
@@ -3674,14 +3702,14 @@
       <c r="L28" s="16">
         <v>4</v>
       </c>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
@@ -3713,7 +3741,7 @@
         <v>44</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="8" t="s">
@@ -3727,16 +3755,16 @@
       <c r="L29" s="16">
         <v>5</v>
       </c>
-      <c r="M29" s="24" t="s">
+      <c r="M29" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
@@ -3784,14 +3812,14 @@
       <c r="L30" s="16">
         <v>6</v>
       </c>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
@@ -3872,7 +3900,7 @@
         <v>26</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>303</v>
@@ -3882,9 +3910,12 @@
         <v>287</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N32" s="9"/>
+      <c r="O32" s="10" t="s">
+        <v>386</v>
+      </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
@@ -3932,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="N33" s="18" t="s">
         <v>340</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>341</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -3986,10 +4017,13 @@
         <v>1</v>
       </c>
       <c r="M34" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="N34" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="N34" s="18" t="s">
-        <v>344</v>
+      <c r="O34" s="10">
+        <v>0</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -4038,10 +4072,13 @@
         <v>2</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -4091,11 +4128,14 @@
       <c r="L36" s="14">
         <v>3</v>
       </c>
-      <c r="M36" s="24" t="s">
+      <c r="M36" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="N36" s="24" t="s">
+      <c r="N36" s="30" t="s">
         <v>306</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0</v>
       </c>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
@@ -4142,8 +4182,8 @@
       <c r="L37" s="14">
         <v>4</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
@@ -4182,7 +4222,7 @@
         <v>26</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>303</v>
@@ -4191,11 +4231,14 @@
       <c r="L38" s="14">
         <v>5</v>
       </c>
-      <c r="M38" s="24" t="s">
+      <c r="M38" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N38" s="24" t="s">
+      <c r="N38" s="30" t="s">
         <v>309</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
@@ -4242,8 +4285,8 @@
       <c r="L39" s="14">
         <v>6</v>
       </c>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
@@ -4291,11 +4334,14 @@
       <c r="L40" s="14">
         <v>7</v>
       </c>
-      <c r="M40" s="24" t="s">
+      <c r="M40" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N40" s="24" t="s">
+      <c r="N40" s="30" t="s">
         <v>308</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0</v>
       </c>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
@@ -4340,8 +4386,8 @@
       <c r="L41" s="14">
         <v>8</v>
       </c>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
@@ -4385,11 +4431,14 @@
       <c r="L42" s="14">
         <v>9</v>
       </c>
-      <c r="M42" s="24" t="s">
+      <c r="M42" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N42" s="24" t="s">
-        <v>358</v>
+      <c r="N42" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0</v>
       </c>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
@@ -4428,8 +4477,8 @@
       <c r="L43" s="14">
         <v>10</v>
       </c>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
@@ -4467,11 +4516,14 @@
       <c r="L44" s="14">
         <v>11</v>
       </c>
-      <c r="M44" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="N44" s="24" t="s">
+      <c r="M44" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="N44" s="30" t="s">
         <v>315</v>
+      </c>
+      <c r="O44" s="10">
+        <v>0</v>
       </c>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
@@ -4518,8 +4570,8 @@
       <c r="L45" s="14">
         <v>12</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
@@ -4568,8 +4620,8 @@
       <c r="L46" s="14">
         <v>13</v>
       </c>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
@@ -4617,8 +4669,8 @@
       <c r="L47" s="14">
         <v>14</v>
       </c>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
@@ -4659,7 +4711,7 @@
         <v>26</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>303</v>
@@ -4668,11 +4720,14 @@
       <c r="L48" s="14">
         <v>15</v>
       </c>
-      <c r="M48" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="N48" s="24" t="s">
+      <c r="M48" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="N48" s="30" t="s">
         <v>318</v>
+      </c>
+      <c r="O48" s="10">
+        <v>0</v>
       </c>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
@@ -4721,8 +4776,8 @@
       <c r="L49" s="14">
         <v>16</v>
       </c>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
@@ -4772,8 +4827,8 @@
       <c r="L50" s="14">
         <v>17</v>
       </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
@@ -4821,8 +4876,8 @@
       <c r="L51" s="14">
         <v>18</v>
       </c>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
@@ -4872,11 +4927,14 @@
       <c r="L52" s="14">
         <v>19</v>
       </c>
-      <c r="M52" s="24" t="s">
+      <c r="M52" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N52" s="24" t="s">
+      <c r="N52" s="30" t="s">
         <v>316</v>
+      </c>
+      <c r="O52" s="10">
+        <v>0</v>
       </c>
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
@@ -4925,8 +4983,8 @@
       <c r="L53" s="14">
         <v>20</v>
       </c>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
@@ -4967,7 +5025,7 @@
         <v>26</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>303</v>
@@ -4976,11 +5034,14 @@
       <c r="L54" s="14">
         <v>21</v>
       </c>
-      <c r="M54" s="24" t="s">
+      <c r="M54" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N54" s="24" t="s">
+      <c r="N54" s="30" t="s">
         <v>317</v>
+      </c>
+      <c r="O54" s="10">
+        <v>0</v>
       </c>
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
@@ -5021,8 +5082,8 @@
       <c r="L55" s="14">
         <v>22</v>
       </c>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
@@ -5062,11 +5123,14 @@
       <c r="L56" s="14">
         <v>23</v>
       </c>
-      <c r="M56" s="24" t="s">
+      <c r="M56" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N56" s="26" t="s">
-        <v>357</v>
+      <c r="N56" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="O56" s="10">
+        <v>0</v>
       </c>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
@@ -5107,8 +5171,8 @@
       <c r="L57" s="14">
         <v>24</v>
       </c>
-      <c r="M57" s="24"/>
-      <c r="N57" s="27"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="22"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
@@ -5149,11 +5213,14 @@
       <c r="L58" s="14">
         <v>25</v>
       </c>
-      <c r="M58" s="24" t="s">
+      <c r="M58" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="N58" s="24" t="s">
+      <c r="N58" s="30" t="s">
         <v>313</v>
+      </c>
+      <c r="O58" s="10">
+        <v>1</v>
       </c>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
@@ -5203,8 +5270,11 @@
       <c r="L59" s="14">
         <v>26</v>
       </c>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="10" t="s">
+        <v>388</v>
+      </c>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
@@ -5253,8 +5323,8 @@
       <c r="L60" s="14">
         <v>27</v>
       </c>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
@@ -5295,8 +5365,8 @@
       <c r="L61" s="14">
         <v>28</v>
       </c>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
@@ -5349,11 +5419,14 @@
       <c r="L62" s="14">
         <v>29</v>
       </c>
-      <c r="M62" s="24" t="s">
+      <c r="M62" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="N62" s="24" t="s">
+      <c r="N62" s="30" t="s">
         <v>314</v>
+      </c>
+      <c r="O62" s="10">
+        <v>1</v>
       </c>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -5405,8 +5478,8 @@
       <c r="L63" s="14">
         <v>30</v>
       </c>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
@@ -5455,8 +5528,8 @@
       <c r="L64" s="14">
         <v>31</v>
       </c>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
@@ -5504,8 +5577,8 @@
       <c r="L65" s="14">
         <v>32</v>
       </c>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
@@ -5556,11 +5629,14 @@
       <c r="L66" s="14">
         <v>33</v>
       </c>
-      <c r="M66" s="24" t="s">
+      <c r="M66" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N66" s="24" t="s">
-        <v>359</v>
+      <c r="N66" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="O66" s="10">
+        <v>0</v>
       </c>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
@@ -5610,8 +5686,8 @@
       <c r="L67" s="14">
         <v>34</v>
       </c>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
@@ -5660,11 +5736,14 @@
       <c r="L68" s="14">
         <v>35</v>
       </c>
-      <c r="M68" s="24" t="s">
+      <c r="M68" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N68" s="26" t="s">
-        <v>360</v>
+      <c r="N68" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="O68" s="10">
+        <v>0</v>
       </c>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
@@ -5707,15 +5786,15 @@
         <v>10</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>152</v>
+        <v>382</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="14">
         <v>36</v>
       </c>
-      <c r="M69" s="24"/>
-      <c r="N69" s="27"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="22"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
@@ -5768,11 +5847,14 @@
       <c r="L70" s="14">
         <v>37</v>
       </c>
-      <c r="M70" s="24" t="s">
+      <c r="M70" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="N70" s="24" t="s">
+      <c r="N70" s="30" t="s">
         <v>311</v>
+      </c>
+      <c r="O70" s="10">
+        <v>1</v>
       </c>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
@@ -5824,8 +5906,8 @@
       <c r="L71" s="14">
         <v>38</v>
       </c>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
@@ -5874,8 +5956,8 @@
       <c r="L72" s="14">
         <v>39</v>
       </c>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="30"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
@@ -5923,8 +6005,8 @@
       <c r="L73" s="14">
         <v>40</v>
       </c>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
@@ -5965,11 +6047,14 @@
       <c r="L74" s="14">
         <v>41</v>
       </c>
-      <c r="M74" s="24" t="s">
+      <c r="M74" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="24" t="s">
+      <c r="N74" s="30" t="s">
         <v>312</v>
+      </c>
+      <c r="O74" s="10">
+        <v>1</v>
       </c>
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
@@ -6011,8 +6096,8 @@
       <c r="L75" s="14">
         <v>42</v>
       </c>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
@@ -6053,8 +6138,8 @@
       <c r="L76" s="14">
         <v>43</v>
       </c>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
@@ -6095,8 +6180,8 @@
       <c r="L77" s="14">
         <v>44</v>
       </c>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
@@ -6111,7 +6196,7 @@
       <c r="AD77" s="9"/>
       <c r="AE77" s="9"/>
     </row>
-    <row r="78" spans="1:31" ht="12">
+    <row r="78" spans="1:31" ht="12" customHeight="1">
       <c r="A78" s="8">
         <v>1535</v>
       </c>
@@ -6137,11 +6222,14 @@
       <c r="L78" s="14">
         <v>45</v>
       </c>
-      <c r="M78" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="N78" s="28" t="s">
-        <v>361</v>
+      <c r="M78" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="N78" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="O78" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
@@ -6183,8 +6271,8 @@
       <c r="L79" s="14">
         <v>46</v>
       </c>
-      <c r="M79" s="24"/>
-      <c r="N79" s="28"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="24"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
@@ -6219,8 +6307,8 @@
       <c r="L80" s="14">
         <v>47</v>
       </c>
-      <c r="M80" s="24"/>
-      <c r="N80" s="28"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="24"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
@@ -6268,8 +6356,8 @@
       <c r="L81" s="14">
         <v>48</v>
       </c>
-      <c r="M81" s="24"/>
-      <c r="N81" s="28"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="24"/>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
@@ -6320,12 +6408,8 @@
       <c r="L82" s="14">
         <v>49</v>
       </c>
-      <c r="M82" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="N82" s="18" t="s">
-        <v>339</v>
-      </c>
+      <c r="M82" s="22"/>
+      <c r="N82" s="25"/>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9"/>
@@ -7192,7 +7276,7 @@
         <v>10</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>304</v>
@@ -7802,7 +7886,7 @@
         <v>float</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>94</v>
@@ -7812,10 +7896,10 @@
         <v>10</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -8443,20 +8527,20 @@
         <v>float</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="8">
         <v>100</v>
       </c>
       <c r="I128" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="J128" s="9" t="s">
         <v>353</v>
-      </c>
-      <c r="J128" s="9" t="s">
-        <v>354</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -9490,7 +9574,7 @@
         <v>10</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
@@ -9542,7 +9626,7 @@
         <v>10</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
@@ -9594,7 +9678,7 @@
         <v>10</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
@@ -10419,15 +10503,15 @@
         <v>float</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G170" s="9"/>
       <c r="H170" s="8"/>
       <c r="I170" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
@@ -10469,15 +10553,15 @@
         <v>float</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G171" s="9"/>
       <c r="H171" s="8"/>
       <c r="I171" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
@@ -10519,15 +10603,15 @@
         <v>float</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G172" s="9"/>
       <c r="H172" s="8"/>
       <c r="I172" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
@@ -10569,15 +10653,15 @@
         <v>float</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G173" s="9"/>
       <c r="H173" s="8"/>
       <c r="I173" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
@@ -11917,7 +12001,7 @@
         <v>100</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
@@ -12017,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
@@ -12113,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="I206" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J206" s="9"/>
       <c r="K206" s="9"/>
@@ -12209,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
@@ -12661,7 +12745,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J218" s="9"/>
       <c r="K218" s="9"/>
@@ -14121,7 +14205,7 @@
         <v>100</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J250" s="9"/>
       <c r="K250" s="9"/>
@@ -14173,7 +14257,7 @@
         <v>100</v>
       </c>
       <c r="I251" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J251" s="9"/>
       <c r="K251" s="9"/>
@@ -14409,7 +14493,7 @@
         <v>100</v>
       </c>
       <c r="I256" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J256" s="9"/>
       <c r="K256" s="9"/>
@@ -36790,14 +36874,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
     <mergeCell ref="M74:M77"/>
     <mergeCell ref="N74:N77"/>
     <mergeCell ref="M58:M61"/>
@@ -36806,27 +36882,35 @@
     <mergeCell ref="N62:N65"/>
     <mergeCell ref="M66:M67"/>
     <mergeCell ref="N66:N67"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
     <mergeCell ref="M18:T18"/>
     <mergeCell ref="M38:M39"/>
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="M44:M47"/>
     <mergeCell ref="N44:N47"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
     <mergeCell ref="M42:M43"/>
     <mergeCell ref="N42:N43"/>
+    <mergeCell ref="M78:M82"/>
+    <mergeCell ref="N78:N82"/>
     <mergeCell ref="L19:L23"/>
     <mergeCell ref="M27:T28"/>
     <mergeCell ref="M29:T30"/>
     <mergeCell ref="L24:L26"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="N36:N37"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66939,12 +67023,12 @@
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="2" t="s">
         <v>121</v>
       </c>
@@ -66956,11 +67040,11 @@
       <c r="B2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="12.75">
@@ -66970,11 +67054,11 @@
       <c r="B3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="2" t="s">
@@ -66983,11 +67067,11 @@
       <c r="B4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="2" t="s">
@@ -66996,24 +67080,24 @@
       <c r="B5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="2" t="s">
         <v>131</v>
       </c>
@@ -67042,14 +67126,14 @@
       <c r="A8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="29" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="2" t="s">
         <v>136</v>
       </c>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8761B942-6C82-48A3-9A48-18DB11650DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C34233-9053-44AA-88FB-2B3CCD0082B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project-e" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="390">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -1705,6 +1705,10 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>CCP_A_accel_G_cancel_mss</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -1905,13 +1909,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1934,12 +1944,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2165,8 +2169,8 @@
   </sheetPr>
   <dimension ref="A1:AE987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L41" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O79" sqref="O79"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3118,16 +3122,16 @@
       <c r="L18" s="18">
         <v>0</v>
       </c>
-      <c r="M18" s="31" t="s">
+      <c r="M18" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -3172,7 +3176,7 @@
         <v>302</v>
       </c>
       <c r="K19" s="9"/>
-      <c r="L19" s="26">
+      <c r="L19" s="28">
         <v>1</v>
       </c>
       <c r="M19" s="15" t="s">
@@ -3233,7 +3237,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15">
         <v>1</v>
       </c>
@@ -3293,7 +3297,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="27"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="15">
         <v>0</v>
       </c>
@@ -3353,7 +3357,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="27"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15">
         <v>0</v>
       </c>
@@ -3413,7 +3417,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="28"/>
+      <c r="L23" s="30"/>
       <c r="M23" s="15">
         <v>1</v>
       </c>
@@ -3473,7 +3477,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="29">
+      <c r="L24" s="31">
         <v>2</v>
       </c>
       <c r="M24" s="15" t="s">
@@ -3534,7 +3538,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="29"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="15" t="s">
         <v>327</v>
       </c>
@@ -3593,7 +3597,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="29"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="15" t="s">
         <v>326</v>
       </c>
@@ -3655,16 +3659,16 @@
       <c r="L27" s="16">
         <v>3</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="M27" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
@@ -3702,14 +3706,14 @@
       <c r="L28" s="16">
         <v>4</v>
       </c>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
@@ -3755,16 +3759,16 @@
       <c r="L29" s="16">
         <v>5</v>
       </c>
-      <c r="M29" s="30" t="s">
+      <c r="M29" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
@@ -3812,14 +3816,14 @@
       <c r="L30" s="16">
         <v>6</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
@@ -4128,10 +4132,10 @@
       <c r="L36" s="14">
         <v>3</v>
       </c>
-      <c r="M36" s="30" t="s">
+      <c r="M36" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="N36" s="30" t="s">
+      <c r="N36" s="20" t="s">
         <v>306</v>
       </c>
       <c r="O36" s="10">
@@ -4182,8 +4186,8 @@
       <c r="L37" s="14">
         <v>4</v>
       </c>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
@@ -4231,10 +4235,10 @@
       <c r="L38" s="14">
         <v>5</v>
       </c>
-      <c r="M38" s="30" t="s">
+      <c r="M38" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N38" s="30" t="s">
+      <c r="N38" s="20" t="s">
         <v>309</v>
       </c>
       <c r="O38" s="10">
@@ -4285,8 +4289,8 @@
       <c r="L39" s="14">
         <v>6</v>
       </c>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
@@ -4334,10 +4338,10 @@
       <c r="L40" s="14">
         <v>7</v>
       </c>
-      <c r="M40" s="30" t="s">
+      <c r="M40" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N40" s="30" t="s">
+      <c r="N40" s="20" t="s">
         <v>308</v>
       </c>
       <c r="O40" s="10">
@@ -4386,8 +4390,8 @@
       <c r="L41" s="14">
         <v>8</v>
       </c>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
@@ -4431,10 +4435,10 @@
       <c r="L42" s="14">
         <v>9</v>
       </c>
-      <c r="M42" s="30" t="s">
+      <c r="M42" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N42" s="30" t="s">
+      <c r="N42" s="20" t="s">
         <v>357</v>
       </c>
       <c r="O42" s="10">
@@ -4477,8 +4481,8 @@
       <c r="L43" s="14">
         <v>10</v>
       </c>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
@@ -4516,10 +4520,10 @@
       <c r="L44" s="14">
         <v>11</v>
       </c>
-      <c r="M44" s="30" t="s">
+      <c r="M44" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="N44" s="30" t="s">
+      <c r="N44" s="20" t="s">
         <v>315</v>
       </c>
       <c r="O44" s="10">
@@ -4570,8 +4574,8 @@
       <c r="L45" s="14">
         <v>12</v>
       </c>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
@@ -4620,8 +4624,8 @@
       <c r="L46" s="14">
         <v>13</v>
       </c>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
@@ -4669,8 +4673,8 @@
       <c r="L47" s="14">
         <v>14</v>
       </c>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
@@ -4720,10 +4724,10 @@
       <c r="L48" s="14">
         <v>15</v>
       </c>
-      <c r="M48" s="30" t="s">
+      <c r="M48" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="N48" s="30" t="s">
+      <c r="N48" s="20" t="s">
         <v>318</v>
       </c>
       <c r="O48" s="10">
@@ -4776,8 +4780,8 @@
       <c r="L49" s="14">
         <v>16</v>
       </c>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
@@ -4827,8 +4831,8 @@
       <c r="L50" s="14">
         <v>17</v>
       </c>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
@@ -4876,8 +4880,8 @@
       <c r="L51" s="14">
         <v>18</v>
       </c>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
@@ -4927,10 +4931,10 @@
       <c r="L52" s="14">
         <v>19</v>
       </c>
-      <c r="M52" s="30" t="s">
+      <c r="M52" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N52" s="30" t="s">
+      <c r="N52" s="20" t="s">
         <v>316</v>
       </c>
       <c r="O52" s="10">
@@ -4983,8 +4987,8 @@
       <c r="L53" s="14">
         <v>20</v>
       </c>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
@@ -5034,10 +5038,10 @@
       <c r="L54" s="14">
         <v>21</v>
       </c>
-      <c r="M54" s="30" t="s">
+      <c r="M54" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N54" s="30" t="s">
+      <c r="N54" s="20" t="s">
         <v>317</v>
       </c>
       <c r="O54" s="10">
@@ -5082,8 +5086,8 @@
       <c r="L55" s="14">
         <v>22</v>
       </c>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
@@ -5123,10 +5127,10 @@
       <c r="L56" s="14">
         <v>23</v>
       </c>
-      <c r="M56" s="30" t="s">
+      <c r="M56" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N56" s="20" t="s">
+      <c r="N56" s="21" t="s">
         <v>356</v>
       </c>
       <c r="O56" s="10">
@@ -5171,7 +5175,7 @@
       <c r="L57" s="14">
         <v>24</v>
       </c>
-      <c r="M57" s="30"/>
+      <c r="M57" s="20"/>
       <c r="N57" s="22"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
@@ -5213,10 +5217,10 @@
       <c r="L58" s="14">
         <v>25</v>
       </c>
-      <c r="M58" s="30" t="s">
+      <c r="M58" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="N58" s="30" t="s">
+      <c r="N58" s="20" t="s">
         <v>313</v>
       </c>
       <c r="O58" s="10">
@@ -5270,8 +5274,8 @@
       <c r="L59" s="14">
         <v>26</v>
       </c>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
       <c r="O59" s="10" t="s">
         <v>388</v>
       </c>
@@ -5323,8 +5327,8 @@
       <c r="L60" s="14">
         <v>27</v>
       </c>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
@@ -5365,8 +5369,8 @@
       <c r="L61" s="14">
         <v>28</v>
       </c>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
@@ -5419,10 +5423,10 @@
       <c r="L62" s="14">
         <v>29</v>
       </c>
-      <c r="M62" s="30" t="s">
+      <c r="M62" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="N62" s="30" t="s">
+      <c r="N62" s="20" t="s">
         <v>314</v>
       </c>
       <c r="O62" s="10">
@@ -5478,8 +5482,8 @@
       <c r="L63" s="14">
         <v>30</v>
       </c>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
@@ -5528,8 +5532,8 @@
       <c r="L64" s="14">
         <v>31</v>
       </c>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
@@ -5577,8 +5581,8 @@
       <c r="L65" s="14">
         <v>32</v>
       </c>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
@@ -5629,10 +5633,10 @@
       <c r="L66" s="14">
         <v>33</v>
       </c>
-      <c r="M66" s="30" t="s">
+      <c r="M66" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N66" s="30" t="s">
+      <c r="N66" s="20" t="s">
         <v>358</v>
       </c>
       <c r="O66" s="10">
@@ -5686,8 +5690,8 @@
       <c r="L67" s="14">
         <v>34</v>
       </c>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
@@ -5736,10 +5740,10 @@
       <c r="L68" s="14">
         <v>35</v>
       </c>
-      <c r="M68" s="30" t="s">
+      <c r="M68" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N68" s="20" t="s">
+      <c r="N68" s="21" t="s">
         <v>359</v>
       </c>
       <c r="O68" s="10">
@@ -5793,7 +5797,7 @@
       <c r="L69" s="14">
         <v>36</v>
       </c>
-      <c r="M69" s="30"/>
+      <c r="M69" s="20"/>
       <c r="N69" s="22"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
@@ -5847,10 +5851,10 @@
       <c r="L70" s="14">
         <v>37</v>
       </c>
-      <c r="M70" s="30" t="s">
+      <c r="M70" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="N70" s="30" t="s">
+      <c r="N70" s="20" t="s">
         <v>311</v>
       </c>
       <c r="O70" s="10">
@@ -5906,8 +5910,8 @@
       <c r="L71" s="14">
         <v>38</v>
       </c>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
@@ -5956,8 +5960,8 @@
       <c r="L72" s="14">
         <v>39</v>
       </c>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
@@ -6005,8 +6009,8 @@
       <c r="L73" s="14">
         <v>40</v>
       </c>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
@@ -6047,10 +6051,10 @@
       <c r="L74" s="14">
         <v>41</v>
       </c>
-      <c r="M74" s="30" t="s">
+      <c r="M74" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="30" t="s">
+      <c r="N74" s="20" t="s">
         <v>312</v>
       </c>
       <c r="O74" s="10">
@@ -6096,8 +6100,8 @@
       <c r="L75" s="14">
         <v>42</v>
       </c>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
@@ -6138,8 +6142,8 @@
       <c r="L76" s="14">
         <v>43</v>
       </c>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
@@ -6180,8 +6184,8 @@
       <c r="L77" s="14">
         <v>44</v>
       </c>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
@@ -6222,10 +6226,10 @@
       <c r="L78" s="14">
         <v>45</v>
       </c>
-      <c r="M78" s="20" t="s">
+      <c r="M78" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="N78" s="23" t="s">
+      <c r="N78" s="25" t="s">
         <v>385</v>
       </c>
       <c r="O78" s="10" t="s">
@@ -6271,8 +6275,8 @@
       <c r="L79" s="14">
         <v>46</v>
       </c>
-      <c r="M79" s="21"/>
-      <c r="N79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="26"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
@@ -6307,8 +6311,8 @@
       <c r="L80" s="14">
         <v>47</v>
       </c>
-      <c r="M80" s="21"/>
-      <c r="N80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="26"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
@@ -6356,8 +6360,8 @@
       <c r="L81" s="14">
         <v>48</v>
       </c>
-      <c r="M81" s="21"/>
-      <c r="N81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="26"/>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
@@ -6409,7 +6413,7 @@
         <v>49</v>
       </c>
       <c r="M82" s="22"/>
-      <c r="N82" s="25"/>
+      <c r="N82" s="27"/>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9"/>
@@ -11302,7 +11306,9 @@
         <f t="shared" si="2"/>
         <v>fp16</v>
       </c>
-      <c r="E187" s="9"/>
+      <c r="E187" s="9" t="s">
+        <v>389</v>
+      </c>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
       <c r="H187" s="8"/>
@@ -36874,27 +36880,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M18:T18"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
     <mergeCell ref="M78:M82"/>
     <mergeCell ref="N78:N82"/>
     <mergeCell ref="L19:L23"/>
@@ -36911,6 +36896,27 @@
     <mergeCell ref="N48:N51"/>
     <mergeCell ref="M52:M53"/>
     <mergeCell ref="N52:N53"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C34233-9053-44AA-88FB-2B3CCD0082B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A6460B-5D54-4CFF-B2BA-36BA57F7105F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project-e" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="391">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -1709,6 +1709,25 @@
     <t>CCP_A_accel_G_cancel_mss</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>水密外水密続後</t>
+    <rPh sb="0" eb="2">
+      <t>スイミツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スイミツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -1909,19 +1928,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1944,6 +1957,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2169,8 +2188,8 @@
   </sheetPr>
   <dimension ref="A1:AE987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E188" sqref="E188"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2253,7 +2272,9 @@
       <c r="X2" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="Y2" s="9"/>
+      <c r="Y2" s="9" t="s">
+        <v>390</v>
+      </c>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
@@ -2293,7 +2314,10 @@
         <f>M8+N8+O8+P8+T8+U8+V8+W8</f>
         <v>980</v>
       </c>
-      <c r="Y3" s="9"/>
+      <c r="Y3" s="9">
+        <f>X3+S8</f>
+        <v>1080</v>
+      </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
@@ -3122,16 +3146,16 @@
       <c r="L18" s="18">
         <v>0</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -3176,7 +3200,7 @@
         <v>302</v>
       </c>
       <c r="K19" s="9"/>
-      <c r="L19" s="28">
+      <c r="L19" s="26">
         <v>1</v>
       </c>
       <c r="M19" s="15" t="s">
@@ -3237,7 +3261,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="29"/>
+      <c r="L20" s="27"/>
       <c r="M20" s="15">
         <v>1</v>
       </c>
@@ -3297,7 +3321,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="29"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="15">
         <v>0</v>
       </c>
@@ -3357,7 +3381,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="29"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="15">
         <v>0</v>
       </c>
@@ -3417,7 +3441,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="30"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="15">
         <v>1</v>
       </c>
@@ -3477,7 +3501,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="31">
+      <c r="L24" s="29">
         <v>2</v>
       </c>
       <c r="M24" s="15" t="s">
@@ -3538,7 +3562,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="31"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15" t="s">
         <v>327</v>
       </c>
@@ -3597,7 +3621,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="31"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="15" t="s">
         <v>326</v>
       </c>
@@ -3659,16 +3683,16 @@
       <c r="L27" s="16">
         <v>3</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="M27" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
@@ -3706,14 +3730,14 @@
       <c r="L28" s="16">
         <v>4</v>
       </c>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
@@ -3759,16 +3783,16 @@
       <c r="L29" s="16">
         <v>5</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
@@ -3816,14 +3840,14 @@
       <c r="L30" s="16">
         <v>6</v>
       </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
@@ -4132,10 +4156,10 @@
       <c r="L36" s="14">
         <v>3</v>
       </c>
-      <c r="M36" s="20" t="s">
+      <c r="M36" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="N36" s="20" t="s">
+      <c r="N36" s="30" t="s">
         <v>306</v>
       </c>
       <c r="O36" s="10">
@@ -4186,8 +4210,8 @@
       <c r="L37" s="14">
         <v>4</v>
       </c>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
@@ -4235,10 +4259,10 @@
       <c r="L38" s="14">
         <v>5</v>
       </c>
-      <c r="M38" s="20" t="s">
+      <c r="M38" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N38" s="20" t="s">
+      <c r="N38" s="30" t="s">
         <v>309</v>
       </c>
       <c r="O38" s="10">
@@ -4289,8 +4313,8 @@
       <c r="L39" s="14">
         <v>6</v>
       </c>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
@@ -4338,10 +4362,10 @@
       <c r="L40" s="14">
         <v>7</v>
       </c>
-      <c r="M40" s="20" t="s">
+      <c r="M40" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N40" s="20" t="s">
+      <c r="N40" s="30" t="s">
         <v>308</v>
       </c>
       <c r="O40" s="10">
@@ -4390,8 +4414,8 @@
       <c r="L41" s="14">
         <v>8</v>
       </c>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
@@ -4435,10 +4459,10 @@
       <c r="L42" s="14">
         <v>9</v>
       </c>
-      <c r="M42" s="20" t="s">
+      <c r="M42" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N42" s="20" t="s">
+      <c r="N42" s="30" t="s">
         <v>357</v>
       </c>
       <c r="O42" s="10">
@@ -4481,8 +4505,8 @@
       <c r="L43" s="14">
         <v>10</v>
       </c>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
@@ -4520,10 +4544,10 @@
       <c r="L44" s="14">
         <v>11</v>
       </c>
-      <c r="M44" s="20" t="s">
+      <c r="M44" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="N44" s="20" t="s">
+      <c r="N44" s="30" t="s">
         <v>315</v>
       </c>
       <c r="O44" s="10">
@@ -4574,8 +4598,8 @@
       <c r="L45" s="14">
         <v>12</v>
       </c>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
@@ -4624,8 +4648,8 @@
       <c r="L46" s="14">
         <v>13</v>
       </c>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
@@ -4673,8 +4697,8 @@
       <c r="L47" s="14">
         <v>14</v>
       </c>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
@@ -4724,10 +4748,10 @@
       <c r="L48" s="14">
         <v>15</v>
       </c>
-      <c r="M48" s="20" t="s">
+      <c r="M48" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="N48" s="20" t="s">
+      <c r="N48" s="30" t="s">
         <v>318</v>
       </c>
       <c r="O48" s="10">
@@ -4780,8 +4804,8 @@
       <c r="L49" s="14">
         <v>16</v>
       </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
@@ -4831,8 +4855,8 @@
       <c r="L50" s="14">
         <v>17</v>
       </c>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
@@ -4880,8 +4904,8 @@
       <c r="L51" s="14">
         <v>18</v>
       </c>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
@@ -4931,10 +4955,10 @@
       <c r="L52" s="14">
         <v>19</v>
       </c>
-      <c r="M52" s="20" t="s">
+      <c r="M52" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N52" s="20" t="s">
+      <c r="N52" s="30" t="s">
         <v>316</v>
       </c>
       <c r="O52" s="10">
@@ -4987,8 +5011,8 @@
       <c r="L53" s="14">
         <v>20</v>
       </c>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
@@ -5038,10 +5062,10 @@
       <c r="L54" s="14">
         <v>21</v>
       </c>
-      <c r="M54" s="20" t="s">
+      <c r="M54" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N54" s="20" t="s">
+      <c r="N54" s="30" t="s">
         <v>317</v>
       </c>
       <c r="O54" s="10">
@@ -5086,8 +5110,8 @@
       <c r="L55" s="14">
         <v>22</v>
       </c>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
@@ -5127,10 +5151,10 @@
       <c r="L56" s="14">
         <v>23</v>
       </c>
-      <c r="M56" s="20" t="s">
+      <c r="M56" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N56" s="21" t="s">
+      <c r="N56" s="20" t="s">
         <v>356</v>
       </c>
       <c r="O56" s="10">
@@ -5175,7 +5199,7 @@
       <c r="L57" s="14">
         <v>24</v>
       </c>
-      <c r="M57" s="20"/>
+      <c r="M57" s="30"/>
       <c r="N57" s="22"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
@@ -5217,10 +5241,10 @@
       <c r="L58" s="14">
         <v>25</v>
       </c>
-      <c r="M58" s="20" t="s">
+      <c r="M58" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="N58" s="20" t="s">
+      <c r="N58" s="30" t="s">
         <v>313</v>
       </c>
       <c r="O58" s="10">
@@ -5274,8 +5298,8 @@
       <c r="L59" s="14">
         <v>26</v>
       </c>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
       <c r="O59" s="10" t="s">
         <v>388</v>
       </c>
@@ -5327,8 +5351,8 @@
       <c r="L60" s="14">
         <v>27</v>
       </c>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
@@ -5369,8 +5393,8 @@
       <c r="L61" s="14">
         <v>28</v>
       </c>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
@@ -5423,10 +5447,10 @@
       <c r="L62" s="14">
         <v>29</v>
       </c>
-      <c r="M62" s="20" t="s">
+      <c r="M62" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="N62" s="20" t="s">
+      <c r="N62" s="30" t="s">
         <v>314</v>
       </c>
       <c r="O62" s="10">
@@ -5482,8 +5506,8 @@
       <c r="L63" s="14">
         <v>30</v>
       </c>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
@@ -5532,8 +5556,8 @@
       <c r="L64" s="14">
         <v>31</v>
       </c>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
@@ -5581,8 +5605,8 @@
       <c r="L65" s="14">
         <v>32</v>
       </c>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
@@ -5633,10 +5657,10 @@
       <c r="L66" s="14">
         <v>33</v>
       </c>
-      <c r="M66" s="20" t="s">
+      <c r="M66" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N66" s="20" t="s">
+      <c r="N66" s="30" t="s">
         <v>358</v>
       </c>
       <c r="O66" s="10">
@@ -5690,8 +5714,8 @@
       <c r="L67" s="14">
         <v>34</v>
       </c>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
@@ -5740,10 +5764,10 @@
       <c r="L68" s="14">
         <v>35</v>
       </c>
-      <c r="M68" s="20" t="s">
+      <c r="M68" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N68" s="21" t="s">
+      <c r="N68" s="20" t="s">
         <v>359</v>
       </c>
       <c r="O68" s="10">
@@ -5797,7 +5821,7 @@
       <c r="L69" s="14">
         <v>36</v>
       </c>
-      <c r="M69" s="20"/>
+      <c r="M69" s="30"/>
       <c r="N69" s="22"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
@@ -5851,10 +5875,10 @@
       <c r="L70" s="14">
         <v>37</v>
       </c>
-      <c r="M70" s="20" t="s">
+      <c r="M70" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="N70" s="20" t="s">
+      <c r="N70" s="30" t="s">
         <v>311</v>
       </c>
       <c r="O70" s="10">
@@ -5910,8 +5934,8 @@
       <c r="L71" s="14">
         <v>38</v>
       </c>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
@@ -5960,8 +5984,8 @@
       <c r="L72" s="14">
         <v>39</v>
       </c>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="30"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
@@ -6009,8 +6033,8 @@
       <c r="L73" s="14">
         <v>40</v>
       </c>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
@@ -6051,10 +6075,10 @@
       <c r="L74" s="14">
         <v>41</v>
       </c>
-      <c r="M74" s="20" t="s">
+      <c r="M74" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="20" t="s">
+      <c r="N74" s="30" t="s">
         <v>312</v>
       </c>
       <c r="O74" s="10">
@@ -6100,8 +6124,8 @@
       <c r="L75" s="14">
         <v>42</v>
       </c>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
@@ -6142,8 +6166,8 @@
       <c r="L76" s="14">
         <v>43</v>
       </c>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
@@ -6184,8 +6208,8 @@
       <c r="L77" s="14">
         <v>44</v>
       </c>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
@@ -6226,10 +6250,10 @@
       <c r="L78" s="14">
         <v>45</v>
       </c>
-      <c r="M78" s="21" t="s">
+      <c r="M78" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="N78" s="25" t="s">
+      <c r="N78" s="23" t="s">
         <v>385</v>
       </c>
       <c r="O78" s="10" t="s">
@@ -6275,8 +6299,8 @@
       <c r="L79" s="14">
         <v>46</v>
       </c>
-      <c r="M79" s="24"/>
-      <c r="N79" s="26"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="24"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
@@ -6311,8 +6335,8 @@
       <c r="L80" s="14">
         <v>47</v>
       </c>
-      <c r="M80" s="24"/>
-      <c r="N80" s="26"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="24"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
@@ -6360,8 +6384,8 @@
       <c r="L81" s="14">
         <v>48</v>
       </c>
-      <c r="M81" s="24"/>
-      <c r="N81" s="26"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="24"/>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
@@ -6413,7 +6437,7 @@
         <v>49</v>
       </c>
       <c r="M82" s="22"/>
-      <c r="N82" s="27"/>
+      <c r="N82" s="25"/>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9"/>
@@ -36880,6 +36904,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
     <mergeCell ref="M78:M82"/>
     <mergeCell ref="N78:N82"/>
     <mergeCell ref="L19:L23"/>
@@ -36896,27 +36941,6 @@
     <mergeCell ref="N48:N51"/>
     <mergeCell ref="M52:M53"/>
     <mergeCell ref="N52:N53"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M18:T18"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CANID.xlsx
+++ b/CANID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEC-PCuser\Documents\Arduino\libraries\CCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A6460B-5D54-4CFF-B2BA-36BA57F7105F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5255BEF-B791-4925-BC42-20C9C2E35459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project-e" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="392">
   <si>
     <t>周波数が高いものは基本下の方に</t>
   </si>
@@ -1575,10 +1575,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>燃焼圧力</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>高精度加速度</t>
   </si>
   <si>
@@ -1725,6 +1721,20 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>維持</t>
+    <rPh sb="0" eb="2">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1928,13 +1938,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1957,12 +1973,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2188,8 +2198,8 @@
   </sheetPr>
   <dimension ref="A1:AE987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2270,10 +2280,10 @@
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
       <c r="X2" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
@@ -2362,18 +2372,18 @@
         <v>920</v>
       </c>
       <c r="Q4" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>376</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>377</v>
       </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="W4" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>379</v>
       </c>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
@@ -2446,26 +2456,26 @@
         <v>335</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="W6" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>381</v>
       </c>
       <c r="X6" s="9"/>
       <c r="AB6" s="9"/>
@@ -2815,19 +2825,19 @@
         <v>282</v>
       </c>
       <c r="O12" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="P12" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="Q12" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="S12" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="T12" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>375</v>
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -2874,20 +2884,20 @@
         <v>285</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>286</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -3146,16 +3156,16 @@
       <c r="L18" s="18">
         <v>0</v>
       </c>
-      <c r="M18" s="31" t="s">
+      <c r="M18" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -3200,7 +3210,7 @@
         <v>302</v>
       </c>
       <c r="K19" s="9"/>
-      <c r="L19" s="26">
+      <c r="L19" s="28">
         <v>1</v>
       </c>
       <c r="M19" s="15" t="s">
@@ -3261,7 +3271,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15">
         <v>1</v>
       </c>
@@ -3321,7 +3331,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="27"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="15">
         <v>0</v>
       </c>
@@ -3381,7 +3391,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="27"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15">
         <v>0</v>
       </c>
@@ -3441,7 +3451,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="28"/>
+      <c r="L23" s="30"/>
       <c r="M23" s="15">
         <v>1</v>
       </c>
@@ -3501,7 +3511,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="29">
+      <c r="L24" s="31">
         <v>2</v>
       </c>
       <c r="M24" s="15" t="s">
@@ -3562,7 +3572,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="29"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="15" t="s">
         <v>327</v>
       </c>
@@ -3621,7 +3631,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="29"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="15" t="s">
         <v>326</v>
       </c>
@@ -3683,16 +3693,16 @@
       <c r="L27" s="16">
         <v>3</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="M27" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
@@ -3730,14 +3740,14 @@
       <c r="L28" s="16">
         <v>4</v>
       </c>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
@@ -3769,7 +3779,7 @@
         <v>44</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="8" t="s">
@@ -3783,16 +3793,16 @@
       <c r="L29" s="16">
         <v>5</v>
       </c>
-      <c r="M29" s="30" t="s">
+      <c r="M29" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
@@ -3840,14 +3850,14 @@
       <c r="L30" s="16">
         <v>6</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
@@ -3942,7 +3952,7 @@
       </c>
       <c r="N32" s="9"/>
       <c r="O32" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -4156,10 +4166,10 @@
       <c r="L36" s="14">
         <v>3</v>
       </c>
-      <c r="M36" s="30" t="s">
+      <c r="M36" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="N36" s="30" t="s">
+      <c r="N36" s="20" t="s">
         <v>306</v>
       </c>
       <c r="O36" s="10">
@@ -4210,8 +4220,8 @@
       <c r="L37" s="14">
         <v>4</v>
       </c>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
@@ -4259,10 +4269,10 @@
       <c r="L38" s="14">
         <v>5</v>
       </c>
-      <c r="M38" s="30" t="s">
+      <c r="M38" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N38" s="30" t="s">
+      <c r="N38" s="20" t="s">
         <v>309</v>
       </c>
       <c r="O38" s="10">
@@ -4313,8 +4323,8 @@
       <c r="L39" s="14">
         <v>6</v>
       </c>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
@@ -4362,10 +4372,10 @@
       <c r="L40" s="14">
         <v>7</v>
       </c>
-      <c r="M40" s="30" t="s">
+      <c r="M40" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N40" s="30" t="s">
+      <c r="N40" s="20" t="s">
         <v>308</v>
       </c>
       <c r="O40" s="10">
@@ -4414,8 +4424,8 @@
       <c r="L41" s="14">
         <v>8</v>
       </c>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
@@ -4459,10 +4469,10 @@
       <c r="L42" s="14">
         <v>9</v>
       </c>
-      <c r="M42" s="30" t="s">
+      <c r="M42" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N42" s="30" t="s">
+      <c r="N42" s="20" t="s">
         <v>357</v>
       </c>
       <c r="O42" s="10">
@@ -4505,8 +4515,8 @@
       <c r="L43" s="14">
         <v>10</v>
       </c>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
@@ -4544,10 +4554,10 @@
       <c r="L44" s="14">
         <v>11</v>
       </c>
-      <c r="M44" s="30" t="s">
+      <c r="M44" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="N44" s="30" t="s">
+      <c r="N44" s="20" t="s">
         <v>315</v>
       </c>
       <c r="O44" s="10">
@@ -4598,8 +4608,8 @@
       <c r="L45" s="14">
         <v>12</v>
       </c>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
@@ -4648,8 +4658,8 @@
       <c r="L46" s="14">
         <v>13</v>
       </c>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
@@ -4697,8 +4707,8 @@
       <c r="L47" s="14">
         <v>14</v>
       </c>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
@@ -4748,10 +4758,10 @@
       <c r="L48" s="14">
         <v>15</v>
       </c>
-      <c r="M48" s="30" t="s">
+      <c r="M48" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="N48" s="30" t="s">
+      <c r="N48" s="20" t="s">
         <v>318</v>
       </c>
       <c r="O48" s="10">
@@ -4804,8 +4814,8 @@
       <c r="L49" s="14">
         <v>16</v>
       </c>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
@@ -4855,8 +4865,8 @@
       <c r="L50" s="14">
         <v>17</v>
       </c>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
@@ -4904,8 +4914,8 @@
       <c r="L51" s="14">
         <v>18</v>
       </c>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
@@ -4955,10 +4965,10 @@
       <c r="L52" s="14">
         <v>19</v>
       </c>
-      <c r="M52" s="30" t="s">
+      <c r="M52" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N52" s="30" t="s">
+      <c r="N52" s="20" t="s">
         <v>316</v>
       </c>
       <c r="O52" s="10">
@@ -5011,8 +5021,8 @@
       <c r="L53" s="14">
         <v>20</v>
       </c>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
@@ -5062,10 +5072,10 @@
       <c r="L54" s="14">
         <v>21</v>
       </c>
-      <c r="M54" s="30" t="s">
+      <c r="M54" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N54" s="30" t="s">
+      <c r="N54" s="20" t="s">
         <v>317</v>
       </c>
       <c r="O54" s="10">
@@ -5110,8 +5120,8 @@
       <c r="L55" s="14">
         <v>22</v>
       </c>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
@@ -5151,14 +5161,14 @@
       <c r="L56" s="14">
         <v>23</v>
       </c>
-      <c r="M56" s="30" t="s">
+      <c r="M56" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N56" s="20" t="s">
+      <c r="N56" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="O56" s="10">
-        <v>0</v>
+      <c r="O56" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
@@ -5199,7 +5209,7 @@
       <c r="L57" s="14">
         <v>24</v>
       </c>
-      <c r="M57" s="30"/>
+      <c r="M57" s="20"/>
       <c r="N57" s="22"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
@@ -5241,10 +5251,10 @@
       <c r="L58" s="14">
         <v>25</v>
       </c>
-      <c r="M58" s="30" t="s">
+      <c r="M58" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="N58" s="30" t="s">
+      <c r="N58" s="20" t="s">
         <v>313</v>
       </c>
       <c r="O58" s="10">
@@ -5298,10 +5308,10 @@
       <c r="L59" s="14">
         <v>26</v>
       </c>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
       <c r="O59" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
@@ -5351,8 +5361,8 @@
       <c r="L60" s="14">
         <v>27</v>
       </c>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
@@ -5393,8 +5403,8 @@
       <c r="L61" s="14">
         <v>28</v>
       </c>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
@@ -5447,10 +5457,10 @@
       <c r="L62" s="14">
         <v>29</v>
       </c>
-      <c r="M62" s="30" t="s">
+      <c r="M62" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="N62" s="30" t="s">
+      <c r="N62" s="20" t="s">
         <v>314</v>
       </c>
       <c r="O62" s="10">
@@ -5506,8 +5516,8 @@
       <c r="L63" s="14">
         <v>30</v>
       </c>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
@@ -5556,8 +5566,8 @@
       <c r="L64" s="14">
         <v>31</v>
       </c>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
@@ -5605,8 +5615,8 @@
       <c r="L65" s="14">
         <v>32</v>
       </c>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
@@ -5657,10 +5667,10 @@
       <c r="L66" s="14">
         <v>33</v>
       </c>
-      <c r="M66" s="30" t="s">
+      <c r="M66" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N66" s="30" t="s">
+      <c r="N66" s="20" t="s">
         <v>358</v>
       </c>
       <c r="O66" s="10">
@@ -5714,8 +5724,8 @@
       <c r="L67" s="14">
         <v>34</v>
       </c>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
@@ -5764,11 +5774,11 @@
       <c r="L68" s="14">
         <v>35</v>
       </c>
-      <c r="M68" s="30" t="s">
+      <c r="M68" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="N68" s="20" t="s">
-        <v>359</v>
+      <c r="N68" s="21" t="s">
+        <v>391</v>
       </c>
       <c r="O68" s="10">
         <v>0</v>
@@ -5814,14 +5824,14 @@
         <v>10</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="14">
         <v>36</v>
       </c>
-      <c r="M69" s="30"/>
+      <c r="M69" s="20"/>
       <c r="N69" s="22"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
@@ -5875,10 +5885,10 @@
       <c r="L70" s="14">
         <v>37</v>
       </c>
-      <c r="M70" s="30" t="s">
+      <c r="M70" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="N70" s="30" t="s">
+      <c r="N70" s="20" t="s">
         <v>311</v>
       </c>
       <c r="O70" s="10">
@@ -5934,8 +5944,8 @@
       <c r="L71" s="14">
         <v>38</v>
       </c>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
@@ -5984,8 +5994,8 @@
       <c r="L72" s="14">
         <v>39</v>
       </c>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
@@ -6033,8 +6043,8 @@
       <c r="L73" s="14">
         <v>40</v>
       </c>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
@@ -6075,10 +6085,10 @@
       <c r="L74" s="14">
         <v>41</v>
       </c>
-      <c r="M74" s="30" t="s">
+      <c r="M74" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="N74" s="30" t="s">
+      <c r="N74" s="20" t="s">
         <v>312</v>
       </c>
       <c r="O74" s="10">
@@ -6124,8 +6134,8 @@
       <c r="L75" s="14">
         <v>42</v>
       </c>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
@@ -6166,8 +6176,8 @@
       <c r="L76" s="14">
         <v>43</v>
       </c>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
@@ -6208,8 +6218,8 @@
       <c r="L77" s="14">
         <v>44</v>
       </c>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
@@ -6250,14 +6260,14 @@
       <c r="L78" s="14">
         <v>45</v>
       </c>
-      <c r="M78" s="20" t="s">
+      <c r="M78" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="N78" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="N78" s="23" t="s">
-        <v>385</v>
-      </c>
       <c r="O78" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
@@ -6299,8 +6309,8 @@
       <c r="L79" s="14">
         <v>46</v>
       </c>
-      <c r="M79" s="21"/>
-      <c r="N79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="26"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
@@ -6335,8 +6345,8 @@
       <c r="L80" s="14">
         <v>47</v>
       </c>
-      <c r="M80" s="21"/>
-      <c r="N80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="26"/>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
@@ -6384,8 +6394,8 @@
       <c r="L81" s="14">
         <v>48</v>
       </c>
-      <c r="M81" s="21"/>
-      <c r="N81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="26"/>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
@@ -6437,7 +6447,7 @@
         <v>49</v>
       </c>
       <c r="M82" s="22"/>
-      <c r="N82" s="25"/>
+      <c r="N82" s="27"/>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9"/>
@@ -10531,15 +10541,15 @@
         <v>float</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G170" s="9"/>
       <c r="H170" s="8"/>
       <c r="I170" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
@@ -10581,15 +10591,15 @@
         <v>float</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G171" s="9"/>
       <c r="H171" s="8"/>
       <c r="I171" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
@@ -10631,15 +10641,15 @@
         <v>float</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G172" s="9"/>
       <c r="H172" s="8"/>
       <c r="I172" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
@@ -10681,15 +10691,15 @@
         <v>float</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G173" s="9"/>
       <c r="H173" s="8"/>
       <c r="I173" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
@@ -11331,7 +11341,7 @@
         <v>fp16</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
@@ -36904,27 +36914,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M18:T18"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
     <mergeCell ref="M78:M82"/>
     <mergeCell ref="N78:N82"/>
     <mergeCell ref="L19:L23"/>
@@ -36941,6 +36930,27 @@
     <mergeCell ref="N48:N51"/>
     <mergeCell ref="M52:M53"/>
     <mergeCell ref="N52:N53"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
